--- a/职位.xlsx
+++ b/职位.xlsx
@@ -473,22 +473,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python开发</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1-1.6万·13薪</t>
+          <t>6千-1万</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>成都·武侯区</t>
+          <t>武汉·东湖新技术产业开发区</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-5年</t>
+          <t>1年及以上</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,34 +498,34 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUTRWO18-BDsDYFY2VTI.html</t>
+          <t>https://jobs.51job.com/all/coBGEAZ1Y2VmADYVEzAWc.html</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>宁波思艾特软件有限公司</t>
+          <t>武汉先龙科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>python爬虫工程师/爬虫后端工程师</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.2-1.6万</t>
+          <t>1.5-3万</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上海·静安区</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-3年</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,34 +535,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUjBQNVQ0DzYCYlE6Ujc.html</t>
+          <t>https://jobs.51job.com/all/coBWQAZlMwVmsCbwNnUzM.html</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>上海南燕信息技术有限公司</t>
+          <t>浙江五京科技集团有限公司</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Python软件工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8千-1.2万</t>
+          <t>1-1.6万·13薪</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>深圳·宝安区</t>
+          <t>成都·武侯区</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>3-5年</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,34 +572,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUjIAZ185BjBVNQBnBWc.html</t>
+          <t>https://jobs.51job.com/all/coUTRWO18-BDsDYFY2VTI.html</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>深圳星河像素电子有限公司</t>
+          <t>宁波思艾特软件有限公司</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python开发</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.2-2万·13薪</t>
+          <t>9千-1.5万·13薪</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>1-6年</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -609,49 +609,49 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coVDRdPwBrVGIDbwZjBWM.html</t>
+          <t>https://jobs.51job.com/all/coA2cCY1cxBj1UNlAyB2Y.html</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>广州广颖创网络科技有限公司</t>
+          <t>中软国际科技服务有限公司</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Python爬虫开发工程师</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.5-2万</t>
+          <t>1.2-2万·13薪</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上海·闵行区</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6年及以上</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAmBQM1A6DzYBbFc1.html</t>
+          <t>https://jobs.51job.com/all/coVDRdPwBrVGIDbwZjBWM.html</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>上海西信信息科技股份有限公司</t>
+          <t>广州广颖创网络科技有限公司</t>
         </is>
       </c>
     </row>
@@ -663,17 +663,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.2-1.4万</t>
+          <t>1-2万·14薪</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>成都·成华区</t>
+          <t>成都·高新区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-5年</t>
+          <t>2年及以上</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -683,71 +683,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coB2VWM1cwBj1VNwBlXDs.html</t>
+          <t>https://jobs.51job.com/all/coUTIFZlA1AD5UM1cyAmU.html</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>上海飞络信息科技有限公司</t>
+          <t>中通服软件科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python全栈工程师</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1-2万·14薪</t>
+          <t>5-8千·13薪</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>成都·高新区</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUTIFZlA1AD5UM1cyAmU.html</t>
+          <t>https://jobs.51job.com/all/coBWsHa1IwU28DZAdtVTU.html</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>中通服软件科技有限公司</t>
+          <t>合肥数聚云数据有限公司</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python算法开发工程师</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1-1.8万</t>
+          <t>8千-1.5万</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>成都·高新区</t>
+          <t>北京·朝阳区</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAGNQPAVvAzUHZQdsUj4.html</t>
+          <t>https://jobs.51job.com/all/coB2NVNlUxBzkDZVA0VDM.html</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>成都卡莱博尔信息技术股份有限公司</t>
+          <t>北京经世万方信息技术有限公司</t>
         </is>
       </c>
     </row>
@@ -806,170 +806,166 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IT开发工程师(Python 方向)</t>
+          <t>Python技术管培生</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.5-2.2万</t>
+          <t>5.3千-1万</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>中山·东区</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-4年</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>本科</t>
-        </is>
-      </c>
+          <t>无需经验</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAGdXOwJgVWkBZVY1.html</t>
+          <t>https://jobs.51job.com/all/coAWNXMVUyAzUEYQBgBmU.html</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>绫致时装（天津）有限公司</t>
+          <t>中山华定科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>少儿Python老师</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1-1.6万·13薪</t>
+          <t>8千-1.2万</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>宁波·鄞州区</t>
+          <t>南昌·红谷滩区</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUTRWO18-BDsDYFY2VTI.html</t>
+          <t>https://jobs.51job.com/all/coA2BRMl84BzoGYgxmBmc.html</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>宁波思艾特软件有限公司</t>
+          <t>南昌市唐格教育咨询有限公司</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Python高级开发工程师</t>
+          <t>python算法工程师</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.5-3万·13薪</t>
+          <t>5千-1万·13薪</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>深圳·宝安区</t>
+          <t>厦门·思明区</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5-7年</t>
+          <t>2年及以上</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coCWpRNQRhVGoEaQZjXDs.html</t>
+          <t>https://jobs.51job.com/all/coAG5XN146AjgHa1E7UDI.html</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>骏兴纸业（深圳）有限公司</t>
+          <t>厦门凡祈丰科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python初级开发</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.5-3万</t>
+          <t>5-6千</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>成都·高新区</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coBWQAZlMwVmsCbwNnUzM.html</t>
+          <t>https://jobs.51job.com/all/coB2RcMVQ_U2xWNAdsAGA.html</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>浙江五京科技集团有限公司</t>
+          <t>成都匠翎信息技术有限公司</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1-1.2万</t>
+          <t>6-9千</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>深圳·福田区</t>
+          <t>南京·雨花台区</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3-5年</t>
+          <t>2年</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -979,34 +975,34 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coBGNVNVMzUW8GYAVkBWk.html</t>
+          <t>https://jobs.51job.com/all/coBmhVOQNgBT9UN1cyAGY.html</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>深圳市紫川软件有限公司</t>
+          <t>华通科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Python软件开发工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8千-1.2万</t>
+          <t>1-1.5万·13薪</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长沙·岳麓区</t>
+          <t>无锡·滨湖区</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4年及以上</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1016,12 +1012,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAmxVOV49ADoAYw1pBms.html</t>
+          <t>https://jobs.51job.com/all/coBGFVOAJmVGlRNVE2UjU.html</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>华通科技有限公司</t>
+          <t>无锡宏创盛安科技有限公司</t>
         </is>
       </c>
     </row>
@@ -1033,17 +1029,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6千-1.1万·13薪</t>
+          <t>8千-1.1万</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>武汉·东湖新技术产业开发区</t>
+          <t>长沙·岳麓区</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1053,71 +1049,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coVjhVNFM0VG0FaQVuB2Y.html</t>
+          <t>https://jobs.51job.com/all/coAmxVOV49ADoAYw1pBms.html</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>武汉光至科技有限公司</t>
+          <t>华通科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>python算法工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5千-1万·13薪</t>
+          <t>1-1.5万</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>厦门·思明区</t>
+          <t>珠海·珠海高新区</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAG5XN146AjgHa1E7UDI.html</t>
+          <t>https://jobs.51job.com/all/coAWFRNAdsVmtUNlMyVDM.html</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>厦门凡祈丰科技有限公司</t>
+          <t>珠海天海风云科技有限公司</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1-1.5万·13薪</t>
+          <t>1-1.2万</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>深圳·宝安区</t>
+          <t>深圳·福田区</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-4年</t>
+          <t>3-5年</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1127,34 +1123,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coCWpRNQRhVGoEaQZjXDs.html</t>
+          <t>https://jobs.51job.com/all/coBGNVNVMzUW8GYAVkBWk.html</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>骏兴纸业（深圳）有限公司</t>
+          <t>深圳市紫川软件有限公司</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Python开发</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1-2万</t>
+          <t>1-1.8万</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>杭州·余杭区</t>
+          <t>成都·高新区</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2-3年</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1164,49 +1160,49 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAWFXNFU0ADkPYlM2.html</t>
+          <t>https://jobs.51job.com/all/coAGNQPAVvAzUHZQdsUj4.html</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>浙江省公众信息产业有限公司</t>
+          <t>成都卡莱博尔信息技术股份有限公司</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8千-1.2万</t>
+          <t>8千-1.5万</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>无锡·新吴区</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUj0BZlE7VG8PaQRv.html</t>
+          <t>https://jobs.51job.com/all/coUzEFZQVlBz8AYgJiAmM.html</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>美皇贸易（深圳）有限公司</t>
+          <t>无锡秉杰机械有限公司</t>
         </is>
       </c>
     </row>

--- a/职位.xlsx
+++ b/职位.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,26 +469,29 @@
           <t>公司名称</t>
         </is>
       </c>
+      <c r="H1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Python开发</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6千-1万</t>
+          <t>1-2万·13薪</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>武汉·东湖新技术产业开发区</t>
+          <t>深圳·福田区</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1年及以上</t>
+          <t>2年及以上</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -498,34 +501,35 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coBGEAZ1Y2VmADYVEzAWc.html</t>
+          <t>https://jobs.51job.com/all/coAWZUOVM5AjpRNVAyVTc.html</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>武汉先龙科技有限公司</t>
-        </is>
-      </c>
+          <t>深圳市联华世纪通信技术有限公司</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.5-3万</t>
+          <t>1-2万·14薪</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>成都·高新区</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>2年及以上</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,71 +539,69 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coBWQAZlMwVmsCbwNnUzM.html</t>
+          <t>https://jobs.51job.com/all/coUTIFZlA1AD5UM1cyAmU.html</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>浙江五京科技集团有限公司</t>
-        </is>
-      </c>
+          <t>中通服软件科技有限公司</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python技术管培生</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1-1.6万·13薪</t>
+          <t>5.3千-1万</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>成都·武侯区</t>
+          <t>中山·东区</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-5年</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>本科</t>
-        </is>
-      </c>
+          <t>无需经验</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUTRWO18-BDsDYFY2VTI.html</t>
+          <t>https://jobs.51job.com/all/coAWNXMVUyAzUEYQBgBmU.html</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>宁波思艾特软件有限公司</t>
-        </is>
-      </c>
+          <t>中山华定科技有限公司</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Python开发</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9千-1.5万·13薪</t>
+          <t>6-9千</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南京·雨花台区</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-6年</t>
+          <t>2年</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -609,71 +611,73 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coA2cCY1cxBj1UNlAyB2Y.html</t>
+          <t>https://jobs.51job.com/all/coBmhVOQNgBT9UN1cyAGY.html</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>中软国际科技服务有限公司</t>
-        </is>
-      </c>
+          <t>华通科技有限公司</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.2-2万·13薪</t>
+          <t>8千-1.5万</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>北京·海淀区</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coVDRdPwBrVGIDbwZjBWM.html</t>
+          <t>https://jobs.51job.com/all/coUTBSNFI0AjxUMFA7AmA.html</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>广州广颖创网络科技有限公司</t>
-        </is>
-      </c>
+          <t>点奇互联（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>少儿Python老师</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1-2万·14薪</t>
+          <t>8千-1.2万</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>成都·高新区</t>
+          <t>南昌·红谷滩区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -683,88 +687,87 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUTIFZlA1AD5UM1cyAmU.html</t>
+          <t>https://jobs.51job.com/all/coA2BRMl84BzoGYgxmBmc.html</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>中通服软件科技有限公司</t>
-        </is>
-      </c>
+          <t>南昌市唐格教育咨询有限公司</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Python全栈工程师</t>
+          <t>Python开发</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5-8千·13薪</t>
+          <t>9千-1.5万·13薪</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>1-6年</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coBWsHa1IwU28DZAdtVTU.html</t>
+          <t>https://jobs.51job.com/all/coA2cCY1cxBj1UNlAyB2Y.html</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>合肥数聚云数据有限公司</t>
-        </is>
-      </c>
+          <t>中软国际科技服务有限公司</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Python算法开发工程师</t>
+          <t>Python技术管培生</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8千-1.5万</t>
+          <t>5.3千-1万</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>北京·朝阳区</t>
+          <t>中山·东区</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1年</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>本科</t>
-        </is>
-      </c>
+          <t>无需经验</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coB2NVNlUxBzkDZVA0VDM.html</t>
+          <t>https://jobs.51job.com/all/coAWNXMVUyAzUEYQBgBmU.html</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>北京经世万方信息技术有限公司</t>
-        </is>
-      </c>
+          <t>中山华定科技有限公司</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -774,12 +777,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1-2万·13薪</t>
+          <t>7千-1.2万</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>深圳·福田区</t>
+          <t>株洲·天元区</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -789,34 +792,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAWZUOVM5AjpRNVAyVTc.html</t>
+          <t>https://jobs.51job.com/all/coB2RcPANjATwHYANgXT0.html</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>深圳市联华世纪通信技术有限公司</t>
-        </is>
-      </c>
+          <t>湖南艾佳威信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Python技术管培生</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5.3千-1万</t>
+          <t>8千-1.5万</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中山·东区</t>
+          <t>无锡·新吴区</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -824,22 +828,27 @@
           <t>无需经验</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAWNXMVUyAzUEYQBgBmU.html</t>
+          <t>https://jobs.51job.com/all/coUzEFZQVlBz8AYgJiAmM.html</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>中山华定科技有限公司</t>
-        </is>
-      </c>
+          <t>无锡秉杰机械有限公司</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>少儿Python老师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -849,7 +858,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南昌·红谷滩区</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -859,108 +868,107 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coA2BRMl84BzoGYgxmBmc.html</t>
+          <t>https://jobs.51job.com/all/coUj0BZlE7VG8PaQRv.html</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>南昌市唐格教育咨询有限公司</t>
-        </is>
-      </c>
+          <t>美皇贸易（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>python算法工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5千-1万·13薪</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>厦门·思明区</t>
-        </is>
-      </c>
+          <t>6千-1.2万·13薪</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAG5XN146AjgHa1E7UDI.html</t>
+          <t>https://jobs.51job.com/all/coAmNTPlU_VWICblE2UjQ.html</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>厦门凡祈丰科技有限公司</t>
-        </is>
-      </c>
+          <t>沈阳颁德优化科技有限公司</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Python初级开发</t>
+          <t>Python爬虫工程师</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5-6千</t>
+          <t>1.2-2万</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>成都·高新区</t>
+          <t>上海·长宁区</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1年</t>
+          <t>2年及以上</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coB2RcMVQ_U2xWNAdsAGA.html</t>
+          <t>https://jobs.51job.com/all/coUzZTN1E0Aj5WMVM4B2A.html</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>成都匠翎信息技术有限公司</t>
-        </is>
-      </c>
+          <t>上海百秋新网商数字科技有限公司</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python爬虫工程师</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6-9千</t>
+          <t>5千-1万</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南京·雨花台区</t>
+          <t>铜陵</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -970,39 +978,40 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coBmhVOQNgBT9UN1cyAGY.html</t>
+          <t>https://jobs.51job.com/all/coUjcGalA2DjcAYFA1UTI.html</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>华通科技有限公司</t>
-        </is>
-      </c>
+          <t>安徽百舟互娱网络股份有限公司</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python开发</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1-1.5万·13薪</t>
+          <t>6千-1万</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>无锡·滨湖区</t>
+          <t>武汉·东湖新技术产业开发区</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>1年及以上</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1012,34 +1021,35 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coBGFVOAJmVGlRNVE2UjU.html</t>
+          <t>https://jobs.51job.com/all/coBGEAZ1Y2VmADYVEzAWc.html</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>无锡宏创盛安科技有限公司</t>
-        </is>
-      </c>
+          <t>武汉先龙科技有限公司</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Python软件开发工程师</t>
+          <t>python开发工程师</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8千-1.1万</t>
+          <t>2-3万</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长沙·岳麓区</t>
+          <t>深圳·罗湖区</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>4年及以上</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1049,61 +1059,63 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAmxVOV49ADoAYw1pBms.html</t>
+          <t>https://jobs.51job.com/all/coUjVdMFM1DjBSNgBj.html</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>华通科技有限公司</t>
-        </is>
-      </c>
+          <t>深圳市星火电子工程公司</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>python算法工程师</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1-1.5万</t>
+          <t>5千-1万·13薪</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>珠海·珠海高新区</t>
+          <t>厦门·思明区</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>2年及以上</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAWFRNAdsVmtUNlMyVDM.html</t>
+          <t>https://jobs.51job.com/all/coAG5XN146AjgHa1E7UDI.html</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>珠海天海风云科技有限公司</t>
-        </is>
-      </c>
+          <t>厦门凡祈丰科技有限公司</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python运维开发工程师</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1-1.2万</t>
+          <t>8千-1.5万</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1113,44 +1125,45 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-5年</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coBGNVNVMzUW8GYAVkBWk.html</t>
+          <t>https://jobs.51job.com/all/coVjVdOwVmDzECYQJkXD4.html</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>深圳市紫川软件有限公司</t>
-        </is>
-      </c>
+          <t>深圳市睿服科技有限公司</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1-1.8万</t>
+          <t>1-1.6万·13薪</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>成都·高新区</t>
+          <t>成都·武侯区</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>3-5年</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1160,49 +1173,1145 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAGNQPAVvAzUHZQdsUj4.html</t>
+          <t>https://jobs.51job.com/all/coUTRWO18-BDsDYFY2VTI.html</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>成都卡莱博尔信息技术股份有限公司</t>
-        </is>
-      </c>
+          <t>宁波思艾特软件有限公司</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1-1.5万</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>珠海·珠海高新区</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3年及以上</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coAWFRNAdsVmtUNlMyVDM.html</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>珠海天海风云科技有限公司</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1-2万·13薪</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>深圳·福田区</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2年及以上</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coAWZUOVM5AjpRNVAyVTc.html</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>深圳市联华世纪通信技术有限公司</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1-2万·14薪</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>成都·高新区</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2年及以上</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coUTIFZlA1AD5UM1cyAmU.html</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>中通服软件科技有限公司</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Python技术管培生</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5.3千-1万</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中山·东区</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>无需经验</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coAWNXMVUyAzUEYQBgBmU.html</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>中山华定科技有限公司</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>6-9千</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南京·雨花台区</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2年</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coBmhVOQNgBT9UN1cyAGY.html</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>华通科技有限公司</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>8千-1.5万</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>北京·海淀区</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1年</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coUTBSNFI0AjxUMFA7AmA.html</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>点奇互联（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>少儿Python老师</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8千-1.2万</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南昌·红谷滩区</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3年及以上</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coA2BRMl84BzoGYgxmBmc.html</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>南昌市唐格教育咨询有限公司</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Python开发</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>9千-1.5万·13薪</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东莞</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1-6年</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coA2cCY1cxBj1UNlAyB2Y.html</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>中软国际科技服务有限公司</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Python技术管培生</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5.3千-1万</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中山·东区</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>无需经验</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coAWNXMVUyAzUEYQBgBmU.html</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>中山华定科技有限公司</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>7千-1.2万</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>株洲·天元区</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2年及以上</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coB2RcPANjATwHYANgXT0.html</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>湖南艾佳威信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Python工程师</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>8千-1.5万</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>无锡·新吴区</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>无需经验</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>本科</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://jobs.51job.com/all/coUzEFZQVlBz8AYgJiAmM.html</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>无锡秉杰机械有限公司</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>8千-1.2万</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3年及以上</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coUj0BZlE7VG8PaQRv.html</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>美皇贸易（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>6千-1.2万·13薪</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>无需经验</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coAmNTPlU_VWICblE2UjQ.html</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>沈阳颁德优化科技有限公司</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Python爬虫工程师</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1.2-2万</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上海·长宁区</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2年及以上</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coUzZTN1E0Aj5WMVM4B2A.html</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>上海百秋新网商数字科技有限公司</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Python爬虫工程师</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5千-1万</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>铜陵</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2年</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coUjcGalA2DjcAYFA1UTI.html</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>安徽百舟互娱网络股份有限公司</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Python开发</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>6千-1万</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>武汉·东湖新技术产业开发区</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1年及以上</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coBGEAZ1Y2VmADYVEzAWc.html</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>武汉先龙科技有限公司</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>python开发工程师</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2-3万</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>深圳·罗湖区</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4年及以上</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coUjVdMFM1DjBSNgBj.html</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>深圳市星火电子工程公司</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>python算法工程师</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5千-1万·13薪</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>厦门·思明区</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2年及以上</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coAG5XN146AjgHa1E7UDI.html</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>厦门凡祈丰科技有限公司</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Python运维开发工程师</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>8千-1.5万</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>深圳·福田区</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3年及以上</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coVjVdOwVmDzECYQJkXD4.html</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>深圳市睿服科技有限公司</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1-1.6万·13薪</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>成都·武侯区</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coUTRWO18-BDsDYFY2VTI.html</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>宁波思艾特软件有限公司</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1-1.5万</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>珠海·珠海高新区</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3年及以上</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://jobs.51job.com/all/coAWFRNAdsVmtUNlMyVDM.html</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>珠海天海风云科技有限公司</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        任职要求：&lt;br&gt;     1、计算机相关专业，本科及以上学历，3年以上后台开发工作经验；&lt;br&gt;     2、精通Python语言，有Flask或Django框架的实际项目经验；&lt;br&gt;     3、熟悉主流SQL数据库（MySQL, MSSQL, Oracle等），熟悉SQL数据模型设计、编写、调优，熟悉主流NoSQL数据库（Redis, MongoDB等），熟悉缓存与消息队列的工作模式及常用组件；会openwrt。&lt;br&gt;     4、熟悉网络编程，掌握TCP、UDP和HTTP等通讯协议；&lt;br&gt;     5、熟悉Docker容器，了解Kubernetes相关知识，熟悉常用的设计模式；            &lt;br&gt;     6、了解常用前后端框架技术，具备前后端分离项目经验；&lt;br&gt;     7、具备较强的信息获取能力及学习能力，擅长理性思维，善于接纳新鲜事物与多方观点，擅长了解及尝试前沿技术；&lt;br&gt;     8、有大型分布式架构经验者优先，有独立做过项目技术选型或独立完成一个项目的核心功能的开发者优先。&lt;br&gt;&lt;br&gt;岗位职责：&lt;br&gt;     1. 负责SDN网络管理系统后台技术组件的规划和研发设计；&lt;br&gt;     2. 负责前后台系统代码设计与开发，使用敏捷产品开发流程来确保功能按时交付；&lt;br&gt;     3. 深入理解业务需求，负责架构设计，使用适当创新技术手段促进业务的快速交付。&lt;br&gt;&lt;br&gt;公司福利：&lt;br&gt;地址：7号线和9号线交界的红岭北地铁站50米；&lt;br&gt;工作时间：周末双休，上午：9:00-18:00，5天7.5小时工作制；&lt;br&gt;带薪年假、带薪病假，享受国家规定的法定假和福利假等；&lt;br&gt;下午茶水果经费充足、经常聚餐、生日会，节日福利、绩效奖金、年底双薪等；&lt;br&gt;工作氛围友好，交流通畅和谐，提供行业内具有竞争力的薪酬；&lt;br&gt;内部培训，公司提供通用和专业入职培训及后续各种提升培训，提升自身专业能力；&lt;br&gt;外部培训，公司聘请外部专业培训机构匹配员工需求开展多样性外部培训，提升自身专业能力。
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E5%2589%258D%25E7%25AB%25AF,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;前端&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E5%2590%258E%25E7%25AB%25AF,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后端&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1、负责用python语言实现系统的后端研发；&lt;br&gt;2、根据项目需求，完成功能模块设计和代码实现工作；&lt;br&gt;3、完成上级领导交办的其它任务。&lt;br&gt;任职要求：&lt;br&gt;1、本科学历；计算机、软件等相关专业，精通Python语言开发，2年以上Python开发经验；&lt;br&gt;2、熟练掌握Linux基础知识及常用操作命令；熟悉常用关系数据库和非关系型数据库；&lt;br&gt;3、熟悉Langchain优先;&lt;br&gt;4、聪明、灵活、自律、上进、务实、有较强的逻辑分析能力
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-gxq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ★★欢迎对人工智能领域感兴趣的应聘者加入，内部提供类ChatGPT/AI人工智能小助理等多款工具，协助团队提升工作效率并发掘新的业务增长点★★&lt;br&gt;&lt;br&gt;【我们需要这样的你】&lt;br&gt;1）心态积极阔达、坦诚自信、乐观进取；（当看到半杯水的时候会觉得自己拥有了半杯水，而不是只有这半杯水，更多关注杯子的外侧，通过了解未知的未知保持空杯心态）&lt;br&gt;2）善于思考与创新，愿意持续学习新知识，内驱力强，喜欢“跳出已有框架”思考问题，不为自己设限&lt;br&gt;&lt;br&gt;【目前岗位工作内容比重】&lt;br&gt;★专业技能工作（开发创作、优化升级）：10%&lt;br&gt;★事务性工作（系统维护、资料处理、会务参与、技术服务、业务沟通）：90%&lt;br&gt;&lt;br&gt;【工作职责】&lt;br&gt;1、参与软件开发项目，负责Python相关项目需求的代码设计、编写、测试和维护。&lt;br&gt;2、能够遵守公司制定的开发流程和规范根据需求进行相应的开发工作，学习和掌握公司的技术框架和工具，保证项目质量和进度。&lt;br&gt;3、与团队成员协作，解决项目中出现的问题。&lt;br&gt;4、积极学习新技术，提高自身技能水平。&lt;br&gt;&lt;br&gt;【任职条件】&lt;br&gt;1、熟悉Python语言，熟悉常用的Python框架（如Django、Flask等）。&lt;br&gt;2、具备良好的逻辑思维能力和代码编写能力。&lt;br&gt;3、具备良好的团队合作精神和沟通能力。 &lt;br&gt;4、熟悉Gitflow、GitHub flow、CICD等。&lt;br&gt;5、熟悉数据库基础知识，如My SQL等者优先考虑。&lt;br&gt;6、有相关实习或工作经验者优先考虑。&lt;br&gt;&lt;br&gt;【具体上班时间】&lt;br&gt;星期一&amp;amp;六 08:00-15:30（含早餐与午餐时间1.5小时）&lt;br&gt;星期二至五 08:00-17:30（含早餐与午餐时间1.5小时）&lt;br&gt;&lt;br&gt;【薪金待遇】&lt;br&gt;考核期两个月：5388-10388元/月（包含：日勤奖、交通补贴、话费补贴、就餐补贴等，合计超过858元）。&lt;br&gt;★考核期后按照部门薪酬制度执行。&lt;br&gt;&lt;br&gt;【在职培训】&lt;br&gt;1、入职初期，公司会安排相关导师指导新人，帮助新人尽快融入公司和熟悉工作内容。&lt;br&gt;2、公司将定期为在职同事提供职业发展培训，帮助在职同事寻找未来职业方向，实现发展目标。&lt;br&gt;&lt;br&gt;【晋升方向】&lt;br&gt;人性化的发展道路：可根据自身岗位发展目标和方向需求，选择不同路线晋升：&lt;br&gt;★团队发展方向：M1----M2----M3----M4----M5----M6----M7----M8&lt;br&gt;★个人发展方向：P1----P2----P3----P4----P5----P6----P7----P8----P9&lt;br&gt;&lt;br&gt;【办公地点】&lt;br&gt;★应聘时可沟通选择意向办公点：&lt;br&gt;1、中山市西区街道金港路48号美林假日翰林苑4期164-167卡&lt;br&gt;2、中山市港口镇港口银库路8号裕港豪庭二期52卡&lt;br&gt;3、中山市火炬开发区伟盛路12号幸福旭日家园1栋6卡&lt;br&gt;4、中山市东区街道兴政路1号中环广场1栋5楼&lt;br&gt;&lt;br&gt;如果你积极上进，不甘平凡，渴望过上快乐工作、快乐生活的日子，赶快加入华定吧！我们为你提供丰厚的收入以及良好的晋升平台。
+                &lt;div class="mt10"&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;20-35岁&lt;/span&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhongshan-dq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E7%25BC%2596%25E5%2586%2599,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码编写&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25A8%258B%25E5%25BA%258F%25E5%2591%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;程序员&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;管培生&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术管培生&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        python开发工程师&lt;br&gt;1、理解软件工程基本概念，能够利用常用设计模式完成系统中子系统或者模块的设计；&lt;br&gt;2、有数据通信网络知识基础，熟悉cisco 或ZTE、华为网络设备，有一定的现网维护经验最优。&lt;br&gt;3、熟悉python 或ruby 等语言
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanjing-yhtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070210,0000,00,9,99,ruby,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ruby&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070210,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%2580%259A%25E4%25BF%25A1%25E7%25BD%2591%25E7%25BB%259C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据通信网络&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070210,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        .负责数据模型测试，包括确定测试范围、制定测试方案、优化测试过程、提高测工作职责:&lt;br&gt;2-运用数据挖掘/统计学习的理论和方法，深入挖掘和分析海量用户行为&lt;br&gt;3-根据项目需求，分析数据，建立适应的模型并解决业务需求，并规划和设计出对应的数据专题应用，以提升数据价值。&lt;br&gt;职位要求 ：&lt;br&gt;1、接受转行，应届优先，有志于IT、金融行业长远发展（金融、经济学专业可放宽至大专）；或对金融、IT行业有强烈意愿者。&lt;br&gt;2、要求大专以上学历，应届优先；&lt;br&gt;3、年龄20-29周岁；&lt;br&gt;4、计算机、软件、数学、统计学、经济、财务专业优先；&lt;br&gt;5、熟练使用ORACLE/DB2数据库优.
+                &lt;div class="mt10"&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;18-26岁&lt;/span&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-hdq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        岗位职责：&lt;br&gt;1. 负责为4-12岁学龄后儿童提供scratch、Python、C++等编程语言的教学工作，包括课程设计、教材编写、授课等工作；&lt;br&gt;2.经过培训具备编程能力，沟通表达逻辑性强。&lt;br&gt;3.与家长沟通，帮助家长及时了解儿童成长动向。&lt;br&gt;4.学员服务，提升家长满意度。&lt;br&gt;5.严格完成校区规定的到课率、推荐率与续费率指标。&lt;br&gt;6.授课能力过硬，具备与儿童沟通的能力与课堂表现力。&lt;br&gt;7.有教师证、编程经验者优先考虑。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1. 具有本科及以上学历，计算机相关专业优先考虑；&lt;br&gt;2. 熟练掌握scratch、Python编程语言，具有扎实的编程基础；&lt;br&gt;3. 具备良好的教学能力和沟通能力，能够有效地传授知识；&lt;br&gt;4. 具有较强的团队合作精神和责任心；&lt;br&gt;5. 具有相关教学经验者优先考虑。&lt;br&gt;&lt;br&gt;公司福利：&lt;br&gt;1. 完善的社会保险（六险一金）；&lt;br&gt;2.优秀员工子女享受教育课程优惠；&lt;br&gt;3. 带薪年假，节日福利；&lt;br&gt;4. 超童趣的办公环境；&lt;br&gt;5. 让你永葆青春的一颗童心。
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanchang-hgtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,C%252B%252B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C++&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,scratch,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;scratch&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1.本科及以上，计算机科学与技术，软件工程等相关专业，1年以上工作经验&lt;br&gt;2.熟悉python，并使用django，flask等主流框架开发项目&lt;br&gt;3.了解linux操作系统，熟练使用linux基本方法和常用命令，有一定的shell脚本开发能力&lt;br&gt;4.有持续继承(CI)相关开发、部署或维护经验，熟悉CI相关流程，有docker服务器部署和维护经验&lt;br&gt;5.了解至少一种数据库管理系统，如果MySQL，redis等，有数据库模型开发和设计经验
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25B7%25A5%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件工程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,ci,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ci&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ★★欢迎对人工智能领域感兴趣的应聘者加入，内部提供类ChatGPT/AI人工智能小助理等多款工具，协助团队提升工作效率并发掘新的业务增长点★★&lt;br&gt;&lt;br&gt;【我们需要这样的你】&lt;br&gt;1）心态积极阔达、坦诚自信、乐观进取；（当看到半杯水的时候会觉得自己拥有了半杯水，而不是只有这半杯水，更多关注杯子的外侧，通过了解未知的未知保持空杯心态）&lt;br&gt;2）善于思考与创新，愿意持续学习新知识，内驱力强，喜欢“跳出已有框架”思考问题，不为自己设限&lt;br&gt;&lt;br&gt;【目前岗位工作内容比重】&lt;br&gt;★专业技能工作（开发创作、优化升级）：10%&lt;br&gt;★事务性工作（系统维护、资料处理、会务参与、技术服务、业务沟通）：90%&lt;br&gt;&lt;br&gt;【工作职责】&lt;br&gt;1、参与软件开发项目，负责Python相关项目需求的代码设计、编写、测试和维护。&lt;br&gt;2、能够遵守公司制定的开发流程和规范根据需求进行相应的开发工作，学习和掌握公司的技术框架和工具，保证项目质量和进度。&lt;br&gt;3、与团队成员协作，解决项目中出现的问题。&lt;br&gt;4、积极学习新技术，提高自身技能水平。&lt;br&gt;&lt;br&gt;【任职条件】&lt;br&gt;1、熟悉Python语言，熟悉常用的Python框架（如Django、Flask等）。&lt;br&gt;2、具备良好的逻辑思维能力和代码编写能力。&lt;br&gt;3、具备良好的团队合作精神和沟通能力。&lt;br&gt;4、熟悉Gitflow、GitHub flow、CICD等。&lt;br&gt;5、熟悉数据库基础知识，如My SQL等者优先考虑。&lt;br&gt;6、有相关实习或工作经验者优先考虑。&lt;br&gt;&lt;br&gt;【具体上班时间】&lt;br&gt;星期一&amp;amp;六 08:00-15:30（含早餐与午餐时间1.5小时）&lt;br&gt;星期二至五 08:00-17:30（含早餐与午餐时间1.5小时）&lt;br&gt;&lt;br&gt;【薪金待遇】&lt;br&gt;考核期两个月：5388-10388元/月（包含：日勤奖、交通补贴、话费补贴、就餐补贴等，合计超过858元）。&lt;br&gt;★考核期后按照部门薪酬制度执行。&lt;br&gt;&lt;br&gt;【在职培训】&lt;br&gt;1、入职初期，公司会安排相关导师指导新人，帮助新人尽快融入公司和熟悉工作内容。&lt;br&gt;2、公司将定期为在职同事提供职业发展培训，帮助在职同事寻找未来职业方向，实现发展目标。&lt;br&gt;&lt;br&gt;【晋升方向】&lt;br&gt;人性化的发展道路：可根据自身岗位发展目标和方向需求，选择不同路线晋升：&lt;br&gt;★团队发展方向：M1----M2----M3----M4----M5----M6----M7----M8&lt;br&gt;★个人发展方向：P1----P2----P3----P4----P5----P6----P7----P8----P9&lt;br&gt;&lt;br&gt;【办公地点】&lt;br&gt;★应聘时可沟通选择意向办公点：&lt;br&gt;1、中山市西区街道金港路48号美林假日翰林苑4期164-167卡&lt;br&gt;2、中山市港口镇港口银库路8号裕港豪庭二期52卡&lt;br&gt;3、中山市火炬开发区伟盛路12号幸福旭日家园1栋6卡&lt;br&gt;4、中山市东区街道兴政路1号中环广场1栋5楼&lt;br&gt;&lt;br&gt;如果你积极上进，不甘平凡，渴望过上快乐工作、快乐生活的日子，赶快加入华定吧！我们为你提供丰厚的收入以及良好的晋升平台。
+                &lt;div class="mt10"&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;20-35岁&lt;/span&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhongshan-dq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E7%25BC%2596%25E5%2586%2599,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码编写&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25A8%258B%25E5%25BA%258F%25E5%2591%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;程序员&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;管培生&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术管培生&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        职位要求：&lt;br&gt;1、2年以上Python开发经验，具有扎实的Python编程基础。&lt;br&gt;2、熟练掌握至少一门Python Web开发框架（Flask或者Fastapi或者Django）。&lt;br&gt;3、熟练使用Redis、Mongodb、Oracle、Postgresql 等数据库，能熟练进行数据库设计与优化，和数据库操作技术sqlalchemy。&lt;br&gt;4、熟练Linux平台环境，掌握常见的命令和脚本，并能够在生产环境中部署应用程序。&lt;br&gt;5、熟悉Numpy、Pandas、Dask等数据分析优先。&lt;br&gt;6、熟悉前端技术，如HTML、CSS、JavaScript等；&lt;br&gt;7、具有良好的文档编写能力、沟通表达能力和团队合作精神。&lt;br&gt;8、熟悉敏捷开发模式，具备良好的代码习惯、代码管理和协作能力。&lt;br&gt;9、具备良好的沟通能力和团队合作精神，工作态度积极，有耐心，有责任心。&lt;br&gt;10、有良好的学习和创新能力，能够快速适应新的技术和项目
+                &lt;div class="mt10"&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;22-30岁&lt;/span&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhuzhou-tyq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,MongoDB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MongoDB&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        职位描述&lt;br&gt;技术要求：&lt;br&gt;1. 本科计算机相关专业 2年以上软件开发经验（接受应届生）&lt;br&gt;2. 熟练掌握python 熟悉opencv numpy qt库 理解其语言特性，会c#加分&lt;br&gt;3. 熟悉常用的数据结构 有一定算法基础，lintcode上刷过题加分&lt;br&gt;&lt;br&gt;工作内容：&lt;br&gt;1．负责视觉系统的设计，开发，部署，测试和优化。&lt;br&gt;2．负责现场追踪项目进度，解决相关性技术问题&lt;br&gt;3．负责根据项目效果协调生产工艺，完成系统产品设计，开发和现场验证等工作
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuxi-xwq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070405,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        职位描述：&lt;br&gt;1、负责前后台系统代码设计与开发,使用敏捷产品开发流程来确保功能按时交付;&lt;br&gt;2、业务系统的优化改正、按计划完成任务、确保系统稳定可靠运行.&lt;br&gt;&lt;br&gt;职位要求：&lt;br&gt;1、计算机相关专业,大专及以上学历,3年以上后台开发工作经验;&lt;br&gt;2、精通Python语言,有Flask或Django框架的实际项目经验;&lt;br&gt;3、熟悉主流SQL数据库（MySQL, MSSQL, Oracle等）,熟悉SQL数据模型设计、编写、调优;&lt;br&gt;4、熟悉网络编程,掌握TCP、UDP和HTTP等通讯协议;&lt;br&gt;5、熟悉Docker容器,了解Kubernetes相关知识，熟悉常用的设计模式;&lt;br&gt;6、了解Linux,并能使用日常的命令；有Linux项目开发优先;&lt;br&gt;7、了解常用前后端框架技术,具备前后端分离项目经验;&lt;br&gt;8、具备较强的信息获取能力及学习能力,擅长理性思维,善于接纳新鲜事物与多方观点,擅长了解及尝试前沿技术;&lt;br&gt;9、有大型分布式架构经验者优先,有独立做过项目技术选型或独立完成一个项目的核心功能的开发者优先.
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E8%25AE%25BE%25E8%25AE%25A1%25E6%25A8%25A1%25E5%25BC%258F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;设计模式&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E9%2580%2589%25E5%259E%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术选型&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E5%2590%258E%25E5%258F%25B0%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后台开发&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        颁德优化科技Benders Optimal Technology 于2020年底开始运作，近三年以来，公司业务不断扩展，现需要招聘程序员一名，要求如下：&lt;br&gt;1. 计算机软件本科或硕士毕业，本科要求4年计算机专业或紧密相关专业。&lt;br&gt;2. 熟练基本数据结构和常用算法，理解基本设计模式&lt;br&gt;3. 熟练Python及Pandas, Numpy等常用库。&lt;br&gt;4. 熟练Pycharm, Git, Excel等常用工具&lt;br&gt;5. 熟练数据库操作SQL语言，PostgreSQL等数据库。&lt;br&gt;6. 了解前端Flutter。&lt;br&gt;7. 了解Java语言及spring framework, spring boot. AWS cloud, docker, Redis等工具。&lt;br&gt;8. 英语阅读能力强，至少英语四级；学习新技术能力强。&lt;br&gt;9. 喜欢会计知识，愿意理解个人税表，财务报表等优先。&lt;br&gt;&lt;br&gt;本公司软件产品主要面向美国市场及客户，需要能够准确理解英文文档，英语水平一般者恐难以胜任。本公司目前是远程工作模式，只要按时提交代码即可，不必到办公室上班。未来会根据员工意愿及地理分布，在国内设立办公室。
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/all/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;算法&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD%25E9%2598%2585%25E8%25AF%25BB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语阅读&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        Python爬虫工程师&lt;br&gt;&lt;br&gt;岗位职责：&lt;br&gt;1、负责公司日常数据采集任务开发，解析，清洗，存储工作&lt;br&gt;2、不断完善和重构现有的数据采集集群，通过对抓取，解析，调度，存储模块拆分和优化，逐步完善统一的数据采集服务平台&lt;br&gt;3、必须熟悉一套爬虫框架；例如Scrapy，Feapder框架等&lt;br&gt;&lt;br&gt;任职资格：&lt;br&gt;1、计算机相关专业本科及以上学历，2年以上工作经验&lt;br&gt;2、熟练掌握Python语言，对数据敏感，具有良好的逻辑分析能力&lt;br&gt;3、熟悉Cookie登录原理，熟练掌握xpath，CSS，正则等常用的信息抽取技术&lt;br&gt;4、熟练掌握SQL语言，熟悉主流数据库开发，有使用MySQL,ElasticSearch,Redis经验&lt;br&gt;5、学习能力强，能够独立解决问题，并且善于总结分享&lt;br&gt;6、拥有良好的团队合作及沟通能力&lt;br&gt;7、有一定的JS逆向能力，APP数据采集能力（加分项）&lt;br&gt;8、有淘宝，京东，抖音相关数据平台工作经验
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-cnq/pachonggongchengshi/"&gt;爬虫工程师&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB%25E6%25A1%2586%25E6%259E%25B6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫框架&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%2587%2587%25E9%259B%2586,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据采集&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        岗位描述&lt;br&gt;1、负责爬虫策略与方案制定，爬虫系统架构设计与开发；&lt;br&gt;2、负责网站、APP等大规模文本、图片数据抓取，爬虫核心算法优化，提升爬虫效率和质量；&lt;br&gt;3、专注于垂直领域数据爬取，并进行多平台信息分析，参与平台数据建设；&lt;br&gt;任职要求：&lt;br&gt;1、2年以上开发经验，计算机相关专业优先，有爬虫和反爬虫经验者优先，有大数据爬虫经验尤佳；&lt;br&gt;2、熟练掌握软件逆向静态分析、动态调试、代码跟踪等，有海外社交平台的数据采集经验优先&lt;br&gt;3、具有丰富的JS逆向经验，熟悉反混淆、JS跟踪、JS逆向、WASM还原技能，熟练使用AST还原JS、能绕过常见的JS反调试；&lt;br&gt;4、熟练掌握常用的逆向分析抓包工具，能解决封账号、封IP、验证码识别、图像识别、风控等问题；&lt;br&gt;5、熟练掌握Python, JavaScript开发语言；
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/tongling/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                            &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        公司专注水务、智能控制及物联网领域：&lt;br&gt;1、智慧水务。实现“水源、水厂、管网、泵房、水表”全程监控管理。&lt;br&gt;2、供水设备、自动控制柜和泵房供水工程。&lt;br&gt;3、智能电站。通过光伏+储能+智能调度，降低电费、低碳减排。&lt;br&gt;4、物联网设备。数据采集仪、PLC、水浸传感器等自带物联网功能，支持远程控制与数据传送。&lt;br&gt;&lt;br&gt;职责：&lt;br&gt;1、物联网设备端python软件开发；&lt;br&gt;2、云平台系统的前端开发。&lt;br&gt;&lt;br&gt;&lt;br&gt;职能要求：&lt;br&gt;1、年龄：22一30。学历：本科及以上，数学、物理、机械、软件工程、计算机、电子、通信、自动化等专业；&lt;br&gt;2、 掌握python语言，有ESP32开发经验优先，至少有1年的工作经验。&lt;br&gt;3、 具备网络和通信基础知识，能够排查一般的网络通信故障；&lt;br&gt;4、有较强的语言表达能力和人际关系处理能力、较好的学习能力和实践能力；有较高的诚信度和责任感，较好的团队合作精神；具备协调能力和处理解决问题的能力。&lt;br&gt;5、 具有良好的职业道德及职业操守；：&lt;br&gt;6、月薪:基本6000+绩效，周末双休，五险、节日福利、年终奖、定期体检
+                &lt;div class="mt10"&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;22-30岁&lt;/span&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuhan-dhxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        岗位职责：&lt;br&gt;1.负责视频、图片相关数据处理&lt;br&gt;2.参与AI大模型训练开发，建立垂直行业应用模型，包括但不限于Moe、LongContext、RAG、Agent等方向&lt;br&gt;3.进行大模型分布式训练、调优、验证和部署&lt;br&gt;4.持续优化提升框架的性能和易用性，关注和追踪业界最新的技术趋势和研究成果&lt;br&gt;&lt;br&gt;岗位要求：&lt;br&gt;1、本科及以上学历，计算机相关专业；四年以上Python开发经验，1年以上大模型领域相关经验；&lt;br&gt;2、精通Python语言，掌握Django、Flask等主流web框架，熟练使用Pytorch、tensorflow训练框架；&lt;br&gt;3、具有深度学习领域的研究经历，熟悉Resnet、mobilenet、Retinaface、faceNet等卷积神经网络模型的训练及优化；&lt;br&gt;4、具有NLP语言大模型相关研究经历，熟悉Transformer、GPT 、Bert 等语言处理模型；&lt;br&gt;5、熟悉docker、k8s集群管理等分布式训练和部署；&lt;br&gt;6、具有良好的团队协作能力，热爱钻研技术，善于分析解决问题。
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-luohuqu/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,%25E6%259C%25BA%25E5%2599%25A8%25E5%25AD%25A6%25E4%25B9%25A0%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;机器学习经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,%25E8%25B0%2583%25E4%25BC%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;调优&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,%25E6%25B7%25B1%25E5%25BA%25A6%25E5%25AD%25A6%25E4%25B9%25A0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;深度学习&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,tensorflow,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;tensorflow&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,transformer,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;transformer&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,agent,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;agent&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,bert,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;bert&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        【岗位职责】&lt;br&gt;1、参与系统需求分析，架构设计及原型实现；&lt;br&gt;2、负责项目业务系统相关的开发、测试工作；&lt;br&gt;3、协助项目组完成项目的交付，包括需求沟通及相关文档的编写。&lt;br&gt;【职位要求】&lt;br&gt;1、大专及以上学历，计算机或其它相关专业专科及以上学历，英语语言能力较好、2年或2年以上同技术开发工作经验；&lt;br&gt;2、具备扎实的计算机系统知识，具有 Python 开发项目经验，能够独立承担python 开发任务；&lt;br&gt;3、至少了解使用过 pyhon-opencv 、mongo 、mysql  等 python 第三方库；&lt;br&gt;4.  熟悉或了解过 python 的ansyncio 、多线程、多进程管理和使用；熟悉Linux系统和网络相关知识。&lt;br&gt;5、良好的个人品质，良好的软件开发素养及信息安全素养，有责任感，较强的沟通能力，具有团队合作精神。&lt;br&gt;6、另招本科及硕士相关专业兼职，有意投简历联系。
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/xiamen-smq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        1、熟悉linux和windos操作系统的常用命令，具备问题排查经验者优先；&lt;br&gt;&lt;br&gt;2、具备一定的shell或者python或者java 前端开发能力，具备项目经验的优先；&lt;br&gt;&lt;br&gt;3、了解常用中间件（nginx、tomcat、kafka、redis等）用途并了解常用运维操作命令；&lt;br&gt;&lt;br&gt;4、工作认真负责、严谨， 态度积极主动，能承担一定工作压力，有良好的团队合作精神，善沟通；&lt;br&gt;&lt;br&gt;5、具有较强逻辑分析、总结能力
+                &lt;div class="mt10"&gt;
+                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/yunweikaifa/"&gt;运维开发&lt;/a&gt;&lt;/p&gt;
+                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,shell,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;shell&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;文档&lt;/a&gt;&lt;/p&gt;
+                                &lt;/div&gt;
+&lt;!--        &lt;div class="share"&gt;</t>
         </is>
       </c>
     </row>

--- a/职位.xlsx
+++ b/职位.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,8 +469,10 @@
           <t>公司名称</t>
         </is>
       </c>
-      <c r="H1" s="1" t="n">
-        <v>0</v>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>职位信息</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -501,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAWZUOVM5AjpRNVAyVTc.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -509,7 +511,11 @@
           <t>深圳市联华世纪通信技术有限公司</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['        任职要求：&lt;br&gt;     1、计算机相关专业，本科及以上学历，3年以上后台开发工作经验；&lt;br&gt;     2、精通Python语言，有Flask或Django框架的实际项目经验；&lt;br&gt;     3、熟悉主流SQL数据库（MySQL, MSSQL, Oracle等），熟悉SQL数据模型设计、编写、调优，熟悉主流NoSQL数据库（Redis, MongoDB等），熟悉缓存与消息队列的工作模式及常用组件；会openwrt。&lt;br&gt;     4、熟悉网络编程，掌握TCP、UDP和HTTP等通讯协议；&lt;br&gt;     5、熟悉Docker容器，了解Kubernetes相关知识，熟悉常用的设计模式；            &lt;br&gt;     6、了解常用前后端框架技术，具备前后端分离项目经验；&lt;br&gt;     7、具备较强的信息获取能力及学习能力，擅长理性思维，善于接纳新鲜事物与多方观点，擅长了解及尝试前沿技术；&lt;br&gt;     8、有大型分布式架构经验者优先，有独立做过项目技术选型或独立完成一个项目的核心功能的开发者优先。&lt;br&gt;&lt;br&gt;岗位职责：&lt;br&gt;     1. 负责SDN网络管理系统后台技术组件的规划和研发设计；&lt;br&gt;     2. 负责前后台系统代码设计与开发，使用敏捷产品开发流程来确保功能按时交付；&lt;br&gt;     3. 深入理解业务需求，负责架构设计，使用适当创新技术手段促进业务的快速交付。&lt;br&gt;&lt;br&gt;公司福利：&lt;br&gt;地址：7号线和9号线交界的红岭北地铁站50米；&lt;br&gt;工作时间：周末双休，上午：9:00-18:00，5天7.5小时工作制；&lt;br&gt;带薪年假、带薪病假，享受国家规定的法定假和福利假等；&lt;br&gt;下午茶水果经费充足、经常聚餐、生日会，节日福利、绩效奖金、年底双薪等；&lt;br&gt;工作氛围友好，交流通畅和谐，提供行业内具有竞争力的薪酬；&lt;br&gt;内部培训，公司提供通用和专业入职培训及后续各种提升培训，提升自身专业能力；&lt;br&gt;外部培训，公司聘请外部专业培训机构匹配员工需求开展多样性外部培训，提升自身专业能力。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E5%2589%258D%25E7%25AB%25AF,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;前端&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E5%2590%258E%25E7%25AB%25AF,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后端&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUTIFZlA1AD5UM1cyAmU.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -547,79 +553,87 @@
           <t>中通服软件科技有限公司</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['        1、负责用python语言实现系统的后端研发；&lt;br&gt;2、根据项目需求，完成功能模块设计和代码实现工作；&lt;br&gt;3、完成上级领导交办的其它任务。&lt;br&gt;任职要求：&lt;br&gt;1、本科学历；计算机、软件等相关专业，精通Python语言开发，2年以上Python开发经验；&lt;br&gt;2、熟练掌握Linux基础知识及常用操作命令；熟悉常用关系数据库和非关系型数据库；&lt;br&gt;3、熟悉Langchain优先;&lt;br&gt;4、聪明、灵活、自律、上进、务实、有较强的逻辑分析能力\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-gxq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Python技术管培生</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.3千-1万</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中山·东区</t>
-        </is>
-      </c>
+          <t>6千-1.2万·13薪</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>无需经验</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAWNXMVUyAzUEYQBgBmU.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>中山华定科技有限公司</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>沈阳颁德优化科技有限公司</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['        颁德优化科技Benders Optimal Technology 于2020年底开始运作，近三年以来，公司业务不断扩展，现需要招聘程序员一名，要求如下：&lt;br&gt;1. 计算机软件本科或硕士毕业，本科要求4年计算机专业或紧密相关专业。&lt;br&gt;2. 熟练基本数据结构和常用算法，理解基本设计模式&lt;br&gt;3. 熟练Python及Pandas, Numpy等常用库。&lt;br&gt;4. 熟练Pycharm, Git, Excel等常用工具&lt;br&gt;5. 熟练数据库操作SQL语言，PostgreSQL等数据库。&lt;br&gt;6. 了解前端Flutter。&lt;br&gt;7. 了解Java语言及spring framework, spring boot. AWS cloud, docker, Redis等工具。&lt;br&gt;8. 英语阅读能力强，至少英语四级；学习新技术能力强。&lt;br&gt;9. 喜欢会计知识，愿意理解个人税表，财务报表等优先。&lt;br&gt;&lt;br&gt;本公司软件产品主要面向美国市场及客户，需要能够准确理解英文文档，英语水平一般者恐难以胜任。本公司目前是远程工作模式，只要按时提交代码即可，不必到办公室上班。未来会根据员工意愿及地理分布，在国内设立办公室。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/all/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;算法&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD%25E9%2598%2585%25E8%25AF%25BB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语阅读&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python技术管培生</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6-9千</t>
+          <t>5.3千-1万</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南京·雨花台区</t>
+          <t>中山·东区</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2年</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>本科</t>
-        </is>
-      </c>
+          <t>无需经验</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coBmhVOQNgBT9UN1cyAGY.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>华通科技有限公司</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>中山华定科技有限公司</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['        ★★欢迎对人工智能领域感兴趣的应聘者加入，内部提供类ChatGPT/AI人工智能小助理等多款工具，协助团队提升工作效率并发掘新的业务增长点★★&lt;br&gt;&lt;br&gt;【我们需要这样的你】&lt;br&gt;1）心态积极阔达、坦诚自信、乐观进取；（当看到半杯水的时候会觉得自己拥有了半杯水，而不是只有这半杯水，更多关注杯子的外侧，通过了解未知的未知保持空杯心态）&lt;br&gt;2）善于思考与创新，愿意持续学习新知识，内驱力强，喜欢“跳出已有框架”思考问题，不为自己设限&lt;br&gt;&lt;br&gt;【目前岗位工作内容比重】&lt;br&gt;★专业技能工作（开发创作、优化升级）：10%&lt;br&gt;★事务性工作（系统维护、资料处理、会务参与、技术服务、业务沟通）：90%&lt;br&gt;&lt;br&gt;【工作职责】&lt;br&gt;1、参与软件开发项目，负责Python相关项目需求的代码设计、编写、测试和维护。&lt;br&gt;2、能够遵守公司制定的开发流程和规范根据需求进行相应的开发工作，学习和掌握公司的技术框架和工具，保证项目质量和进度。&lt;br&gt;3、与团队成员协作，解决项目中出现的问题。&lt;br&gt;4、积极学习新技术，提高自身技能水平。&lt;br&gt;&lt;br&gt;【任职条件】&lt;br&gt;1、熟悉Python语言，熟悉常用的Python框架（如Django、Flask等）。&lt;br&gt;2、具备良好的逻辑思维能力和代码编写能力。&lt;br&gt;3、具备良好的团队合作精神和沟通能力。&lt;br&gt;4、熟悉Gitflow、GitHub flow、CICD等。&lt;br&gt;5、熟悉数据库基础知识，如My SQL等者优先考虑。&lt;br&gt;6、有相关实习或工作经验者优先考虑。&lt;br&gt;&lt;br&gt;【具体上班时间】&lt;br&gt;星期一&amp;amp;六 08:00-15:30（含早餐与午餐时间1.5小时）&lt;br&gt;星期二至五 08:00-17:30（含早餐与午餐时间1.5小时）&lt;br&gt;&lt;br&gt;【薪金待遇】&lt;br&gt;考核期两个月：5388-10388元/月（包含：日勤奖、交通补贴、话费补贴、就餐补贴等，合计超过858元）。&lt;br&gt;★考核期后按照部门薪酬制度执行。&lt;br&gt;&lt;br&gt;【在职培训】&lt;br&gt;1、入职初期，公司会安排相关导师指导新人，帮助新人尽快融入公司和熟悉工作内容。&lt;br&gt;2、公司将定期为在职同事提供职业发展培训，帮助在职同事寻找未来职业方向，实现发展目标。&lt;br&gt;&lt;br&gt;【晋升方向】&lt;br&gt;人性化的发展道路：可根据自身岗位发展目标和方向需求，选择不同路线晋升：&lt;br&gt;★团队发展方向：M1----M2----M3----M4----M5----M6----M7----M8&lt;br&gt;★个人发展方向：P1----P2----P3----P4----P5----P6----P7----P8----P9&lt;br&gt;&lt;br&gt;【办公地点】&lt;br&gt;★应聘时可沟通选择意向办公点：&lt;br&gt;1、中山市西区街道金港路48号美林假日翰林苑4期164-167卡&lt;br&gt;2、中山市港口镇港口银库路8号裕港豪庭二期52卡&lt;br&gt;3、中山市火炬开发区伟盛路12号幸福旭日家园1栋6卡&lt;br&gt;4、中山市东区街道兴政路1号中环广场1栋5楼&lt;br&gt;&lt;br&gt;如果你积极上进，不甘平凡，渴望过上快乐工作、快乐生活的日子，赶快加入华定吧！我们为你提供丰厚的收入以及良好的晋升平台。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;20-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhongshan-dq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E7%25BC%2596%25E5%2586%2599,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码编写&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25A8%258B%25E5%25BA%258F%25E5%2591%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;程序员&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;管培生&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术管培生&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -629,93 +643,101 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8千-1.5万</t>
+          <t>6-9千</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>北京·海淀区</t>
+          <t>南京·雨花台区</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1年</t>
+          <t>2年</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUTBSNFI0AjxUMFA7AmA.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>点奇互联（北京）科技有限公司</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>华通科技有限公司</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['        python开发工程师&lt;br&gt;1、理解软件工程基本概念，能够利用常用设计模式完成系统中子系统或者模块的设计；&lt;br&gt;2、有数据通信网络知识基础，熟悉cisco 或ZTE、华为网络设备，有一定的现网维护经验最优。&lt;br&gt;3、熟悉python 或ruby 等语言\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanjing-yhtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070210,0000,00,9,99,ruby,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ruby&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070210,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%2580%259A%25E4%25BF%25A1%25E7%25BD%2591%25E7%25BB%259C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据通信网络&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070210,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>少儿Python老师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8千-1.2万</t>
+          <t>8千-1.5万</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南昌·红谷滩区</t>
+          <t>北京·海淀区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coA2BRMl84BzoGYgxmBmc.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>南昌市唐格教育咨询有限公司</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>点奇互联（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['        .负责数据模型测试，包括确定测试范围、制定测试方案、优化测试过程、提高测工作职责:&lt;br&gt;2-运用数据挖掘/统计学习的理论和方法，深入挖掘和分析海量用户行为&lt;br&gt;3-根据项目需求，分析数据，建立适应的模型并解决业务需求，并规划和设计出对应的数据专题应用，以提升数据价值。&lt;br&gt;职位要求 ：&lt;br&gt;1、接受转行，应届优先，有志于IT、金融行业长远发展（金融、经济学专业可放宽至大专）；或对金融、IT行业有强烈意愿者。&lt;br&gt;2、要求大专以上学历，应届优先；&lt;br&gt;3、年龄20-29周岁；&lt;br&gt;4、计算机、软件、数学、统计学、经济、财务专业优先；&lt;br&gt;5、熟练使用ORACLE/DB2数据库优.\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;18-26岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-hdq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Python开发</t>
+          <t>少儿Python老师</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9千-1.5万·13薪</t>
+          <t>8千-1.2万</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南昌·红谷滩区</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-6年</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -725,15 +747,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coA2cCY1cxBj1UNlAyB2Y.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>中软国际科技服务有限公司</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>南昌市唐格教育咨询有限公司</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['        岗位职责：&lt;br&gt;1. 负责为4-12岁学龄后儿童提供scratch、Python、C++等编程语言的教学工作，包括课程设计、教材编写、授课等工作；&lt;br&gt;2.经过培训具备编程能力，沟通表达逻辑性强。&lt;br&gt;3.与家长沟通，帮助家长及时了解儿童成长动向。&lt;br&gt;4.学员服务，提升家长满意度。&lt;br&gt;5.严格完成校区规定的到课率、推荐率与续费率指标。&lt;br&gt;6.授课能力过硬，具备与儿童沟通的能力与课堂表现力。&lt;br&gt;7.有教师证、编程经验者优先考虑。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1. 具有本科及以上学历，计算机相关专业优先考虑；&lt;br&gt;2. 熟练掌握scratch、Python编程语言，具有扎实的编程基础；&lt;br&gt;3. 具备良好的教学能力和沟通能力，能够有效地传授知识；&lt;br&gt;4. 具有较强的团队合作精神和责任心；&lt;br&gt;5. 具有相关教学经验者优先考虑。&lt;br&gt;&lt;br&gt;公司福利：&lt;br&gt;1. 完善的社会保险（六险一金）；&lt;br&gt;2.优秀员工子女享受教育课程优惠；&lt;br&gt;3. 带薪年假，节日福利；&lt;br&gt;4. 超童趣的办公环境；&lt;br&gt;5. 让你永葆青春的一颗童心。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanchang-hgtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,C%252B%252B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C++&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,scratch,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;scratch&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -759,7 +785,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAWNXMVUyAzUEYQBgBmU.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -767,121 +793,137 @@
           <t>中山华定科技有限公司</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['        ★★欢迎对人工智能领域感兴趣的应聘者加入，内部提供类ChatGPT/AI人工智能小助理等多款工具，协助团队提升工作效率并发掘新的业务增长点★★&lt;br&gt;&lt;br&gt;【我们需要这样的你】&lt;br&gt;1）心态积极阔达、坦诚自信、乐观进取；（当看到半杯水的时候会觉得自己拥有了半杯水，而不是只有这半杯水，更多关注杯子的外侧，通过了解未知的未知保持空杯心态）&lt;br&gt;2）善于思考与创新，愿意持续学习新知识，内驱力强，喜欢“跳出已有框架”思考问题，不为自己设限&lt;br&gt;&lt;br&gt;【目前岗位工作内容比重】&lt;br&gt;★专业技能工作（开发创作、优化升级）：10%&lt;br&gt;★事务性工作（系统维护、资料处理、会务参与、技术服务、业务沟通）：90%&lt;br&gt;&lt;br&gt;【工作职责】&lt;br&gt;1、参与软件开发项目，负责Python相关项目需求的代码设计、编写、测试和维护。&lt;br&gt;2、能够遵守公司制定的开发流程和规范根据需求进行相应的开发工作，学习和掌握公司的技术框架和工具，保证项目质量和进度。&lt;br&gt;3、与团队成员协作，解决项目中出现的问题。&lt;br&gt;4、积极学习新技术，提高自身技能水平。&lt;br&gt;&lt;br&gt;【任职条件】&lt;br&gt;1、熟悉Python语言，熟悉常用的Python框架（如Django、Flask等）。&lt;br&gt;2、具备良好的逻辑思维能力和代码编写能力。&lt;br&gt;3、具备良好的团队合作精神和沟通能力。 &lt;br&gt;4、熟悉Gitflow、GitHub flow、CICD等。&lt;br&gt;5、熟悉数据库基础知识，如My SQL等者优先考虑。&lt;br&gt;6、有相关实习或工作经验者优先考虑。&lt;br&gt;&lt;br&gt;【具体上班时间】&lt;br&gt;星期一&amp;amp;六 08:00-15:30（含早餐与午餐时间1.5小时）&lt;br&gt;星期二至五 08:00-17:30（含早餐与午餐时间1.5小时）&lt;br&gt;&lt;br&gt;【薪金待遇】&lt;br&gt;考核期两个月：5388-10388元/月（包含：日勤奖、交通补贴、话费补贴、就餐补贴等，合计超过858元）。&lt;br&gt;★考核期后按照部门薪酬制度执行。&lt;br&gt;&lt;br&gt;【在职培训】&lt;br&gt;1、入职初期，公司会安排相关导师指导新人，帮助新人尽快融入公司和熟悉工作内容。&lt;br&gt;2、公司将定期为在职同事提供职业发展培训，帮助在职同事寻找未来职业方向，实现发展目标。&lt;br&gt;&lt;br&gt;【晋升方向】&lt;br&gt;人性化的发展道路：可根据自身岗位发展目标和方向需求，选择不同路线晋升：&lt;br&gt;★团队发展方向：M1----M2----M3----M4----M5----M6----M7----M8&lt;br&gt;★个人发展方向：P1----P2----P3----P4----P5----P6----P7----P8----P9&lt;br&gt;&lt;br&gt;【办公地点】&lt;br&gt;★应聘时可沟通选择意向办公点：&lt;br&gt;1、中山市西区街道金港路48号美林假日翰林苑4期164-167卡&lt;br&gt;2、中山市港口镇港口银库路8号裕港豪庭二期52卡&lt;br&gt;3、中山市火炬开发区伟盛路12号幸福旭日家园1栋6卡&lt;br&gt;4、中山市东区街道兴政路1号中环广场1栋5楼&lt;br&gt;&lt;br&gt;如果你积极上进，不甘平凡，渴望过上快乐工作、快乐生活的日子，赶快加入华定吧！我们为你提供丰厚的收入以及良好的晋升平台。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;20-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhongshan-dq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E7%25BC%2596%25E5%2586%2599,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码编写&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25A8%258B%25E5%25BA%258F%25E5%2591%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;程序员&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;管培生&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术管培生&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python开发</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7千-1.2万</t>
+          <t>9千-1.5万·13薪</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>株洲·天元区</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>1-6年</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coB2RcPANjATwHYANgXT0.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>湖南艾佳威信息技术有限公司</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>中软国际科技服务有限公司</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['        1.本科及以上，计算机科学与技术，软件工程等相关专业，1年以上工作经验&lt;br&gt;2.熟悉python，并使用django，flask等主流框架开发项目&lt;br&gt;3.了解linux操作系统，熟练使用linux基本方法和常用命令，有一定的shell脚本开发能力&lt;br&gt;4.有持续继承(CI)相关开发、部署或维护经验，熟悉CI相关流程，有docker服务器部署和维护经验&lt;br&gt;5.了解至少一种数据库管理系统，如果MySQL，redis等，有数据库模型开发和设计经验\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25B7%25A5%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件工程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,ci,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ci&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8千-1.5万</t>
+          <t>7千-1.2万</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>无锡·新吴区</t>
+          <t>株洲·天元区</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>2年及以上</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUzEFZQVlBz8AYgJiAmM.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>无锡秉杰机械有限公司</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>湖南艾佳威信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['        职位要求：&lt;br&gt;1、2年以上Python开发经验，具有扎实的Python编程基础。&lt;br&gt;2、熟练掌握至少一门Python Web开发框架（Flask或者Fastapi或者Django）。&lt;br&gt;3、熟练使用Redis、Mongodb、Oracle、Postgresql 等数据库，能熟练进行数据库设计与优化，和数据库操作技术sqlalchemy。&lt;br&gt;4、熟练Linux平台环境，掌握常见的命令和脚本，并能够在生产环境中部署应用程序。&lt;br&gt;5、熟悉Numpy、Pandas、Dask等数据分析优先。&lt;br&gt;6、熟悉前端技术，如HTML、CSS、JavaScript等；&lt;br&gt;7、具有良好的文档编写能力、沟通表达能力和团队合作精神。&lt;br&gt;8、熟悉敏捷开发模式，具备良好的代码习惯、代码管理和协作能力。&lt;br&gt;9、具备良好的沟通能力和团队合作精神，工作态度积极，有耐心，有责任心。&lt;br&gt;10、有良好的学习和创新能力，能够快速适应新的技术和项目\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;22-30岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhuzhou-tyq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,MongoDB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MongoDB&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8千-1.2万</t>
+          <t>8千-1.5万</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>无锡·新吴区</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUj0BZlE7VG8PaQRv.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>美皇贸易（深圳）有限公司</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>无锡秉杰机械有限公司</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['        职位描述&lt;br&gt;技术要求：&lt;br&gt;1. 本科计算机相关专业 2年以上软件开发经验（接受应届生）&lt;br&gt;2. 熟练掌握python 熟悉opencv numpy qt库 理解其语言特性，会c#加分&lt;br&gt;3. 熟悉常用的数据结构 有一定算法基础，lintcode上刷过题加分&lt;br&gt;&lt;br&gt;工作内容：&lt;br&gt;1．负责视觉系统的设计，开发，部署，测试和优化。&lt;br&gt;2．负责现场追踪项目进度，解决相关性技术问题&lt;br&gt;3．负责根据项目效果协调生产工艺，完成系统产品设计，开发和现场验证等工作\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuxi-xwq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070405,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -891,46 +933,54 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6千-1.2万·13薪</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>8千-1.2万</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAmNTPlU_VWICblE2UjQ.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>沈阳颁德优化科技有限公司</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>美皇贸易（深圳）有限公司</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['        职位描述：&lt;br&gt;1、负责前后台系统代码设计与开发,使用敏捷产品开发流程来确保功能按时交付;&lt;br&gt;2、业务系统的优化改正、按计划完成任务、确保系统稳定可靠运行.&lt;br&gt;&lt;br&gt;职位要求：&lt;br&gt;1、计算机相关专业,大专及以上学历,3年以上后台开发工作经验;&lt;br&gt;2、精通Python语言,有Flask或Django框架的实际项目经验;&lt;br&gt;3、熟悉主流SQL数据库（MySQL, MSSQL, Oracle等）,熟悉SQL数据模型设计、编写、调优;&lt;br&gt;4、熟悉网络编程,掌握TCP、UDP和HTTP等通讯协议;&lt;br&gt;5、熟悉Docker容器,了解Kubernetes相关知识，熟悉常用的设计模式;&lt;br&gt;6、了解Linux,并能使用日常的命令；有Linux项目开发优先;&lt;br&gt;7、了解常用前后端框架技术,具备前后端分离项目经验;&lt;br&gt;8、具备较强的信息获取能力及学习能力,擅长理性思维,善于接纳新鲜事物与多方观点,擅长了解及尝试前沿技术;&lt;br&gt;9、有大型分布式架构经验者优先,有独立做过项目技术选型或独立完成一个项目的核心功能的开发者优先.\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E8%25AE%25BE%25E8%25AE%25A1%25E6%25A8%25A1%25E5%25BC%258F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;设计模式&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E9%2580%2589%25E5%259E%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术选型&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E5%2590%258E%25E5%258F%25B0%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后台开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Python爬虫工程师</t>
+          <t>Python软件开发工程师</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.2-2万</t>
+          <t>6千-1.1万·13薪</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上海·长宁区</t>
+          <t>武汉·东湖新技术产业开发区</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -945,73 +995,81 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUzZTN1E0Aj5WMVM4B2A.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>上海百秋新网商数字科技有限公司</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>武汉光至科技有限公司</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['        岗位职责：&lt;br&gt;1、负责后端应用架构的设计和规范化工作；&lt;br&gt;2、独立完成需求分析、系统软件设计、编码和测试工作；&lt;br&gt;3、负责公司产品的开发和维护更新工作，并对交付质量负责；&lt;br&gt;4、编写相关的开发文档，如设计文档，测试文档等。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、计算机及相关专业本科学历，2年以上开发经验；&lt;br&gt;2、熟悉Python常用后端框架如Django、Flask等；&lt;br&gt;3、熟悉数据库的操作及维护(MySQL、Redis等)，能熟练进行数据库设计与优化，和数据库操作技术sqlalchemy；&lt;br&gt;4、熟悉Linux 的操作；&lt;br&gt;5、良好的沟通能力，工作积极主动，责任心强，具有团队协作、独立完成工作能力；&lt;br&gt;6、会使用docker优先，了解ERP、MES系统相关开发优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuhan-dhxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,erp,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;erp&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库设计&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Python爬虫工程师</t>
+          <t>Python软件工程师</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5千-1万</t>
+          <t>8千-1.2万</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>铜陵</t>
+          <t>深圳·宝安区</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2年</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUjcGalA2DjcAYFA1UTI.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>安徽百舟互娱网络股份有限公司</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>深圳星河像素电子有限公司</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['        岗位职责：Python软件设计&lt;br&gt;有python编程经验3年以上，熟悉电脑应用程序和手机APP开发。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;23岁以上&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-baq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,%25E6%2589%258B%25E6%259C%25BAapp%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;手机app开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Python开发</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6千-1万</t>
+          <t>1.5-3万</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>武汉·东湖新技术产业开发区</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1年及以上</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1021,35 +1079,39 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coBGEAZ1Y2VmADYVEzAWc.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>武汉先龙科技有限公司</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>浙江五京科技集团有限公司</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['        职责描述:&lt;br&gt;1.加入我们的团队，为NLP或AI相关项目设计、原型设计、实施、部署和维护功能；&lt;br&gt;2.对大型数据集进行实验，以评估NLP技术的可行性，结果和性能&lt;br&gt;3.做出合理的工程决策并改进软件开发实践，同时注重性能和可靠性&lt;br&gt;任职要求:&lt;br&gt;1.3年以上Python开发经验；&lt;br&gt;2.熟悉RestfulAPI，Mysql数据库，HTTP；&lt;br&gt;3.熟悉Flask,Django,FastAPI(熟悉其中一种或多种)&lt;br&gt;4.熟悉Nginx,Gunicorn,Redis，Linux;&lt;br&gt;5.熟悉常用数据结构，设计模式，良好编码风格;&lt;br&gt;6.有CI/CD,DevOps相关知识，了解AWS,Azure等公有云技术;&lt;br&gt;7.熟悉MessageQueue(RabbitMQ,Kafka,etc).\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hangzhou/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Nginx,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Nginx&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Kafka,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Kafka&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>python开发工程师</t>
+          <t>Python高级开发工程师</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2-3万</t>
+          <t>2.5-4万</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>深圳·罗湖区</t>
+          <t>南京·江宁区</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4年及以上</t>
+          <t>5年及以上</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1059,129 +1121,145 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUjVdMFM1DjBSNgBj.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>深圳市星火电子工程公司</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>苏州英格玛制造外包有限公司</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['        Python后端开发工程师，***有架构能力，五年以上工作经验。&lt;br&gt;&lt;br&gt;是财务项目（财务共享中心的建设）&lt;br&gt;需要会ocr+idps+大模型+智能审核+电子影像这些的一部分，不需要全会哇&lt;br&gt;共享财务系统，报账.资金.sap.预测.itsm 这种经验也可以。&lt;br&gt;&lt;br&gt;ocr 识别和转换图像中的文字。&lt;br&gt;idps 智能文档处理，海量级别的。&lt;br&gt;大模型，chatgpt。&lt;br&gt;智能审核 机器学习。&lt;br&gt;电子影像 转换文字这种。&lt;br&gt;&lt;br&gt;注：工作项目短期两个月，薪资可谈，可提供公寓住宿，五年以上工作经验。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanjing-jnq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Nginx,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Nginx&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Nginx,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Nginx&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E6%259C%25BA%25E5%2599%25A8%25E5%25AD%25A6%25E4%25B9%25A0%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;机器学习经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Linux%25E5%25BC%2580%25E5%258F%2591%252F%25E9%2583%25A8%25E7%25BD%25B2%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Linux开发/部署经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E8%25B4%25A2%25E5%258A%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;财务&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,SAP,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sap&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E6%258A%25A5%25E8%25B4%25A6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;报账&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E8%25B4%25A2%25E5%258A%25A1%25E7%25B3%25BB%25E7%25BB%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;财务系统&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E6%259E%25B6%25E6%259E%2584,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;架构&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E9%25A2%2584%25E6%25B5%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;预测&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,itsm,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;itsm&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E8%25B4%25A2%25E5%258A%25A1%25E5%2585%25B1%25E4%25BA%25AB%25E4%25B8%25AD%25E5%25BF%2583,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;财务共享中心&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E6%2599%25BA%25E8%2583%25BD%25E5%25AE%25A1%25E6%25A0%25B8,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;智能审核&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,idps,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;idps&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>python算法工程师</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5千-1万·13薪</t>
+          <t>1-1.2万</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>厦门·思明区</t>
+          <t>深圳·福田区</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3-5年</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAG5XN146AjgHa1E7UDI.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>厦门凡祈丰科技有限公司</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
+          <t>深圳市紫川软件有限公司</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['        1、全日制本科及以上学历；3-5年工作经验。&lt;br&gt;2、计算机基础扎实，熟悉Linux操作系统及常用命令，熟悉数据库基础知识及基础操作；&lt;br&gt;3、熟悉Python，熟悉Django框架；&lt;br&gt;4、具备较强的问题分析能力和解决能力；具备良好的学习能力、沟通协调能力、团队协作能力，有高度的工作责任心、抗压能力强。&lt;br&gt;5、有金融行业监管汇报、运维工具开发、系统运维者优先&lt;br&gt;岗位职责：&lt;br&gt;1、运维平台等系统功能需求的评估、排期和开发；&lt;br&gt;2、响应系统异常告警，及时处理系统异常，确保系统稳定；&lt;br&gt;3、负责跟进团队内的专项进度；&lt;br&gt;4、完成上级领导安排的其他工作。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E7%25B3%25BB%25E7%25BB%259F%25E8%25BF%2590%25E7%25BB%25B4,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;系统运维&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E8%25BF%2590%25E7%25BB%25B4%25E5%25B7%25A5%25E5%2585%25B7%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;运维工具开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E9%2597%25AE%25E9%25A2%2598%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;问题分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E5%25A4%2584%25E7%2590%2586%25E7%25B3%25BB%25E7%25BB%259F%25E5%25BC%2582%25E5%25B8%25B8,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;处理系统异常&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E8%25BF%2590%25E7%25BB%25B4%25E5%25B9%25B3%25E5%258F%25B0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;运维平台&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Python运维开发工程师</t>
+          <t>Python开发</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8千-1.5万</t>
+          <t>6千-1万</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>深圳·福田区</t>
+          <t>武汉·东湖新技术产业开发区</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>1年及以上</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coVjVdOwVmDzECYQJkXD4.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>深圳市睿服科技有限公司</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>武汉先龙科技有限公司</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['        公司专注水务、智能控制及物联网领域：&lt;br&gt;1、智慧水务。实现“水源、水厂、管网、泵房、水表”全程监控管理。&lt;br&gt;2、供水设备、自动控制柜和泵房供水工程。&lt;br&gt;3、智能电站。通过光伏+储能+智能调度，降低电费、低碳减排。&lt;br&gt;4、物联网设备。数据采集仪、PLC、水浸传感器等自带物联网功能，支持远程控制与数据传送。&lt;br&gt;&lt;br&gt;职责：&lt;br&gt;1、物联网设备端python软件开发；&lt;br&gt;2、云平台系统的前端开发。&lt;br&gt;&lt;br&gt;&lt;br&gt;职能要求：&lt;br&gt;1、年龄：22一30。学历：本科及以上，数学、物理、机械、软件工程、计算机、电子、通信、自动化等专业；&lt;br&gt;2、 掌握python语言，有ESP32开发经验优先，至少有1年的工作经验。&lt;br&gt;3、 具备网络和通信基础知识，能够排查一般的网络通信故障；&lt;br&gt;4、有较强的语言表达能力和人际关系处理能力、较好的学习能力和实践能力；有较高的诚信度和责任感，较好的团队合作精神；具备协调能力和处理解决问题的能力。&lt;br&gt;5、 具有良好的职业道德及职业操守；：&lt;br&gt;6、月薪:基本6000+绩效，周末双休，五险、节日福利、年终奖、定期体检\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;22-30岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuhan-dhxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>python算法工程师</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1-1.6万·13薪</t>
+          <t>5千-1万·13薪</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>成都·武侯区</t>
+          <t>厦门·思明区</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-5年</t>
+          <t>2年及以上</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUTRWO18-BDsDYFY2VTI.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>宁波思艾特软件有限公司</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>厦门凡祈丰科技有限公司</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['        【岗位职责】&lt;br&gt;1、参与系统需求分析，架构设计及原型实现；&lt;br&gt;2、负责项目业务系统相关的开发、测试工作；&lt;br&gt;3、协助项目组完成项目的交付，包括需求沟通及相关文档的编写。&lt;br&gt;【职位要求】&lt;br&gt;1、大专及以上学历，计算机或其它相关专业专科及以上学历，英语语言能力较好、2年或2年以上同技术开发工作经验；&lt;br&gt;2、具备扎实的计算机系统知识，具有 Python 开发项目经验，能够独立承担python 开发任务；&lt;br&gt;3、至少了解使用过 pyhon-opencv 、mongo 、mysql  等 python 第三方库；&lt;br&gt;4.  熟悉或了解过 python 的ansyncio 、多线程、多进程管理和使用；熟悉Linux系统和网络相关知识。&lt;br&gt;5、良好的个人品质，良好的软件开发素养及信息安全素养，有责任感，较强的沟通能力，具有团队合作精神。&lt;br&gt;6、另招本科及硕士相关专业兼职，有意投简历联系。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/xiamen-smq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1191,17 +1269,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1-1.5万</t>
+          <t>1-1.6万·13薪</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>珠海·珠海高新区</t>
+          <t>成都·武侯区</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>3-5年</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1211,15 +1289,19 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAWFRNAdsVmtUNlMyVDM.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>珠海天海风云科技有限公司</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>宁波思艾特软件有限公司</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['        岗位职责：&lt;br&gt;在Agile的开发模式下，按时完成公司大数据项目的开发、功能及性能测试&lt;br&gt;根据产品具体要求，承担开发任务，按计划完成任务目标；&lt;br&gt;参与需求提出合理的项目实施方案；&lt;br&gt;参与系统的需求分析、设计、编码等开发工作；&lt;br&gt;参与系统的运营和维护工作，保证系统稳定可靠运行；&lt;br&gt;根据公司要求编写相关技术文档；&lt;br&gt;项目过程中，和队员之间做好良好的沟通和交流，及时发现和处理问题&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.本科及以上学历，3-5年工作经验。计算机相关专业优先，熟悉常用的数据结构和算法；&lt;br&gt;2.熟练使用Spark分布式运算框架&lt;br&gt;3.了解并熟悉用PySpark处理分析数据，对Spark SQL的熟练使用&lt;br&gt;4.熟练使用Python编写数据处理脚本&lt;br&gt;5.能够对脚本进行逻辑分析和性能调优&lt;br&gt;6.熟悉Azure Databricks环境&lt;br&gt;7.良好的英语书面沟通能力\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;40岁以下&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-whq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E5%25A4%25A7%25E6%2595%25B0%25E6%258D%25AE,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;大数据&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E8%25B0%2583%25E4%25BC%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能调优&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术文档&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%25BB%2593%25E6%259E%2584%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据结构算法&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1229,17 +1311,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1-2万·13薪</t>
+          <t>1-1.6万·13薪</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>深圳·福田区</t>
+          <t>成都·武侯区</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3-5年</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1249,15 +1331,19 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAWZUOVM5AjpRNVAyVTc.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>深圳市联华世纪通信技术有限公司</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>宁波思艾特软件有限公司</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>['        岗位职责：&lt;br&gt;在Agile的开发模式下，按时完成公司大数据项目的开发、功能及性能测试&lt;br&gt;根据产品具体要求，承担开发任务，按计划完成任务目标；&lt;br&gt;参与需求提出合理的项目实施方案；&lt;br&gt;参与系统的需求分析、设计、编码等开发工作；&lt;br&gt;参与系统的运营和维护工作，保证系统稳定可靠运行；&lt;br&gt;根据公司要求编写相关技术文档；&lt;br&gt;项目过程中，和队员之间做好良好的沟通和交流，及时发现和处理问题&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.本科及以上学历，3-5年工作经验。计算机相关专业优先，熟悉常用的数据结构和算法；&lt;br&gt;2.熟练使用Spark分布式运算框架&lt;br&gt;3.了解并熟悉用PySpark处理分析数据，对Spark SQL的熟练使用&lt;br&gt;4.熟练使用Python编写数据处理脚本&lt;br&gt;5.能够对脚本进行逻辑分析和性能调优&lt;br&gt;6.熟悉Azure Databricks环境&lt;br&gt;7.良好的英语书面沟通能力\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;40岁以下&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-whq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E5%25A4%25A7%25E6%2595%25B0%25E6%258D%25AE,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;大数据&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E8%25B0%2583%25E4%25BC%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能调优&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术文档&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%25BB%2593%25E6%259E%2584%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据结构算法&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1267,17 +1353,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1-2万·14薪</t>
+          <t>1-1.5万</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>成都·高新区</t>
+          <t>珠海·珠海高新区</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1287,87 +1373,103 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUTIFZlA1AD5UM1cyAmU.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>中通服软件科技有限公司</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>珠海天海风云科技有限公司</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>['        公司办公地点在珠海市唐家湾港湾1号~&lt;br&gt;（学历需全日制且学信网可查，必要时需提供社保缴费记录辅助证明简历工作经验，本司诚恳招人，求投递求职者诚信求职，发现简历造假将取消录取入职）&lt;br&gt;&lt;br&gt;&lt;br&gt;一、岗位职责&lt;br&gt;1、后端业务逻辑层、数据层的开发。&lt;br&gt;2、业务系统的优化改正、按计划完成任务、确保系统稳定可靠运行。&lt;br&gt;&lt;br&gt;二、岗位要求&lt;br&gt;1、本科或者以上学历、计算机及相关专业毕业、扎实的基础知识、能看懂源码、理解其中的原理。&lt;br&gt;2、3年以上全职python开发经验、精通python程序设计、熟悉Django或Tornado及Numpy、Pandas、Matplotlib等算法库。&lt;br&gt;3、熟悉至少一种关系型数据库，如 MySQL、Oracle、PostgreSQL，熟悉缓存数据库 Redis。&lt;br&gt;4、了解 Linux 操作系统及Docker容器技术，熟悉常见Shell指令。&lt;br&gt;5、良好的系统分析设计能力、文档管理能力及编程习惯。&lt;br&gt;6、为人中肯,有强烈的责任心和团队合作精神，积极融入团队。&lt;br&gt;&lt;br&gt;三、加分项&lt;br&gt;1、熟悉气象、水文相关的知识。&lt;br&gt;2、web前端开发相关经验。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhuhai-zhgx/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,shell,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;shell&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,%25E5%2585%25B3%25E7%25B3%25BB%25E5%259E%258B%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;关系型数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,web%25E5%2589%258D%25E7%25AB%25AF%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web前端开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,postgresql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;postgresql&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Python技术管培生</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5.3千-1万</t>
+          <t>1-1.5万·13薪</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中山·东区</t>
+          <t>无锡·滨湖区</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>无需经验</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>3年及以上</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAWNXMVUyAzUEYQBgBmU.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>中山华定科技有限公司</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
+          <t>无锡宏创盛安科技有限公司</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>['        岗位职责:&lt;br&gt;1.负责解决前后端开发流程中的各种痛点， 改进和优化开发流程、工具和架构&lt;br&gt;2.持续优化项目技术、保证代码质量和服务稳定，提升用户体验&lt;br&gt;3.跟踪新技术发展并运用到实际项目中&lt;br&gt;4.与底层开发团队紧密配合，确保代码有效对接，优化页面前端性能&lt;br&gt;任职需求:&lt;br&gt;1.3年以上前后端开发经验，统招本科以上学历，计算机，软件相关专业&lt;br&gt;2.熟练掌握HTML、CSS、JavaScript和PHP等，掌握Python/PHP的基本使用 &lt;br&gt;3.掌握Apache或Nginx等服务器的搭建配置，了解webservice&lt;br&gt;4.熟悉Django或Flask等框架的使用&lt;br&gt;5.熟悉Mysq｜数据库或其他常见数据库&lt;br&gt;6.熟悉Linux环境的的基本命令。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuxi-bhq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,css,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;css&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,html,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;html&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,javascript,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;javascript&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,php,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;php&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,apache,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;apache&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,%25E7%2594%25A8%25E6%2588%25B7%25E4%25BD%2593%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;用户体验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E8%25B4%25A8%25E9%2587%258F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码质量&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6-9千</t>
+          <t>7千-1万</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>南京·雨花台区</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2年</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coBmhVOQNgBT9UN1cyAGY.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>华通科技有限公司</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+          <t>北京迈捷映博科技有限公司</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>['        岗位职责：&lt;br&gt;1、定期推送售后指标的运营报表，及时监控指标运行情况；&lt;br&gt;2、通过数据分析，挖掘业务问题，提出优化建议；&lt;br&gt;3、日常业务数据的提供,维护业务部门的业务数据库；&lt;br&gt;4、对售后源数据进行收集、整理、存档，完善部门数据支撑平台。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、Excel的使用，熟练使用图表及函数功能，掌握VBA编程技能者优先；应届毕业生可培养&lt;br&gt;2、熟悉MySQL数据库的使用，熟练掌握SQL相关的DML数据操作语言；&lt;br&gt;3、了解基础的数据分析方法，包含：描述性分析、回归分析、方差分析；&lt;br&gt;4、有相关数据可视化工作经验、自动化报表开发工作经验者优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1397,7 +1499,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUTBSNFI0AjxUMFA7AmA.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1405,22 +1507,26 @@
           <t>点奇互联（北京）科技有限公司</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>['        .负责数据模型测试，包括确定测试范围、制定测试方案、优化测试过程、提高测工作职责:&lt;br&gt;2-运用数据挖掘/统计学习的理论和方法，深入挖掘和分析海量用户行为&lt;br&gt;3-根据项目需求，分析数据，建立适应的模型并解决业务需求，并规划和设计出对应的数据专题应用，以提升数据价值。&lt;br&gt;职位要求 ：&lt;br&gt;1、接受转行，应届优先，有志于IT、金融行业长远发展（金融、经济学专业可放宽至大专）；或对金融、IT行业有强烈意愿者。&lt;br&gt;2、要求大专以上学历，应届优先；&lt;br&gt;3、年龄20-29周岁；&lt;br&gt;4、计算机、软件、数学、统计学、经济、财务专业优先；&lt;br&gt;5、熟练使用ORACLE/DB2数据库优.\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;18-26岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-hdq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>少儿Python老师</t>
+          <t>python工程师</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8千-1.2万</t>
+          <t>2-2.5万</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>南昌·红谷滩区</t>
+          <t>上海·浦东新区</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1435,35 +1541,39 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coA2BRMl84BzoGYgxmBmc.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>南昌市唐格教育咨询有限公司</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
+          <t>上海期货信息技术有限公司</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>['        工作职责:&lt;br&gt;1、熟悉Python及其性能调优。熟练掌握基于Python的Web开发框架（FastAPI/Flask/Django) 等其中一种；&lt;br&gt;2、熟悉NLP主流大模型如chatGPT/LLaMA/GLM等。&lt;br&gt;3、有 model based engineering (prompt/RAG/Agent) 相关开发经验&lt;br&gt;4、熟练掌握tensorflow、pytorch等深度学习框架，有较强的算法工程能力: 熟悉主流文本生成的原理和方法，有结合业务的落地实践经验。&lt;br&gt;5、具有AI相关项目实践经验&lt;br&gt;任职资格:&lt;br&gt;1、本科学历相关从业年限不低于3年，计算机科学、软件工程、人工智能或相关专业&lt;br&gt;2、硕士年限不低于2年，计算机科学、软件工程、人工智能或相关专业；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-pdxq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Elasticsearch,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Elasticsearch&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Python开发</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9千-1.5万·13薪</t>
+          <t>5千-1万·13薪</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南宁·西乡塘区</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1-6年</t>
+          <t>2年及以上</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1473,49 +1583,61 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coA2cCY1cxBj1UNlAyB2Y.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>中软国际科技服务有限公司</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>广西艾格软件技术有限公司</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>['        职责描述：&lt;br&gt;1、负责软件产品设计、开发、维护及新技术跟进，负责相关技术文档的撰写；&lt;br&gt;2、负责软件产品系统架构的优化，提升产品性能和稳定性；&lt;br&gt;3、负责软件产品上线后的技术支撑和服务，以支撑公司业务发展。&lt;br&gt;&lt;br&gt;任职要求:&lt;br&gt;1、本科及以上学历，计算机相关专业，2年以上python开发经验。 &lt;br&gt;2、熟悉python Django， pandas开发框架，有数据分析经验的优先。&lt;br&gt;3、熟悉Linux操作系统下开部署和维护工作，掌握Linux常用命令，了Vue前端技术，具有一定的Web前端开发能力。&lt;br&gt;4、了解neo4j数据库，熟悉mysql、sqlite、oracle等任一项database，熟悉sql；熟悉消息队列，熟悉容器化开发和部署。&lt;br&gt;5、熟悉HTTP/HTTPS协议、Git等开发、构建、版本控制工具，熟练使用RESTful接口机制，熟悉使用JSON进行网络通信。&lt;br&gt;6、具有良好的编码功底，有业务设计经验，能解决疑难技术问题，有强烈的责任心和团队合作意识，具有较强的抗压能力、具备良好的沟通能力。&lt;br&gt;7、有一定英文文档阅读能力，良好新技术学习能力为加分项；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanning-xxtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,Pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,%25E6%259C%2589%25E5%2589%258D%25E7%25AB%25AF%25E7%25BB%258F%25E9%25AA%258C%252F%25E6%258A%2580%25E8%2583%25BD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;有前端经验/技能&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Python技术管培生</t>
+          <t>Python开发</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5.3千-1万</t>
+          <t>1-2万</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中山·东区</t>
+          <t>杭州·余杭区</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>无需经验</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>2-3年</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAWNXMVUyAzUEYQBgBmU.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>中山华定科技有限公司</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>浙江省公众信息产业有限公司</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>['        岗位职责：&lt;br&gt;1. 负责后端API开发与功能维护；&lt;br&gt;2. 撰写接口与功能开发文档；&lt;br&gt;3.负责设计后台功能逻辑；&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.计算机相关专业,本科及以上学历，至少具有2-3年以上工作经验，有网络开发经验优先；&lt;br&gt;2.熟练掌握Python语言开发、Django开发框架、jinjia2模版、Linux系统的使用、MySql、Redis等常用数据库；&lt;br&gt;3.熟悉go语言优先;&lt;br&gt;4.具有很强的理解能力与学习能力，具有良好的团队合作精神和服务意识。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hangzhou-yhq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E6%258E%25A5%25E5%258F%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;接口&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E5%258A%259F%25E8%2583%25BD%25E7%25BB%25B4%25E6%258A%25A4,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;功能维护&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E7%25BD%2591%25E7%25BB%259C%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;网络开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,go%25E8%25AF%25AD%25E8%25A8%2580,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;go语言&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1525,35 +1647,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7千-1.2万</t>
+          <t>1-2万·13薪</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>株洲·天元区</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coB2RcPANjATwHYANgXT0.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>湖南艾佳威信息技术有限公司</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>广州纳诺新材料科技有限公司</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['        职位描述&lt;br&gt;1、参与软件项目的需求分析、设计、编码、测试、部署和维护工作；&lt;br&gt;2、根据项目需求，编写详细的设计文档和代码注释；&lt;br&gt;3、负责软件模块的开发、优化和重构，提高软件性能和可维护性；&lt;br&gt;4、跟踪项目进度，确保按时交付高质量的软件产品；&lt;br&gt;5、参与团队技术分享与讨论，关注行业技术发展趋势，学习和掌握新技术，为项目开发提供技术支持。&lt;br&gt;职位要求&lt;br&gt;1、本科及以上学历，计算机理工科相关专业；&lt;br&gt;2、3年以上软件开发经验；&lt;br&gt;3、熟练掌握Python语言及其基本语法，熟悉常用的Python开发框架和库，具备良好的编程习惯。&lt;br&gt;4、具备一定的算法和数据结构基础，能够解决常见的编程问题。&lt;br&gt;5、了解Linux操作系统和常用的命令行操作。&lt;br&gt;6、熟练掌握web开发技术，有前端开发能力，有odoo开发经验的优先。&lt;br&gt;7、良好的编程习惯、热爱软件开发工作、逻辑思维能力强，工作认真负责；&lt;br&gt;8、具有一定的沟通和设计能力，能根据需求开发正确的系统，能适应出差；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/guangzhou/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E5%2589%258D%25E7%25AB%25AF%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;前端开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%25BB%2593%25E6%259E%2584,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据结构&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E9%25A1%25B9%25E7%259B%25AE%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;项目开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E7%25BB%25B4%25E6%258A%25A4,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;维护&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1563,12 +1689,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8千-1.5万</t>
+          <t>1.2-2万·13薪</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>无锡·新吴区</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1583,35 +1709,39 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUzEFZQVlBz8AYgJiAmM.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>无锡秉杰机械有限公司</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>广州广颖创网络科技有限公司</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>['        【岗位职责】&lt;br&gt;1. 使用Python语言开发AI应用；&lt;br&gt;2. 分析和评估现有数据集，并进行数据预处理和特征工程，以提高AI模型的准确性和性能；&lt;br&gt;3. 将AI模型集成到现有软件系统中，并进行测试和调试以确保其正常运行；&lt;br&gt;4. 提供技术支持和问题解决，确保AI模型的稳定性和应用效果。&lt;br&gt;&lt;br&gt;【岗位要求】&lt;br&gt;1. 计算机科学或相关领域本科学历，或者具有相关工作经验；&lt;br&gt;2. 熟练掌握Python编程语言【2年及以上的Python开发经验】 ；&lt;br&gt;3. 具备英语技术文档阅读和理解能力，能够独立学习和掌握新的技术知识。&lt;br&gt;4. 对机器学习和自然语言处理有基础理解；&lt;br&gt;5. 对AIGC等前沿AI技术有强烈兴趣，愿意不断学习和探索应用于业务场景。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/guangzhou/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E8%25B0%2583%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;调试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,ai,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ai&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%259C%25BA%25E5%2599%25A8%25E5%25AD%25A6%25E4%25B9%25A0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;机器学习&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA%25E7%25A7%2591%25E5%25AD%25A6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机科学&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%25A2%2584%25E5%25A4%2584%25E7%2590%2586,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据预处理&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%259B%2586,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据集&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E7%2589%25B9%25E5%25BE%2581%25E5%25B7%25A5%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;特征工程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E9%2597%25AE%25E9%25A2%2598%25E8%25A7%25A3%25E5%2586%25B3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;问题解决&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语技术文档&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python全栈工程师</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8千-1.2万</t>
+          <t>5-8千·13薪</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1621,15 +1751,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUj0BZlE7VG8PaQRv.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>美皇贸易（深圳）有限公司</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
+          <t>合肥数聚云数据有限公司</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['        1从事爬虫数据分析&lt;br&gt;2精通mysql数据库&lt;br&gt;3会Linux等运维等\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hefei/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/150200,000000,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/150200,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1639,13 +1773,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6千-1.2万·13薪</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>1-2万·15薪</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>2年</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1655,35 +1793,39 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAmNTPlU_VWICblE2UjQ.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>沈阳颁德优化科技有限公司</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
+          <t>上海念空数据科技中心（有限合伙）</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>['        岗位职责：&lt;br&gt;1、优化现有量化研究平台；&lt;br&gt;2、优化现有python实盘处理程序；&lt;br&gt;3、开发统计量化数据指标；&lt;br&gt;4、帮助研究员提升python数据处理效率。&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、熟练的python开发能力， 熟悉基于python的数据处理框架， numpy和pandas；&lt;br&gt;2、熟悉socket编程；&lt;br&gt;3、熟悉多线程、多进程的开发；&lt;br&gt;4、有基金、券商相关工作经验优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25B7%25A5%25E7%25A8%258B%25E5%25B8%2588,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Python爬虫工程师</t>
+          <t>Python开发</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1.2-2万</t>
+          <t>1-1.2万</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>上海·长宁区</t>
+          <t>成都·高新区</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>1-3年</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1693,35 +1835,39 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUzZTN1E0Aj5WMVM4B2A.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>上海百秋新网商数字科技有限公司</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>湖南拓维云创科技有限责任公司</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['        1.负责Python软件、服务器程序、网站后台设计，相关算法研发和优化。&lt;br&gt;2.参与应用设计与方案讨论。&lt;br&gt;3.负责实现软件、应用程序代码，建立和完善开发文档。&lt;br&gt;4.协助对所开发的功能进行测试，协助产品部署。岗位要求:&lt;br&gt;1.熟练掌握Python的使用，有一定的python web开发经验，熟悉Tornado优先至少会使用一种数据库技术，如Oracle、SQLSever、Mysql、PostgreSQL等3.熟悉Bootstrap、Node.js、.NET、Linux Shell优先。4.有良好的编程习惯，沟通能力强，能够独自编写技术文档。5.具备较好的学习能力、问题分析能力，可以独立调试解决问题。6.良好的沟通协调能力和团队合作意识,工作踏实，态度积极，能够承受工作压力。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-gxq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Tornado,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Tornado&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Python爬虫工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5千-1万</t>
+          <t>8千-1.5万</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>铜陵</t>
+          <t>北京·海淀区</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2年</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1731,30 +1877,34 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUjcGalA2DjcAYFA1UTI.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>安徽百舟互娱网络股份有限公司</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
+          <t>点奇互联（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['        .负责数据模型测试，包括确定测试范围、制定测试方案、优化测试过程、提高测工作职责:&lt;br&gt;2-运用数据挖掘/统计学习的理论和方法，深入挖掘和分析海量用户行为&lt;br&gt;3-根据项目需求，分析数据，建立适应的模型并解决业务需求，并规划和设计出对应的数据专题应用，以提升数据价值。&lt;br&gt;职位要求 ：&lt;br&gt;1、接受转行，应届优先，有志于IT、金融行业长远发展（金融、经济学专业可放宽至大专）；或对金融、IT行业有强烈意愿者。&lt;br&gt;2、要求大专以上学历，应届优先；&lt;br&gt;3、年龄20-29周岁；&lt;br&gt;4、计算机、软件、数学、统计学、经济、财务专业优先；&lt;br&gt;5、熟练使用ORACLE/DB2数据库优.\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;18-26岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-hdq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Python开发</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6千-1万</t>
+          <t>9千-1.3万</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>武汉·东湖新技术产业开发区</t>
+          <t>东莞·凤岗镇</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1764,40 +1914,44 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coBGEAZ1Y2VmADYVEzAWc.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>武汉先龙科技有限公司</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
+          <t>东莞宇宙电路板设备有限公司</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['        工作内容： 主要工作方向为AI大语言模型开发 &lt;br&gt;1：根据业界开源的大语言模型为基础，开发自有系统，Lora微调，全量微调，增量微调等工作&lt;br&gt;2*，研究业内AI发展大方向，应用落地。 &lt;br&gt;要求： &lt;br&gt;1：熟悉Python等后端开发语言，熟悉python下的推理学习框架&lt;br&gt;2：熟悉大语言模型，有过实际的应用开发经验。&lt;br&gt;3：熟悉关系型，非关系型数据库中的任意一种。&lt;br&gt;4：要求有一年以上实际开发工作经验。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan-fgz/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%2590%258E%25E7%25AB%25AF%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后端开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%25BA%2594%25E7%2594%25A8%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;应用开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%2585%25B3%25E7%25B3%25BB%25E5%259E%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;关系型&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>python开发工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2-3万</t>
+          <t>8千-1.5万</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>深圳·罗湖区</t>
+          <t>重庆·巴南区</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4年及以上</t>
+          <t>2年</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1807,35 +1961,39 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUjVdMFM1DjBSNgBj.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>深圳市星火电子工程公司</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
+          <t>重庆信驰科技有限公司</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>['        1、负责项目代码业务逻辑的编写和维护；&lt;br&gt;&lt;br&gt;2、负责产品的新功能开发，项目重构，技术难点攻克； &lt;br&gt;&lt;br&gt;3、负责参与需求讨论，产品设计，功能开发。 &lt;br&gt;&lt;br&gt;4、负责产品运行稳定性维护&lt;br&gt;任职要求：&lt;br&gt; &lt;br&gt;1、具有odoo开发实施经验者，优先录取&lt;br&gt;&lt;br&gt;2、具有大数据处理经验，能解决数据高并发与服务器高性能优化&lt;br&gt;&lt;br&gt;3、具备大型分布式关系型、非关系型数据库设计应用能力。&lt;br&gt;&lt;br&gt;4、精通Python，具有python项目实施经验。&lt;br&gt;&lt;br&gt;5、熟练掌握Java，MySQL，linux，C等开发工具。&lt;br&gt;&lt;br&gt;6、有常用开源框架使用经验，熟悉常见的缓存技术;&lt;br&gt;&lt;br&gt;7、具备数据库设计能力，掌握多线程、多进程编程，具备优秀的编程能力，在常用功能实现方面有自己独到的设计；&lt;br&gt;&lt;br&gt;8、了解或熟悉HTML、CSS、Javascript等前端技术优先&lt;br&gt;&lt;br&gt;9、两年以上项目开发工作经验；&lt;br&gt;&lt;br&gt;10、具备良好的编码习惯及开发文档书写习惯；&lt;br&gt;&lt;br&gt;11、具有优秀的团队合作和沟通协作能力，善于学习，乐于分享，能承受较大工作压力；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chongqing-bnq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/060000,060900,0000,00,9,99,%25E9%25A1%25B9%25E7%259B%25AE%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;项目开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>python算法工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5千-1万·13薪</t>
+          <t>1-1.6万·13薪</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>厦门·思明区</t>
+          <t>宁波·鄞州区</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1845,20 +2003,24 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coAG5XN146AjgHa1E7UDI.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>厦门凡祈丰科技有限公司</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>宁波思艾特软件有限公司</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>['        岗位职责：&lt;br&gt;在Agile的开发模式下，按时完成公司大数据项目的开发、功能及性能测试&lt;br&gt;根据产品具体要求，承担开发任务，按计划完成任务目标；&lt;br&gt;参与需求提出合理的项目实施方案；&lt;br&gt;参与系统的需求分析、设计、编码等开发工作；&lt;br&gt;参与系统的运营和维护工作，保证系统稳定可靠运行；&lt;br&gt;根据公司要求编写相关技术文档；&lt;br&gt;项目过程中，和队员之间做好良好的沟通和交流，及时发现和处理问题&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.大专及以上学历，计算机相关专业优先，熟悉常用的数据结构和算法；&lt;br&gt;2.熟练使用Spark分布式运算框架&lt;br&gt;3.了解并熟悉用PySpark处理分析数据，对Spark SQL的熟练使用&lt;br&gt;4.熟练使用Python编写数据处理脚本&lt;br&gt;5.能够对脚本进行逻辑分析和性能调优&lt;br&gt;6.熟悉Azure Databricks环境&lt;br&gt;7.良好的英语书面沟通能力\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;40岁以下&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/ningbo-yzq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E5%25A4%25A7%25E6%2595%25B0%25E6%258D%25AE,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;大数据&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E8%25B0%2583%25E4%25BC%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能调优&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术文档&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%25BB%2593%25E6%259E%2584%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据结构算法&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Python运维开发工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1868,12 +2030,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>深圳·福田区</t>
+          <t>北京·海淀区</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1883,35 +2045,39 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coVjVdOwVmDzECYQJkXD4.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>深圳市睿服科技有限公司</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
+          <t>点奇互联（北京）科技有限公司</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['        .负责数据模型测试，包括确定测试范围、制定测试方案、优化测试过程、提高测工作职责:&lt;br&gt;2-运用数据挖掘/统计学习的理论和方法，深入挖掘和分析海量用户行为&lt;br&gt;3-根据项目需求，分析数据，建立适应的模型并解决业务需求，并规划和设计出对应的数据专题应用，以提升数据价值。&lt;br&gt;职位要求 ：&lt;br&gt;1、接受转行，应届优先，有志于IT、金融行业长远发展（金融、经济学专业可放宽至大专）；或对金融、IT行业有强烈意愿者。&lt;br&gt;2、要求大专以上学历，应届优先；&lt;br&gt;3、年龄20-29周岁；&lt;br&gt;4、计算机、软件、数学、统计学、经济、财务专业优先；&lt;br&gt;5、熟练使用ORACLE/DB2数据库优.\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;18-26岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-hdq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python开发工程师 (MJ000280)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1-1.6万·13薪</t>
+          <t>1.2-2万</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>成都·武侯区</t>
+          <t>北京·朝阳区</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3-5年</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1921,397 +2087,895 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://jobs.51job.com/all/coUTRWO18-BDsDYFY2VTI.html</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>宁波思艾特软件有限公司</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
+          <t>横河电机（中国）有限公司</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>['        -面向云系统的上层应用开发&lt;br&gt;-AI等相关调研、开发&lt;br&gt;任职要求：&lt;br&gt;-计算机或自动控制等理工类相关专业本科（含）及以上学历&lt;br&gt;-Python数据分析开发经验、熟悉numpy、pandas的使用&lt;br&gt;-有JavaScript前端开发经验者优先&lt;br&gt;&lt;br&gt;&lt;br&gt;接收简历邮箱: YBDC_HR@gr.cn.yokogawa.com&lt;br&gt;投递简历请注明：职位名称-学校-毕业年份-姓名（校园招聘）&lt;br&gt;招聘流程:简历投递→笔试 → 初试/复试 → 最终面试  →签约\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-cyq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                            &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Python后端工程师</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1.7-2.5万·14薪</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>杭州·钱塘区</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5-7年</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>杭州研一智控科技有限公司</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['        岗位职责：&lt;br&gt;1.负责已有产品或者项目的优化、升级维护等工作； &lt;br&gt;2.负责新项目子系统/功能模块的设计、编码、单元测试和集成部署以及技术文档编写等相关工作； &lt;br&gt;3.参与核心功能的架构与代码模板编写，开发与维护系统公用核心模块； &lt;br&gt;4.参与产品/项目业务规划，讨论并提出有建设性的意见； &lt;br&gt;&lt;br&gt;&lt;br&gt;岗位要求：&lt;br&gt;1.全日制统招本科以上学历，计算机相关专业；&lt;br&gt;2.5年以上python开发经验，能独立进行功能开发；&lt;br&gt;3.熟练掌握Python web开发框架，精通Flask、Django或者其他Python Web框架中的一种；&lt;br&gt;4.熟练掌握SQL语言，熟悉Mysql、Sqlite数据库，能设计良好的数据库结构；&lt;br&gt;5.对前端有一定的了解。&lt;br&gt;&lt;br&gt;福利待遇：&lt;br&gt;1.周末双休&lt;br&gt;2.全年14薪&lt;br&gt;3.员工体检&lt;br&gt;4.节日福利&lt;br&gt;5.季度奖金激励&lt;br&gt;6.一年四次调薪机会\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;27-40岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hangzhou-qtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080215,0000,00,9,99,%25E5%258A%259F%25E8%2583%25BD%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;功能开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080215,0000,00,9,99,python%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Python工程师</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>8千-1.5万</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>无锡·新吴区</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>无需经验</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>无锡秉杰机械有限公司</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['        职位描述&lt;br&gt;技术要求：&lt;br&gt;1. 本科计算机相关专业 2年以上软件开发经验（接受应届生）&lt;br&gt;2. 熟练掌握python 熟悉opencv numpy qt库 理解其语言特性，会c#加分&lt;br&gt;3. 熟悉常用的数据结构 有一定算法基础，lintcode上刷过题加分&lt;br&gt;&lt;br&gt;工作内容：&lt;br&gt;1．负责视觉系统的设计，开发，部署，测试和优化。&lt;br&gt;2．负责现场追踪项目进度，解决相关性技术问题&lt;br&gt;3．负责根据项目效果协调生产工艺，完成系统产品设计，开发和现场验证等工作\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuxi-xwq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070405,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>9千-1.2万</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东莞</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1-3年</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>湖南拓维云创科技有限责任公司</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['        岗位职责:（正常双休 法定节假日全休 线上电话面试）&lt;br&gt;1.负责Python软件、服务器程序、网站后台设计，相关算法研发和优化。&lt;br&gt;2.参与应用设计与方案讨论。&lt;br&gt;3.负责实现软件、应用程序代码，建立和完善开发文档。&lt;br&gt;4.协助对所开发的功能进行测试，协助产品部署。岗位要求:&lt;br&gt;1.熟练掌握Python的使用，有一定的python web开发经验，熟悉Tornado优先。&lt;br&gt;2.至少会使用一种数据库技术，如Oracle、SQL Sever、Mysql、PostgreSQL等。&lt;br&gt;3.熟悉Bootstrap、Node.js、.NET、Linux Shell优先。&lt;br&gt;4.有良好的编程习惯，沟通能力强，能够独自编写技术文档。&lt;br&gt;5.具备较好的学习能力、问题分析能力，可以独立调试解决问题。&lt;br&gt;6.良好的沟通协调能力和团队合作意识，工作踏实，态度积极，能够承受工作压力。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;23-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E8%25B0%2583%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;调试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,shell,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;shell&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,.net,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;.net&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术文档&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,postgresql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;postgresql&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Python工程师</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>9千-1.3万</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东莞·凤岗镇</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1年及以上</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>东莞宇宙电路板设备有限公司</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['        工作内容： 主要工作方向为AI大语言模型开发 &lt;br&gt;1：根据业界开源的大语言模型为基础，开发自有系统，Lora微调，全量微调，增量微调等工作&lt;br&gt;2*，研究业内AI发展大方向，应用落地。 &lt;br&gt;要求： &lt;br&gt;1：熟悉Python等后端开发语言，熟悉python下的推理学习框架&lt;br&gt;2：熟悉大语言模型，有过实际的应用开发经验。&lt;br&gt;3：熟悉关系型，非关系型数据库中的任意一种。&lt;br&gt;4：要求有一年以上实际开发工作经验。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan-fgz/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%2590%258E%25E7%25AB%25AF%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后端开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%25BA%2594%25E7%2594%25A8%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;应用开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%2585%25B3%25E7%25B3%25BB%25E5%259E%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;关系型&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Python后端开发工程师</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1.2-2.5万·15薪</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3年及以上</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>浪潮通软公司</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['        岗位职责：&lt;br&gt;负责人力资源SaaS平台功能模块开发，保证系统高可用。&lt;br&gt;&lt;br&gt;技能要求：&lt;br&gt;1.熟练使用python，至少熟悉tornado、Django、flask中一种，构建过nginx + uWSGI + python的web-services者优先；&lt;br&gt;2.熟悉Linux/Unix平台，能熟练使用python, shell 等脚本语言进行系统日志分析；&lt;br&gt;3.熟悉mysql，熟练使用redis、MQ、celery等常用第三方组件；&lt;br&gt;4.具备良好的阅读文档能力，学习能力和表达能力；&lt;br&gt;&lt;br&gt;加分项:&lt;br&gt;1.有个人技术博客，地址请附上 ；&lt;br&gt;2.参与开源项目，如有地址请贴出 ；&lt;br&gt;3.对web前端有一定了解；&lt;br&gt;4.熟练使用git ；&lt;br&gt;5.编程，算法大赛获奖 ；&lt;br&gt;6.对前沿技术有一定的了解，能独立完成新技术的预研，如openstack，容器，数据分析；&lt;br&gt;7.熟悉分布式系统，对网络和高并发编程有丰富的经验。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,Nginx,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Nginx&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,Tornado,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Tornado&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Python开发工程师-福州</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>8千-1.5万·13薪</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>福州·鼓楼区</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3年及以上</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>中电福富信息科技有限公司</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['        工作概述：&lt;br&gt;1.负责AI能力模型的服务化封装；&lt;br&gt;2.独立承担项目需求分析，完成模块设计、编码、调试以及单元测试工作，确保软件质量与性能达到预期标准；&lt;br&gt;3.编写技术文档和维护代码库，确保代码的可读性和可维护性；&lt;br&gt;4.参与LLM的数据清洗，数据优化工作；&lt;br&gt;5.参与NLP相关的算法设计、模型训练、模型调优、模型部署等；&lt;br&gt;6.参与基础NLP能力建设，如长/短文本分类、Embedding等相关技术；&lt;br&gt;7.具备良好的团队协作精神，能够与团队成员共同解决技术难题，推动项目的顺利进行。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.计算机相关专业本科及以上学历，3年以上相关工作经验；精通Python服务端开发熟练掌握numpy、pandas等数据处理框架；&lt;br&gt;2.熟悉web开发框架（fastapi/flask/django），熟悉Linux操作系统及shell编程；&lt;br&gt;3.熟悉mysql，redis，oracle等常用数据库，具有数据库开发和设计能力；&lt;br&gt;4.熟悉Docker等容器类中间件，熟悉基于docker开发部署服务的流程;&lt;br&gt;5.熟悉Linux系统，能够离线解决Linux中开发环境问题；&lt;br&gt;6.有NLP相关AI落地项目经验者优先；&lt;br&gt;7.有NLP大模型训练经验者优先，如BERT、 GPT等LLM等相关经验优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/fuzhou-glq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110200,110201,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110200,110201,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110200,110201,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110200,110201,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110200,110201,0000,00,9,99,%25E6%259C%2589%25E5%2589%258D%25E7%25AB%25AF%25E7%25BB%258F%25E9%25AA%258C%252F%25E6%258A%2580%25E8%2583%25BD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;有前端经验/技能&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110200,110201,0000,00,9,99,Linux%25E5%25BC%2580%25E5%258F%2591%252F%25E9%2583%25A8%25E7%25BD%25B2%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Linux开发/部署经验&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Python后端工程师</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1.7-2.5万·14薪</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>杭州·钱塘区</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5-7年</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>杭州研一智控科技有限公司</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['        岗位职责：&lt;br&gt;1.负责已有产品或者项目的优化、升级维护等工作； &lt;br&gt;2.负责新项目子系统/功能模块的设计、编码、单元测试和集成部署以及技术文档编写等相关工作； &lt;br&gt;3.参与核心功能的架构与代码模板编写，开发与维护系统公用核心模块； &lt;br&gt;4.参与产品/项目业务规划，讨论并提出有建设性的意见； &lt;br&gt;&lt;br&gt;&lt;br&gt;岗位要求：&lt;br&gt;1.全日制统招本科以上学历，计算机相关专业；&lt;br&gt;2.5年以上python开发经验，能独立进行功能开发；&lt;br&gt;3.熟练掌握Python web开发框架，精通Flask、Django或者其他Python Web框架中的一种；&lt;br&gt;4.熟练掌握SQL语言，熟悉Mysql、Sqlite数据库，能设计良好的数据库结构；&lt;br&gt;5.对前端有一定的了解。&lt;br&gt;&lt;br&gt;福利待遇：&lt;br&gt;1.周末双休&lt;br&gt;2.全年14薪&lt;br&gt;3.员工体检&lt;br&gt;4.节日福利&lt;br&gt;5.季度奖金激励&lt;br&gt;6.一年四次调薪机会\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;27-40岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hangzhou-qtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080215,0000,00,9,99,%25E5%258A%259F%25E8%2583%25BD%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;功能开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080215,0000,00,9,99,python%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Python运维开发工程师</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>8千-1.5万</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>深圳·福田区</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3年及以上</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>深圳市睿服科技有限公司</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['        1、熟悉linux和windos操作系统的常用命令，具备问题排查经验者优先；&lt;br&gt;&lt;br&gt;2、具备一定的shell或者python或者java 前端开发能力，具备项目经验的优先；&lt;br&gt;&lt;br&gt;3、了解常用中间件（nginx、tomcat、kafka、redis等）用途并了解常用运维操作命令；&lt;br&gt;&lt;br&gt;4、工作认真负责、严谨， 态度积极主动，能承担一定工作压力，有良好的团队合作精神，善沟通；&lt;br&gt;&lt;br&gt;5、具有较强逻辑分析、总结能力\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/yunweikaifa/"&gt;运维开发&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,shell,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;shell&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;文档&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>Python开发工程师</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1-1.5万</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>珠海·珠海高新区</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>3年及以上</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>本科</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>https://jobs.51job.com/all/coAWFRNAdsVmtUNlMyVDM.html</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>珠海天海风云科技有限公司</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        任职要求：&lt;br&gt;     1、计算机相关专业，本科及以上学历，3年以上后台开发工作经验；&lt;br&gt;     2、精通Python语言，有Flask或Django框架的实际项目经验；&lt;br&gt;     3、熟悉主流SQL数据库（MySQL, MSSQL, Oracle等），熟悉SQL数据模型设计、编写、调优，熟悉主流NoSQL数据库（Redis, MongoDB等），熟悉缓存与消息队列的工作模式及常用组件；会openwrt。&lt;br&gt;     4、熟悉网络编程，掌握TCP、UDP和HTTP等通讯协议；&lt;br&gt;     5、熟悉Docker容器，了解Kubernetes相关知识，熟悉常用的设计模式；            &lt;br&gt;     6、了解常用前后端框架技术，具备前后端分离项目经验；&lt;br&gt;     7、具备较强的信息获取能力及学习能力，擅长理性思维，善于接纳新鲜事物与多方观点，擅长了解及尝试前沿技术；&lt;br&gt;     8、有大型分布式架构经验者优先，有独立做过项目技术选型或独立完成一个项目的核心功能的开发者优先。&lt;br&gt;&lt;br&gt;岗位职责：&lt;br&gt;     1. 负责SDN网络管理系统后台技术组件的规划和研发设计；&lt;br&gt;     2. 负责前后台系统代码设计与开发，使用敏捷产品开发流程来确保功能按时交付；&lt;br&gt;     3. 深入理解业务需求，负责架构设计，使用适当创新技术手段促进业务的快速交付。&lt;br&gt;&lt;br&gt;公司福利：&lt;br&gt;地址：7号线和9号线交界的红岭北地铁站50米；&lt;br&gt;工作时间：周末双休，上午：9:00-18:00，5天7.5小时工作制；&lt;br&gt;带薪年假、带薪病假，享受国家规定的法定假和福利假等；&lt;br&gt;下午茶水果经费充足、经常聚餐、生日会，节日福利、绩效奖金、年底双薪等；&lt;br&gt;工作氛围友好，交流通畅和谐，提供行业内具有竞争力的薪酬；&lt;br&gt;内部培训，公司提供通用和专业入职培训及后续各种提升培训，提升自身专业能力；&lt;br&gt;外部培训，公司聘请外部专业培训机构匹配员工需求开展多样性外部培训，提升自身专业能力。
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E5%2589%258D%25E7%25AB%25AF,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;前端&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E5%2590%258E%25E7%25AB%25AF,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后端&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        1、负责用python语言实现系统的后端研发；&lt;br&gt;2、根据项目需求，完成功能模块设计和代码实现工作；&lt;br&gt;3、完成上级领导交办的其它任务。&lt;br&gt;任职要求：&lt;br&gt;1、本科学历；计算机、软件等相关专业，精通Python语言开发，2年以上Python开发经验；&lt;br&gt;2、熟练掌握Linux基础知识及常用操作命令；熟悉常用关系数据库和非关系型数据库；&lt;br&gt;3、熟悉Langchain优先;&lt;br&gt;4、聪明、灵活、自律、上进、务实、有较强的逻辑分析能力
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-gxq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        ★★欢迎对人工智能领域感兴趣的应聘者加入，内部提供类ChatGPT/AI人工智能小助理等多款工具，协助团队提升工作效率并发掘新的业务增长点★★&lt;br&gt;&lt;br&gt;【我们需要这样的你】&lt;br&gt;1）心态积极阔达、坦诚自信、乐观进取；（当看到半杯水的时候会觉得自己拥有了半杯水，而不是只有这半杯水，更多关注杯子的外侧，通过了解未知的未知保持空杯心态）&lt;br&gt;2）善于思考与创新，愿意持续学习新知识，内驱力强，喜欢“跳出已有框架”思考问题，不为自己设限&lt;br&gt;&lt;br&gt;【目前岗位工作内容比重】&lt;br&gt;★专业技能工作（开发创作、优化升级）：10%&lt;br&gt;★事务性工作（系统维护、资料处理、会务参与、技术服务、业务沟通）：90%&lt;br&gt;&lt;br&gt;【工作职责】&lt;br&gt;1、参与软件开发项目，负责Python相关项目需求的代码设计、编写、测试和维护。&lt;br&gt;2、能够遵守公司制定的开发流程和规范根据需求进行相应的开发工作，学习和掌握公司的技术框架和工具，保证项目质量和进度。&lt;br&gt;3、与团队成员协作，解决项目中出现的问题。&lt;br&gt;4、积极学习新技术，提高自身技能水平。&lt;br&gt;&lt;br&gt;【任职条件】&lt;br&gt;1、熟悉Python语言，熟悉常用的Python框架（如Django、Flask等）。&lt;br&gt;2、具备良好的逻辑思维能力和代码编写能力。&lt;br&gt;3、具备良好的团队合作精神和沟通能力。 &lt;br&gt;4、熟悉Gitflow、GitHub flow、CICD等。&lt;br&gt;5、熟悉数据库基础知识，如My SQL等者优先考虑。&lt;br&gt;6、有相关实习或工作经验者优先考虑。&lt;br&gt;&lt;br&gt;【具体上班时间】&lt;br&gt;星期一&amp;amp;六 08:00-15:30（含早餐与午餐时间1.5小时）&lt;br&gt;星期二至五 08:00-17:30（含早餐与午餐时间1.5小时）&lt;br&gt;&lt;br&gt;【薪金待遇】&lt;br&gt;考核期两个月：5388-10388元/月（包含：日勤奖、交通补贴、话费补贴、就餐补贴等，合计超过858元）。&lt;br&gt;★考核期后按照部门薪酬制度执行。&lt;br&gt;&lt;br&gt;【在职培训】&lt;br&gt;1、入职初期，公司会安排相关导师指导新人，帮助新人尽快融入公司和熟悉工作内容。&lt;br&gt;2、公司将定期为在职同事提供职业发展培训，帮助在职同事寻找未来职业方向，实现发展目标。&lt;br&gt;&lt;br&gt;【晋升方向】&lt;br&gt;人性化的发展道路：可根据自身岗位发展目标和方向需求，选择不同路线晋升：&lt;br&gt;★团队发展方向：M1----M2----M3----M4----M5----M6----M7----M8&lt;br&gt;★个人发展方向：P1----P2----P3----P4----P5----P6----P7----P8----P9&lt;br&gt;&lt;br&gt;【办公地点】&lt;br&gt;★应聘时可沟通选择意向办公点：&lt;br&gt;1、中山市西区街道金港路48号美林假日翰林苑4期164-167卡&lt;br&gt;2、中山市港口镇港口银库路8号裕港豪庭二期52卡&lt;br&gt;3、中山市火炬开发区伟盛路12号幸福旭日家园1栋6卡&lt;br&gt;4、中山市东区街道兴政路1号中环广场1栋5楼&lt;br&gt;&lt;br&gt;如果你积极上进，不甘平凡，渴望过上快乐工作、快乐生活的日子，赶快加入华定吧！我们为你提供丰厚的收入以及良好的晋升平台。
-                &lt;div class="mt10"&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;20-35岁&lt;/span&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhongshan-dq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E7%25BC%2596%25E5%2586%2599,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码编写&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25A8%258B%25E5%25BA%258F%25E5%2591%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;程序员&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;管培生&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术管培生&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        python开发工程师&lt;br&gt;1、理解软件工程基本概念，能够利用常用设计模式完成系统中子系统或者模块的设计；&lt;br&gt;2、有数据通信网络知识基础，熟悉cisco 或ZTE、华为网络设备，有一定的现网维护经验最优。&lt;br&gt;3、熟悉python 或ruby 等语言
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanjing-yhtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070210,0000,00,9,99,ruby,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ruby&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070210,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%2580%259A%25E4%25BF%25A1%25E7%25BD%2591%25E7%25BB%259C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据通信网络&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070210,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        .负责数据模型测试，包括确定测试范围、制定测试方案、优化测试过程、提高测工作职责:&lt;br&gt;2-运用数据挖掘/统计学习的理论和方法，深入挖掘和分析海量用户行为&lt;br&gt;3-根据项目需求，分析数据，建立适应的模型并解决业务需求，并规划和设计出对应的数据专题应用，以提升数据价值。&lt;br&gt;职位要求 ：&lt;br&gt;1、接受转行，应届优先，有志于IT、金融行业长远发展（金融、经济学专业可放宽至大专）；或对金融、IT行业有强烈意愿者。&lt;br&gt;2、要求大专以上学历，应届优先；&lt;br&gt;3、年龄20-29周岁；&lt;br&gt;4、计算机、软件、数学、统计学、经济、财务专业优先；&lt;br&gt;5、熟练使用ORACLE/DB2数据库优.
-                &lt;div class="mt10"&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;18-26岁&lt;/span&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-hdq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        岗位职责：&lt;br&gt;1. 负责为4-12岁学龄后儿童提供scratch、Python、C++等编程语言的教学工作，包括课程设计、教材编写、授课等工作；&lt;br&gt;2.经过培训具备编程能力，沟通表达逻辑性强。&lt;br&gt;3.与家长沟通，帮助家长及时了解儿童成长动向。&lt;br&gt;4.学员服务，提升家长满意度。&lt;br&gt;5.严格完成校区规定的到课率、推荐率与续费率指标。&lt;br&gt;6.授课能力过硬，具备与儿童沟通的能力与课堂表现力。&lt;br&gt;7.有教师证、编程经验者优先考虑。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1. 具有本科及以上学历，计算机相关专业优先考虑；&lt;br&gt;2. 熟练掌握scratch、Python编程语言，具有扎实的编程基础；&lt;br&gt;3. 具备良好的教学能力和沟通能力，能够有效地传授知识；&lt;br&gt;4. 具有较强的团队合作精神和责任心；&lt;br&gt;5. 具有相关教学经验者优先考虑。&lt;br&gt;&lt;br&gt;公司福利：&lt;br&gt;1. 完善的社会保险（六险一金）；&lt;br&gt;2.优秀员工子女享受教育课程优惠；&lt;br&gt;3. 带薪年假，节日福利；&lt;br&gt;4. 超童趣的办公环境；&lt;br&gt;5. 让你永葆青春的一颗童心。
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanchang-hgtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,C%252B%252B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C++&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,scratch,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;scratch&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        1.本科及以上，计算机科学与技术，软件工程等相关专业，1年以上工作经验&lt;br&gt;2.熟悉python，并使用django，flask等主流框架开发项目&lt;br&gt;3.了解linux操作系统，熟练使用linux基本方法和常用命令，有一定的shell脚本开发能力&lt;br&gt;4.有持续继承(CI)相关开发、部署或维护经验，熟悉CI相关流程，有docker服务器部署和维护经验&lt;br&gt;5.了解至少一种数据库管理系统，如果MySQL，redis等，有数据库模型开发和设计经验
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25B7%25A5%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件工程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,ci,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ci&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1.2-1.4万</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>成都·成华区</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>上海飞络信息科技有限公司</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ★★欢迎对人工智能领域感兴趣的应聘者加入，内部提供类ChatGPT/AI人工智能小助理等多款工具，协助团队提升工作效率并发掘新的业务增长点★★&lt;br&gt;&lt;br&gt;【我们需要这样的你】&lt;br&gt;1）心态积极阔达、坦诚自信、乐观进取；（当看到半杯水的时候会觉得自己拥有了半杯水，而不是只有这半杯水，更多关注杯子的外侧，通过了解未知的未知保持空杯心态）&lt;br&gt;2）善于思考与创新，愿意持续学习新知识，内驱力强，喜欢“跳出已有框架”思考问题，不为自己设限&lt;br&gt;&lt;br&gt;【目前岗位工作内容比重】&lt;br&gt;★专业技能工作（开发创作、优化升级）：10%&lt;br&gt;★事务性工作（系统维护、资料处理、会务参与、技术服务、业务沟通）：90%&lt;br&gt;&lt;br&gt;【工作职责】&lt;br&gt;1、参与软件开发项目，负责Python相关项目需求的代码设计、编写、测试和维护。&lt;br&gt;2、能够遵守公司制定的开发流程和规范根据需求进行相应的开发工作，学习和掌握公司的技术框架和工具，保证项目质量和进度。&lt;br&gt;3、与团队成员协作，解决项目中出现的问题。&lt;br&gt;4、积极学习新技术，提高自身技能水平。&lt;br&gt;&lt;br&gt;【任职条件】&lt;br&gt;1、熟悉Python语言，熟悉常用的Python框架（如Django、Flask等）。&lt;br&gt;2、具备良好的逻辑思维能力和代码编写能力。&lt;br&gt;3、具备良好的团队合作精神和沟通能力。&lt;br&gt;4、熟悉Gitflow、GitHub flow、CICD等。&lt;br&gt;5、熟悉数据库基础知识，如My SQL等者优先考虑。&lt;br&gt;6、有相关实习或工作经验者优先考虑。&lt;br&gt;&lt;br&gt;【具体上班时间】&lt;br&gt;星期一&amp;amp;六 08:00-15:30（含早餐与午餐时间1.5小时）&lt;br&gt;星期二至五 08:00-17:30（含早餐与午餐时间1.5小时）&lt;br&gt;&lt;br&gt;【薪金待遇】&lt;br&gt;考核期两个月：5388-10388元/月（包含：日勤奖、交通补贴、话费补贴、就餐补贴等，合计超过858元）。&lt;br&gt;★考核期后按照部门薪酬制度执行。&lt;br&gt;&lt;br&gt;【在职培训】&lt;br&gt;1、入职初期，公司会安排相关导师指导新人，帮助新人尽快融入公司和熟悉工作内容。&lt;br&gt;2、公司将定期为在职同事提供职业发展培训，帮助在职同事寻找未来职业方向，实现发展目标。&lt;br&gt;&lt;br&gt;【晋升方向】&lt;br&gt;人性化的发展道路：可根据自身岗位发展目标和方向需求，选择不同路线晋升：&lt;br&gt;★团队发展方向：M1----M2----M3----M4----M5----M6----M7----M8&lt;br&gt;★个人发展方向：P1----P2----P3----P4----P5----P6----P7----P8----P9&lt;br&gt;&lt;br&gt;【办公地点】&lt;br&gt;★应聘时可沟通选择意向办公点：&lt;br&gt;1、中山市西区街道金港路48号美林假日翰林苑4期164-167卡&lt;br&gt;2、中山市港口镇港口银库路8号裕港豪庭二期52卡&lt;br&gt;3、中山市火炬开发区伟盛路12号幸福旭日家园1栋6卡&lt;br&gt;4、中山市东区街道兴政路1号中环广场1栋5楼&lt;br&gt;&lt;br&gt;如果你积极上进，不甘平凡，渴望过上快乐工作、快乐生活的日子，赶快加入华定吧！我们为你提供丰厚的收入以及良好的晋升平台。
-                &lt;div class="mt10"&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;20-35岁&lt;/span&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhongshan-dq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E7%25BC%2596%25E5%2586%2599,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码编写&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25A8%258B%25E5%25BA%258F%25E5%2591%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;程序员&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;管培生&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术管培生&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
+          <t>['        任职要求：&lt;br&gt;1. 有Python语言相关开发经验&lt;br&gt;2. 有Go语言相关开发经验&lt;br&gt;3. 熟练掌握Python，熟练掌握django/fastapi框架，关系型数据库(mysql)；&lt;br&gt;4. 了解和使用过AI相关产品，对AI技术的研究有一定深度，同时具有AI应用或AI Agent相关开发经验；&lt;br&gt;5. 熟悉Nginx，生产环境部署优化；&lt;br&gt;6. 熟悉常用数据结构，设计模式，良好编码风格；&lt;br&gt;7. 熟悉Redis，Linux；&lt;br&gt;&lt;br&gt;岗位职责：&lt;br&gt;1.基于Go语言和Python语言，对已有产品进行迭代开发&lt;br&gt;2.基于AI大模型，针对产品进行AI应用或AI Agent的开发&lt;br&gt;3.配合云团队对产品进行部署&lt;br&gt;4.提供与开发团队相关的技术支持&lt;br&gt;&lt;br&gt;我们的期望：&lt;br&gt;1. 具有Python和Go的开发经验，代码的编码风格良好；&lt;br&gt;2. 对AI技术具有浓厚兴趣，并致力于将AI技术应用于产品中；&lt;br&gt;3. 具有良好的技术研究和探索能力；&lt;br&gt;4. 具有良好的语言沟通能力&lt;br&gt;&lt;br&gt;教育背景：&lt;br&gt;计算机科学或相关领域本科及以上学位&lt;br&gt;&lt;br&gt;工作经验：&lt;br&gt;3年-5年开发工作经验（至少3年以上）&lt;br&gt;&lt;br&gt;其他技能：&lt;br&gt;1.对前端框架和工具（如Bootstrap，JQuery，Vue）有一定了解；&lt;br&gt;2.熟悉使用GitHub, Bitbucket等代码仓库和版本控制系统；&lt;br&gt;3.了解性能测试和优化方法。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-chq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090205,0000,00,9,99,PyTorch,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PyTorch&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090205,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090205,0000,00,9,99,Golang,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Golang&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090205,0000,00,9,99,%25E6%259C%2589%25E5%2589%258D%25E7%25AB%25AF%25E7%25BB%258F%25E9%25AA%258C%252F%25E6%258A%2580%25E8%2583%25BD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;有前端经验/技能&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090205,0000,00,9,99,%25E6%259C%25BA%25E5%2599%25A8%25E5%25AD%25A6%25E4%25B9%25A0%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;机器学习经验&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>高级Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1.5-2.2万</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6年及以上</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>上海西信信息科技股份有限公司</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">        职位要求：&lt;br&gt;1、2年以上Python开发经验，具有扎实的Python编程基础。&lt;br&gt;2、熟练掌握至少一门Python Web开发框架（Flask或者Fastapi或者Django）。&lt;br&gt;3、熟练使用Redis、Mongodb、Oracle、Postgresql 等数据库，能熟练进行数据库设计与优化，和数据库操作技术sqlalchemy。&lt;br&gt;4、熟练Linux平台环境，掌握常见的命令和脚本，并能够在生产环境中部署应用程序。&lt;br&gt;5、熟悉Numpy、Pandas、Dask等数据分析优先。&lt;br&gt;6、熟悉前端技术，如HTML、CSS、JavaScript等；&lt;br&gt;7、具有良好的文档编写能力、沟通表达能力和团队合作精神。&lt;br&gt;8、熟悉敏捷开发模式，具备良好的代码习惯、代码管理和协作能力。&lt;br&gt;9、具备良好的沟通能力和团队合作精神，工作态度积极，有耐心，有责任心。&lt;br&gt;10、有良好的学习和创新能力，能够快速适应新的技术和项目
-                &lt;div class="mt10"&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;22-30岁&lt;/span&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhuzhou-tyq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,MongoDB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MongoDB&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
+          <t>['        6年以上工作经验&lt;br&gt;要求具备良好的Python知识，***使用Java/Go等其他编程语言&lt;br&gt;熟悉流行的后端框架，如Django&lt;br&gt;熟悉SQL和NoSQL数据库&lt;br&gt;使用Azure、AWS、GCP等公共云平台的经验&lt;br&gt;有公共云定价模型知识者优先&lt;br&gt;熟悉Redis和消息队列技术&lt;br&gt;具备GenAI和数据分析知识者优先&lt;br&gt;有SAP BTP或其他PaaS云原生开发经验者优先\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>6千-1.2万·13薪</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>无需经验</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>沈阳颁德优化科技有限公司</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">        职位描述&lt;br&gt;技术要求：&lt;br&gt;1. 本科计算机相关专业 2年以上软件开发经验（接受应届生）&lt;br&gt;2. 熟练掌握python 熟悉opencv numpy qt库 理解其语言特性，会c#加分&lt;br&gt;3. 熟悉常用的数据结构 有一定算法基础，lintcode上刷过题加分&lt;br&gt;&lt;br&gt;工作内容：&lt;br&gt;1．负责视觉系统的设计，开发，部署，测试和优化。&lt;br&gt;2．负责现场追踪项目进度，解决相关性技术问题&lt;br&gt;3．负责根据项目效果协调生产工艺，完成系统产品设计，开发和现场验证等工作
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuxi-xwq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070405,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
+          <t>['        颁德优化科技Benders Optimal Technology 于2020年底开始运作，近三年以来，公司业务不断扩展，现需要招聘程序员一名，要求如下：&lt;br&gt;1. 计算机软件本科或硕士毕业，本科要求4年计算机专业或紧密相关专业。&lt;br&gt;2. 熟练基本数据结构和常用算法，理解基本设计模式&lt;br&gt;3. 熟练Python及Pandas, Numpy等常用库。&lt;br&gt;4. 熟练Pycharm, Git, Excel等常用工具&lt;br&gt;5. 熟练数据库操作SQL语言，PostgreSQL等数据库。&lt;br&gt;6. 了解前端Flutter。&lt;br&gt;7. 了解Java语言及spring framework, spring boot. AWS cloud, docker, Redis等工具。&lt;br&gt;8. 英语阅读能力强，至少英语四级；学习新技术能力强。&lt;br&gt;9. 喜欢会计知识，愿意理解个人税表，财务报表等优先。&lt;br&gt;&lt;br&gt;本公司软件产品主要面向美国市场及客户，需要能够准确理解英文文档，英语水平一般者恐难以胜任。本公司目前是远程工作模式，只要按时提交代码即可，不必到办公室上班。未来会根据员工意愿及地理分布，在国内设立办公室。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/all/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;算法&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD%25E9%2598%2585%25E8%25AF%25BB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语阅读&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Python软件开发工程师</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>12-20万/年</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>成都·简阳市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2年及以上</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>成都民航空管科技发展有限公司</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">        职位描述：&lt;br&gt;1、负责前后台系统代码设计与开发,使用敏捷产品开发流程来确保功能按时交付;&lt;br&gt;2、业务系统的优化改正、按计划完成任务、确保系统稳定可靠运行.&lt;br&gt;&lt;br&gt;职位要求：&lt;br&gt;1、计算机相关专业,大专及以上学历,3年以上后台开发工作经验;&lt;br&gt;2、精通Python语言,有Flask或Django框架的实际项目经验;&lt;br&gt;3、熟悉主流SQL数据库（MySQL, MSSQL, Oracle等）,熟悉SQL数据模型设计、编写、调优;&lt;br&gt;4、熟悉网络编程,掌握TCP、UDP和HTTP等通讯协议;&lt;br&gt;5、熟悉Docker容器,了解Kubernetes相关知识，熟悉常用的设计模式;&lt;br&gt;6、了解Linux,并能使用日常的命令；有Linux项目开发优先;&lt;br&gt;7、了解常用前后端框架技术,具备前后端分离项目经验;&lt;br&gt;8、具备较强的信息获取能力及学习能力,擅长理性思维,善于接纳新鲜事物与多方观点,擅长了解及尝试前沿技术;&lt;br&gt;9、有大型分布式架构经验者优先,有独立做过项目技术选型或独立完成一个项目的核心功能的开发者优先.
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E8%25AE%25BE%25E8%25AE%25A1%25E6%25A8%25A1%25E5%25BC%258F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;设计模式&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E9%2580%2589%25E5%259E%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术选型&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E5%2590%258E%25E5%258F%25B0%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后台开发&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
+          <t>['        任职要求：&lt;br&gt;1. 计算机/信息科学相关专业，精通python后端开发，具备2年以上python开发经验，熟悉C/C++语言者优先；&lt;br&gt;2. 了解计算机视觉相关算法者优先；&lt;br&gt;3. 具备良好的代码编程习惯，对工作认真负责，有良好的学习能力、沟通能力和团队合作能力；&lt;br&gt;&lt;br&gt;职责描述：&lt;br&gt;根据项目要求，承担软件模块研发等工作。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-jys/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090221,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090221,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090221,0000,00,9,99,C%252B%252B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C++&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1-2万·15薪</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2年</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>上海念空数据科技中心（有限合伙）</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">        颁德优化科技Benders Optimal Technology 于2020年底开始运作，近三年以来，公司业务不断扩展，现需要招聘程序员一名，要求如下：&lt;br&gt;1. 计算机软件本科或硕士毕业，本科要求4年计算机专业或紧密相关专业。&lt;br&gt;2. 熟练基本数据结构和常用算法，理解基本设计模式&lt;br&gt;3. 熟练Python及Pandas, Numpy等常用库。&lt;br&gt;4. 熟练Pycharm, Git, Excel等常用工具&lt;br&gt;5. 熟练数据库操作SQL语言，PostgreSQL等数据库。&lt;br&gt;6. 了解前端Flutter。&lt;br&gt;7. 了解Java语言及spring framework, spring boot. AWS cloud, docker, Redis等工具。&lt;br&gt;8. 英语阅读能力强，至少英语四级；学习新技术能力强。&lt;br&gt;9. 喜欢会计知识，愿意理解个人税表，财务报表等优先。&lt;br&gt;&lt;br&gt;本公司软件产品主要面向美国市场及客户，需要能够准确理解英文文档，英语水平一般者恐难以胜任。本公司目前是远程工作模式，只要按时提交代码即可，不必到办公室上班。未来会根据员工意愿及地理分布，在国内设立办公室。
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/all/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;算法&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD%25E9%2598%2585%25E8%25AF%25BB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语阅读&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
+          <t>['        岗位职责：&lt;br&gt;1、优化现有量化研究平台；&lt;br&gt;2、优化现有python实盘处理程序；&lt;br&gt;3、开发统计量化数据指标；&lt;br&gt;4、帮助研究员提升python数据处理效率。&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、熟练的python开发能力， 熟悉基于python的数据处理框架， numpy和pandas；&lt;br&gt;2、熟悉socket编程；&lt;br&gt;3、熟悉多线程、多进程的开发；&lt;br&gt;4、有基金、券商相关工作经验优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25B7%25A5%25E7%25A8%258B%25E5%25B8%2588,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Python工程师</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1-1.5万·14薪</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西安·高新技术产业开发区</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3-4年</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>西安鹰之航航空科技股份有限公司</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">        Python爬虫工程师&lt;br&gt;&lt;br&gt;岗位职责：&lt;br&gt;1、负责公司日常数据采集任务开发，解析，清洗，存储工作&lt;br&gt;2、不断完善和重构现有的数据采集集群，通过对抓取，解析，调度，存储模块拆分和优化，逐步完善统一的数据采集服务平台&lt;br&gt;3、必须熟悉一套爬虫框架；例如Scrapy，Feapder框架等&lt;br&gt;&lt;br&gt;任职资格：&lt;br&gt;1、计算机相关专业本科及以上学历，2年以上工作经验&lt;br&gt;2、熟练掌握Python语言，对数据敏感，具有良好的逻辑分析能力&lt;br&gt;3、熟悉Cookie登录原理，熟练掌握xpath，CSS，正则等常用的信息抽取技术&lt;br&gt;4、熟练掌握SQL语言，熟悉主流数据库开发，有使用MySQL,ElasticSearch,Redis经验&lt;br&gt;5、学习能力强，能够独立解决问题，并且善于总结分享&lt;br&gt;6、拥有良好的团队合作及沟通能力&lt;br&gt;7、有一定的JS逆向能力，APP数据采集能力（加分项）&lt;br&gt;8、有淘宝，京东，抖音相关数据平台工作经验
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-cnq/pachonggongchengshi/"&gt;爬虫工程师&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB%25E6%25A1%2586%25E6%259E%25B6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫框架&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%2587%2587%25E9%259B%2586,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据采集&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
+          <t>['        岗位职责：&lt;br&gt;1、根据需求完成航空设备项目的开发；&lt;br&gt;2、完成航空设备软件模块的设计实现以及文档编写工作。&lt;br&gt;任职要求：&lt;br&gt;1.具有2年以上开发工作经验，熟悉Python，有较好的Pytest、PyQT基础；&lt;br&gt;2.具有军工领域航空设备项目经验优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/xian-gxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/200200,200214,0000,00,9,99,pytest,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pytest&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/200200,200214,0000,00,9,99,pyqt,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pyqt&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/200200,200214,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1.2-2万</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2年及以上</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>郑州辰而将行软件科技有限公司</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">        岗位描述&lt;br&gt;1、负责爬虫策略与方案制定，爬虫系统架构设计与开发；&lt;br&gt;2、负责网站、APP等大规模文本、图片数据抓取，爬虫核心算法优化，提升爬虫效率和质量；&lt;br&gt;3、专注于垂直领域数据爬取，并进行多平台信息分析，参与平台数据建设；&lt;br&gt;任职要求：&lt;br&gt;1、2年以上开发经验，计算机相关专业优先，有爬虫和反爬虫经验者优先，有大数据爬虫经验尤佳；&lt;br&gt;2、熟练掌握软件逆向静态分析、动态调试、代码跟踪等，有海外社交平台的数据采集经验优先&lt;br&gt;3、具有丰富的JS逆向经验，熟悉反混淆、JS跟踪、JS逆向、WASM还原技能，熟练使用AST还原JS、能绕过常见的JS反调试；&lt;br&gt;4、熟练掌握常用的逆向分析抓包工具，能解决封账号、封IP、验证码识别、图像识别、风控等问题；&lt;br&gt;5、熟练掌握Python, JavaScript开发语言；
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/tongling/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                            &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
+          <t>['        1、熟悉Python（涉及如下包：Flask, PyMySQL, cx-Oracle, Pandas, pyinstaller, xlwings, cryptography、RBAC）、消息队列和相关中间件；&lt;br&gt;2、熟悉数据库，如Mysql、PostgreSQL、Pi等；&lt;br&gt;3、掌握C++；&lt;br&gt;4、熟悉HTML+CSS+ TypeScript，React，Vue, Antd，Node.js，Electron，Fetch API等前端技术。&lt;br&gt;5、能够阅读英文标准文档，具有规范开发文档的编写能力。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;24-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,C%252B%252B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C++&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Mysql&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1.2-1.8万·13薪</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>上海·普陀区</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2年及以上</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>上海凯融信息科技有限公司</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">        公司专注水务、智能控制及物联网领域：&lt;br&gt;1、智慧水务。实现“水源、水厂、管网、泵房、水表”全程监控管理。&lt;br&gt;2、供水设备、自动控制柜和泵房供水工程。&lt;br&gt;3、智能电站。通过光伏+储能+智能调度，降低电费、低碳减排。&lt;br&gt;4、物联网设备。数据采集仪、PLC、水浸传感器等自带物联网功能，支持远程控制与数据传送。&lt;br&gt;&lt;br&gt;职责：&lt;br&gt;1、物联网设备端python软件开发；&lt;br&gt;2、云平台系统的前端开发。&lt;br&gt;&lt;br&gt;&lt;br&gt;职能要求：&lt;br&gt;1、年龄：22一30。学历：本科及以上，数学、物理、机械、软件工程、计算机、电子、通信、自动化等专业；&lt;br&gt;2、 掌握python语言，有ESP32开发经验优先，至少有1年的工作经验。&lt;br&gt;3、 具备网络和通信基础知识，能够排查一般的网络通信故障；&lt;br&gt;4、有较强的语言表达能力和人际关系处理能力、较好的学习能力和实践能力；有较高的诚信度和责任感，较好的团队合作精神；具备协调能力和处理解决问题的能力。&lt;br&gt;5、 具有良好的职业道德及职业操守；：&lt;br&gt;6、月薪:基本6000+绩效，周末双休，五险、节日福利、年终奖、定期体检
-                &lt;div class="mt10"&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;22-30岁&lt;/span&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuhan-dhxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
+          <t>['        岗位职责：&lt;br&gt;1.负责用python语言实现产品的后端研发；&lt;br&gt;2.python软件开发；&lt;br&gt;3.根据项目需求，完成功能模块设计和代码实现工作；&lt;br&gt;4.参与公司深度学习项目开发工作；&lt;br&gt;5.开发及维护各种Python爬虫；&lt;br&gt;6.完成上级领导交办的其它任务。&lt;br&gt;任职要求：&lt;br&gt;1.本科学历；计算机、软件等相关专业，精通Python语言开发，2年以上Python开发经验；&lt;br&gt;2.熟练掌握Linux基础知识及常用操作命令；熟悉常用关系数据库和非关系型数据库；&lt;br&gt;3.有R语言、.Net、Java经验经验的优先;&lt;br&gt;4.聪明、灵活、自律、上进、务实、有较强的逻辑分析能力。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;25-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-ptq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,%25E6%259C%25BA%25E5%2599%25A8%25E5%25AD%25A6%25E4%25B9%25A0%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;机器学习经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,Linux%25E5%25BC%2580%25E5%258F%2591%252F%25E9%2583%25A8%25E7%25BD%25B2%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Linux开发/部署经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,%25E5%2585%25B3%25E7%25B3%25BB%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;关系数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,%25E6%25B7%25B1%25E5%25BA%25A6%25E5%25AD%25A6%25E4%25B9%25A0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;深度学习&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E5%25AE%259E%25E7%258E%25B0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码实现&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,%25E5%2590%258E%25E7%25AB%25AF%25E7%25A0%2594%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后端研发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,%25E5%258A%259F%25E8%2583%25BD%25E6%25A8%25A1%25E5%259D%2597%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;功能模块设计&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Python软件开发工程师</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6千-1.1万·13薪</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>武汉·东湖新技术产业开发区</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2年及以上</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>武汉光至科技有限公司</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">        岗位职责：&lt;br&gt;1.负责视频、图片相关数据处理&lt;br&gt;2.参与AI大模型训练开发，建立垂直行业应用模型，包括但不限于Moe、LongContext、RAG、Agent等方向&lt;br&gt;3.进行大模型分布式训练、调优、验证和部署&lt;br&gt;4.持续优化提升框架的性能和易用性，关注和追踪业界最新的技术趋势和研究成果&lt;br&gt;&lt;br&gt;岗位要求：&lt;br&gt;1、本科及以上学历，计算机相关专业；四年以上Python开发经验，1年以上大模型领域相关经验；&lt;br&gt;2、精通Python语言，掌握Django、Flask等主流web框架，熟练使用Pytorch、tensorflow训练框架；&lt;br&gt;3、具有深度学习领域的研究经历，熟悉Resnet、mobilenet、Retinaface、faceNet等卷积神经网络模型的训练及优化；&lt;br&gt;4、具有NLP语言大模型相关研究经历，熟悉Transformer、GPT 、Bert 等语言处理模型；&lt;br&gt;5、熟悉docker、k8s集群管理等分布式训练和部署；&lt;br&gt;6、具有良好的团队协作能力，热爱钻研技术，善于分析解决问题。
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-luohuqu/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,%25E6%259C%25BA%25E5%2599%25A8%25E5%25AD%25A6%25E4%25B9%25A0%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;机器学习经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,%25E8%25B0%2583%25E4%25BC%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;调优&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,%25E6%25B7%25B1%25E5%25BA%25A6%25E5%25AD%25A6%25E4%25B9%25A0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;深度学习&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,tensorflow,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;tensorflow&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,transformer,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;transformer&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,agent,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;agent&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,bert,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;bert&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
+          <t>['        岗位职责：&lt;br&gt;1、负责后端应用架构的设计和规范化工作；&lt;br&gt;2、独立完成需求分析、系统软件设计、编码和测试工作；&lt;br&gt;3、负责公司产品的开发和维护更新工作，并对交付质量负责；&lt;br&gt;4、编写相关的开发文档，如设计文档，测试文档等。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、计算机及相关专业本科学历，2年以上开发经验；&lt;br&gt;2、熟悉Python常用后端框架如Django、Flask等；&lt;br&gt;3、熟悉数据库的操作及维护(MySQL、Redis等)，能熟练进行数据库设计与优化，和数据库操作技术sqlalchemy；&lt;br&gt;4、熟悉Linux 的操作；&lt;br&gt;5、良好的沟通能力，工作积极主动，责任心强，具有团队协作、独立完成工作能力；&lt;br&gt;6、会使用docker优先，了解ERP、MES系统相关开发优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuhan-dhxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,erp,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;erp&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库设计&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Python开发工程师2</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>8千-1.2万</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>武汉·江夏区</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3-5年</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>上海铂联通信技术有限公司武汉分公司</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">        【岗位职责】&lt;br&gt;1、参与系统需求分析，架构设计及原型实现；&lt;br&gt;2、负责项目业务系统相关的开发、测试工作；&lt;br&gt;3、协助项目组完成项目的交付，包括需求沟通及相关文档的编写。&lt;br&gt;【职位要求】&lt;br&gt;1、大专及以上学历，计算机或其它相关专业专科及以上学历，英语语言能力较好、2年或2年以上同技术开发工作经验；&lt;br&gt;2、具备扎实的计算机系统知识，具有 Python 开发项目经验，能够独立承担python 开发任务；&lt;br&gt;3、至少了解使用过 pyhon-opencv 、mongo 、mysql  等 python 第三方库；&lt;br&gt;4.  熟悉或了解过 python 的ansyncio 、多线程、多进程管理和使用；熟悉Linux系统和网络相关知识。&lt;br&gt;5、良好的个人品质，良好的软件开发素养及信息安全素养，有责任感，较强的沟通能力，具有团队合作精神。&lt;br&gt;6、另招本科及硕士相关专业兼职，有意投简历联系。
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/xiamen-smq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
+          <t>['        岗位职责：&lt;br&gt;对外接口模块：&lt;br&gt;    ● 负责Web模块开发与维护；&lt;br&gt;    ● 负责信息交互网关，对接公司后台、APP以及其他厂家设备接口；&lt;br&gt;    ● 提出软件接口和功能上的需求&lt;br&gt;岗位要求：&lt;br&gt;对外接口模块：&lt;br&gt;    ● 教育背景：本科及以上，通信、电子、计算机或相关专业；&lt;br&gt;    ● 精通Python编程，了解基于Python的Web实现；&lt;br&gt;    ● 熟悉网络通信协议，如UDP/TCP、FTP、MQTT等；&lt;br&gt;    ● 掌握json数据格式，进行数据交互；&lt;br&gt;    ● 工作积极主动，具备学习能力、文档习惯和团队合作精神。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;25岁以上&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuhan-jxq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,%25E7%2594%25B5%25E5%25AD%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;电子&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,%25E9%2580%259A%25E4%25BF%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;通信&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,json,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;json&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,tcp,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;tcp&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E4%25BA%25A4%25E4%25BA%2592,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据交互&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,ftp,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ftp&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,udp,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;udp&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,mqtt,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mqtt&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Python工程师</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1.5-2万</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>上海·松江区</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2年及以上</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>上海至盛信息技术股份有限公司</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">        1、熟悉linux和windos操作系统的常用命令，具备问题排查经验者优先；&lt;br&gt;&lt;br&gt;2、具备一定的shell或者python或者java 前端开发能力，具备项目经验的优先；&lt;br&gt;&lt;br&gt;3、了解常用中间件（nginx、tomcat、kafka、redis等）用途并了解常用运维操作命令；&lt;br&gt;&lt;br&gt;4、工作认真负责、严谨， 态度积极主动，能承担一定工作压力，有良好的团队合作精神，善沟通；&lt;br&gt;&lt;br&gt;5、具有较强逻辑分析、总结能力
-                &lt;div class="mt10"&gt;
-                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/yunweikaifa/"&gt;运维开发&lt;/a&gt;&lt;/p&gt;
-                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,shell,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;shell&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;文档&lt;/a&gt;&lt;/p&gt;
-                                &lt;/div&gt;
-&lt;!--        &lt;div class="share"&gt;</t>
+          <t>['        岗位职责&lt;br&gt;&lt;br&gt;&lt;br&gt;1.负责用python语言实现产品的后端研发；&lt;br&gt;2.负责高质量的设计和编码；&lt;br&gt;3.承担重难点技术攻坚任务；&lt;br&gt;4.参与产品的讨论和开发实现。&lt;br&gt;&lt;br&gt;&lt;br&gt;岗位要求&lt;br&gt;&lt;br&gt;&lt;br&gt;1.两年以上工作经验，本科以上学历，计算机或数学相关专业；&lt;br&gt;2.熟悉python后台开发，有完整的项目开发经验，熟练使用Django或flask框架；&lt;br&gt;3.熟悉linux平台，熟悉shell脚本语言，能够独立完成python项目部署、调优、运维；&lt;br&gt;4.熟悉mysql数据库和redis数据库；&lt;br&gt;5.对项目安全性问题和并发问题有一定理解和相应的解决方法。&lt;br&gt;6、有良好的编码习惯，对代码和设计质量有严格要求，重视Code Review；&lt;br&gt;7、具有良好的编程思想、沟通、团队合作精神、优秀的分析问题和解决问题的能力；具备强烈的责任心;  &lt;br&gt;8、具有odoo erp平台开发经验优先，熟悉数字孪生或物联网优先\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-sjq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021500,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021500,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021500,0000,00,9,99,%25E6%2595%25B0%25E5%25AD%2597%25E5%25AD%25AA%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数字孪生&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021500,0000,00,9,99,%25E7%2589%25A9%25E8%2581%2594%25E7%25BD%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;物联网&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Python工程师（爬虫方向）</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6千-1万</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>深圳·福田区</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1年</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>深圳市华中航空服务有限公司</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['        岗位职责： 1、负责产品数据的抓取，并动态监控网站； 2、负责数据抓取的性能优化； 3、负责数据的规范化分析和开发工作。 任职要求： 1、2年及以上数据爬虫相关工作经验优先； 2、熟悉Django、Flask、WebPy、Tornado等其中一种； 3、熟悉Mysql、Redis、Mongo等常...\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E6%258A%2593%25E5%258F%2596,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据抓取&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,mongo,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mongo&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E4%25BC%2598%25E5%258C%2596,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能优化&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,tornado,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;tornado&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Python开发工程师</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1-2万·14薪</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上海·长宁区</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2年及以上</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>上海云间世纪文化科技有限公司</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['        加入我们——一个在图书线上分销及运营业界中处于尖端领域的团队，这里你的技术才能将如同神灵般照亮我们的业务道路。我们正在寻找一位充满激情与创意的Python程序员，来助力我们的技术中枢，携手推动图书行业的线上革新。在我们这个扁平化管理的团队中，每个人都是关键的一环，我们共同努力，创造出让人兴奋的解决方案。如果你是那个渴望在和谐的团队氛围中共同成长，并以技术创新为己任的人才，欢迎你的加入！&lt;br&gt;&lt;br&gt;职位描述：&lt;br&gt;业务系统平台及其组件的设计和开发；&lt;br&gt;优化、改进业务系统；&lt;br&gt;根据业务规则与分析模型实现相关代码；&lt;br&gt;负责图书分销业务需求的技术对接。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;本科及以上学历，计算机相关专业背景优先；&lt;br&gt;两年以上Python后端开发经验，熟悉常用的Web框架（如Django、Flask等）；&lt;br&gt;熟悉数据库设计和SQL语言，有Postgresql或其他关系型数据库的实际项目经验；&lt;br&gt;熟悉Linux操作系统及常用命令，具备基本的系统管理和维护能力；&lt;br&gt;熟悉RESTful API设计和开发，了解微服务架构优先；&lt;br&gt;热爱Python，并对计算机科学有深入的理解；&lt;br&gt;能够独立地解决问题，同时在扁平化的团队结构中展现出强烈的团队合作精神；&lt;br&gt;拥抱开放文化，勇于接受前沿技术挑战，热爱快节奏、充满变化的工作氛围；&lt;br&gt;有志于在图书行业线上运营的尖端领域大放异彩。&lt;br&gt;&lt;br&gt;&lt;br&gt;我们的团队不仅是技术的中坚力量，更是行业创新的先锋。如果你热衷于技术，渴望在图书行业的数字化浪潮中扮演重要角色，就来加入我们吧！我们期待着你的才华和激情，一起书写图书行业线上发展的新篇章。请立即发送简历，和我们一起迈入这个令人兴奋的冒险旅程！\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-cnq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>

--- a/职位.xlsx
+++ b/职位.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -567,13 +567,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6千-1.2万·13薪</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>1-1.6万·13薪</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>成都·武侯区</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>3-5年</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -583,55 +587,59 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>沈阳颁德优化科技有限公司</t>
+          <t>宁波思艾特软件有限公司</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['        颁德优化科技Benders Optimal Technology 于2020年底开始运作，近三年以来，公司业务不断扩展，现需要招聘程序员一名，要求如下：&lt;br&gt;1. 计算机软件本科或硕士毕业，本科要求4年计算机专业或紧密相关专业。&lt;br&gt;2. 熟练基本数据结构和常用算法，理解基本设计模式&lt;br&gt;3. 熟练Python及Pandas, Numpy等常用库。&lt;br&gt;4. 熟练Pycharm, Git, Excel等常用工具&lt;br&gt;5. 熟练数据库操作SQL语言，PostgreSQL等数据库。&lt;br&gt;6. 了解前端Flutter。&lt;br&gt;7. 了解Java语言及spring framework, spring boot. AWS cloud, docker, Redis等工具。&lt;br&gt;8. 英语阅读能力强，至少英语四级；学习新技术能力强。&lt;br&gt;9. 喜欢会计知识，愿意理解个人税表，财务报表等优先。&lt;br&gt;&lt;br&gt;本公司软件产品主要面向美国市场及客户，需要能够准确理解英文文档，英语水平一般者恐难以胜任。本公司目前是远程工作模式，只要按时提交代码即可，不必到办公室上班。未来会根据员工意愿及地理分布，在国内设立办公室。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/all/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;算法&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD%25E9%2598%2585%25E8%25AF%25BB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语阅读&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;在Agile的开发模式下，按时完成公司大数据项目的开发、功能及性能测试&lt;br&gt;根据产品具体要求，承担开发任务，按计划完成任务目标；&lt;br&gt;参与需求提出合理的项目实施方案；&lt;br&gt;参与系统的需求分析、设计、编码等开发工作；&lt;br&gt;参与系统的运营和维护工作，保证系统稳定可靠运行；&lt;br&gt;根据公司要求编写相关技术文档；&lt;br&gt;项目过程中，和队员之间做好良好的沟通和交流，及时发现和处理问题&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.本科及以上学历，3-5年工作经验。计算机相关专业优先，熟悉常用的数据结构和算法；&lt;br&gt;2.熟练使用Spark分布式运算框架&lt;br&gt;3.了解并熟悉用PySpark处理分析数据，对Spark SQL的熟练使用&lt;br&gt;4.熟练使用Python编写数据处理脚本&lt;br&gt;5.能够对脚本进行逻辑分析和性能调优&lt;br&gt;6.熟悉Azure Databricks环境&lt;br&gt;7.良好的英语书面沟通能力\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;40岁以下&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-whq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E5%25A4%25A7%25E6%2595%25B0%25E6%258D%25AE,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;大数据&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E8%25B0%2583%25E4%25BC%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能调优&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术文档&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%25BB%2593%25E6%259E%2584%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据结构算法&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Python技术管培生</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5.3千-1万</t>
+          <t>1.5-3万</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中山·东区</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>无需经验</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>3年及以上</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>中山华定科技有限公司</t>
+          <t>浙江五京科技集团有限公司</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['        ★★欢迎对人工智能领域感兴趣的应聘者加入，内部提供类ChatGPT/AI人工智能小助理等多款工具，协助团队提升工作效率并发掘新的业务增长点★★&lt;br&gt;&lt;br&gt;【我们需要这样的你】&lt;br&gt;1）心态积极阔达、坦诚自信、乐观进取；（当看到半杯水的时候会觉得自己拥有了半杯水，而不是只有这半杯水，更多关注杯子的外侧，通过了解未知的未知保持空杯心态）&lt;br&gt;2）善于思考与创新，愿意持续学习新知识，内驱力强，喜欢“跳出已有框架”思考问题，不为自己设限&lt;br&gt;&lt;br&gt;【目前岗位工作内容比重】&lt;br&gt;★专业技能工作（开发创作、优化升级）：10%&lt;br&gt;★事务性工作（系统维护、资料处理、会务参与、技术服务、业务沟通）：90%&lt;br&gt;&lt;br&gt;【工作职责】&lt;br&gt;1、参与软件开发项目，负责Python相关项目需求的代码设计、编写、测试和维护。&lt;br&gt;2、能够遵守公司制定的开发流程和规范根据需求进行相应的开发工作，学习和掌握公司的技术框架和工具，保证项目质量和进度。&lt;br&gt;3、与团队成员协作，解决项目中出现的问题。&lt;br&gt;4、积极学习新技术，提高自身技能水平。&lt;br&gt;&lt;br&gt;【任职条件】&lt;br&gt;1、熟悉Python语言，熟悉常用的Python框架（如Django、Flask等）。&lt;br&gt;2、具备良好的逻辑思维能力和代码编写能力。&lt;br&gt;3、具备良好的团队合作精神和沟通能力。&lt;br&gt;4、熟悉Gitflow、GitHub flow、CICD等。&lt;br&gt;5、熟悉数据库基础知识，如My SQL等者优先考虑。&lt;br&gt;6、有相关实习或工作经验者优先考虑。&lt;br&gt;&lt;br&gt;【具体上班时间】&lt;br&gt;星期一&amp;amp;六 08:00-15:30（含早餐与午餐时间1.5小时）&lt;br&gt;星期二至五 08:00-17:30（含早餐与午餐时间1.5小时）&lt;br&gt;&lt;br&gt;【薪金待遇】&lt;br&gt;考核期两个月：5388-10388元/月（包含：日勤奖、交通补贴、话费补贴、就餐补贴等，合计超过858元）。&lt;br&gt;★考核期后按照部门薪酬制度执行。&lt;br&gt;&lt;br&gt;【在职培训】&lt;br&gt;1、入职初期，公司会安排相关导师指导新人，帮助新人尽快融入公司和熟悉工作内容。&lt;br&gt;2、公司将定期为在职同事提供职业发展培训，帮助在职同事寻找未来职业方向，实现发展目标。&lt;br&gt;&lt;br&gt;【晋升方向】&lt;br&gt;人性化的发展道路：可根据自身岗位发展目标和方向需求，选择不同路线晋升：&lt;br&gt;★团队发展方向：M1----M2----M3----M4----M5----M6----M7----M8&lt;br&gt;★个人发展方向：P1----P2----P3----P4----P5----P6----P7----P8----P9&lt;br&gt;&lt;br&gt;【办公地点】&lt;br&gt;★应聘时可沟通选择意向办公点：&lt;br&gt;1、中山市西区街道金港路48号美林假日翰林苑4期164-167卡&lt;br&gt;2、中山市港口镇港口银库路8号裕港豪庭二期52卡&lt;br&gt;3、中山市火炬开发区伟盛路12号幸福旭日家园1栋6卡&lt;br&gt;4、中山市东区街道兴政路1号中环广场1栋5楼&lt;br&gt;&lt;br&gt;如果你积极上进，不甘平凡，渴望过上快乐工作、快乐生活的日子，赶快加入华定吧！我们为你提供丰厚的收入以及良好的晋升平台。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;20-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhongshan-dq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E7%25BC%2596%25E5%2586%2599,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码编写&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25A8%258B%25E5%25BA%258F%25E5%2591%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;程序员&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;管培生&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术管培生&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        职责描述:&lt;br&gt;1.加入我们的团队，为NLP或AI相关项目设计、原型设计、实施、部署和维护功能；&lt;br&gt;2.对大型数据集进行实验，以评估NLP技术的可行性，结果和性能&lt;br&gt;3.做出合理的工程决策并改进软件开发实践，同时注重性能和可靠性&lt;br&gt;任职要求:&lt;br&gt;1.3年以上Python开发经验；&lt;br&gt;2.熟悉RestfulAPI，Mysql数据库，HTTP；&lt;br&gt;3.熟悉Flask,Django,FastAPI(熟悉其中一种或多种)&lt;br&gt;4.熟悉Nginx,Gunicorn,Redis，Linux;&lt;br&gt;5.熟悉常用数据结构，设计模式，良好编码风格;&lt;br&gt;6.有CI/CD,DevOps相关知识，了解AWS,Azure等公有云技术;&lt;br&gt;7.熟悉MessageQueue(RabbitMQ,Kafka,etc).\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hangzhou/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Nginx,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Nginx&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Kafka,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Kafka&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
@@ -663,7 +671,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -680,22 +688,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>python算法工程师</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8千-1.5万</t>
+          <t>5千-1万·13薪</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>北京·海淀区</t>
+          <t>厦门·思明区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1年</t>
+          <t>2年及以上</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -705,119 +713,123 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>点奇互联（北京）科技有限公司</t>
+          <t>厦门凡祈丰科技有限公司</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['        .负责数据模型测试，包括确定测试范围、制定测试方案、优化测试过程、提高测工作职责:&lt;br&gt;2-运用数据挖掘/统计学习的理论和方法，深入挖掘和分析海量用户行为&lt;br&gt;3-根据项目需求，分析数据，建立适应的模型并解决业务需求，并规划和设计出对应的数据专题应用，以提升数据价值。&lt;br&gt;职位要求 ：&lt;br&gt;1、接受转行，应届优先，有志于IT、金融行业长远发展（金融、经济学专业可放宽至大专）；或对金融、IT行业有强烈意愿者。&lt;br&gt;2、要求大专以上学历，应届优先；&lt;br&gt;3、年龄20-29周岁；&lt;br&gt;4、计算机、软件、数学、统计学、经济、财务专业优先；&lt;br&gt;5、熟练使用ORACLE/DB2数据库优.\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;18-26岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-hdq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        【岗位职责】&lt;br&gt;1、参与系统需求分析，架构设计及原型实现；&lt;br&gt;2、负责项目业务系统相关的开发、测试工作；&lt;br&gt;3、协助项目组完成项目的交付，包括需求沟通及相关文档的编写。&lt;br&gt;【职位要求】&lt;br&gt;1、大专及以上学历，计算机或其它相关专业专科及以上学历，英语语言能力较好、2年或2年以上同技术开发工作经验；&lt;br&gt;2、具备扎实的计算机系统知识，具有 Python 开发项目经验，能够独立承担python 开发任务；&lt;br&gt;3、至少了解使用过 pyhon-opencv 、mongo 、mysql  等 python 第三方库；&lt;br&gt;4.  熟悉或了解过 python 的ansyncio 、多线程、多进程管理和使用；熟悉Linux系统和网络相关知识。&lt;br&gt;5、良好的个人品质，良好的软件开发素养及信息安全素养，有责任感，较强的沟通能力，具有团队合作精神。&lt;br&gt;6、另招本科及硕士相关专业兼职，有意投简历联系。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/xiamen-smq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>少儿Python老师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8千-1.2万</t>
+          <t>1-1.6万·13薪</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南昌·红谷滩区</t>
+          <t>宁波·鄞州区</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>南昌市唐格教育咨询有限公司</t>
+          <t>宁波思艾特软件有限公司</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;1. 负责为4-12岁学龄后儿童提供scratch、Python、C++等编程语言的教学工作，包括课程设计、教材编写、授课等工作；&lt;br&gt;2.经过培训具备编程能力，沟通表达逻辑性强。&lt;br&gt;3.与家长沟通，帮助家长及时了解儿童成长动向。&lt;br&gt;4.学员服务，提升家长满意度。&lt;br&gt;5.严格完成校区规定的到课率、推荐率与续费率指标。&lt;br&gt;6.授课能力过硬，具备与儿童沟通的能力与课堂表现力。&lt;br&gt;7.有教师证、编程经验者优先考虑。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1. 具有本科及以上学历，计算机相关专业优先考虑；&lt;br&gt;2. 熟练掌握scratch、Python编程语言，具有扎实的编程基础；&lt;br&gt;3. 具备良好的教学能力和沟通能力，能够有效地传授知识；&lt;br&gt;4. 具有较强的团队合作精神和责任心；&lt;br&gt;5. 具有相关教学经验者优先考虑。&lt;br&gt;&lt;br&gt;公司福利：&lt;br&gt;1. 完善的社会保险（六险一金）；&lt;br&gt;2.优秀员工子女享受教育课程优惠；&lt;br&gt;3. 带薪年假，节日福利；&lt;br&gt;4. 超童趣的办公环境；&lt;br&gt;5. 让你永葆青春的一颗童心。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanchang-hgtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,C%252B%252B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C++&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,scratch,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;scratch&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;在Agile的开发模式下，按时完成公司大数据项目的开发、功能及性能测试&lt;br&gt;根据产品具体要求，承担开发任务，按计划完成任务目标；&lt;br&gt;参与需求提出合理的项目实施方案；&lt;br&gt;参与系统的需求分析、设计、编码等开发工作；&lt;br&gt;参与系统的运营和维护工作，保证系统稳定可靠运行；&lt;br&gt;根据公司要求编写相关技术文档；&lt;br&gt;项目过程中，和队员之间做好良好的沟通和交流，及时发现和处理问题&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.大专及以上学历，计算机相关专业优先，熟悉常用的数据结构和算法；&lt;br&gt;2.熟练使用Spark分布式运算框架&lt;br&gt;3.了解并熟悉用PySpark处理分析数据，对Spark SQL的熟练使用&lt;br&gt;4.熟练使用Python编写数据处理脚本&lt;br&gt;5.能够对脚本进行逻辑分析和性能调优&lt;br&gt;6.熟悉Azure Databricks环境&lt;br&gt;7.良好的英语书面沟通能力\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;40岁以下&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/ningbo-yzq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E5%25A4%25A7%25E6%2595%25B0%25E6%258D%25AE,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;大数据&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E8%25B0%2583%25E4%25BC%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能调优&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术文档&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%25BB%2593%25E6%259E%2584%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据结构算法&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Python技术管培生</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5.3千-1万</t>
+          <t>7千-1.2万</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中山·东区</t>
+          <t>株洲·天元区</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>无需经验</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>2年及以上</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>大专</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>中山华定科技有限公司</t>
+          <t>湖南艾佳威信息技术有限公司</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['        ★★欢迎对人工智能领域感兴趣的应聘者加入，内部提供类ChatGPT/AI人工智能小助理等多款工具，协助团队提升工作效率并发掘新的业务增长点★★&lt;br&gt;&lt;br&gt;【我们需要这样的你】&lt;br&gt;1）心态积极阔达、坦诚自信、乐观进取；（当看到半杯水的时候会觉得自己拥有了半杯水，而不是只有这半杯水，更多关注杯子的外侧，通过了解未知的未知保持空杯心态）&lt;br&gt;2）善于思考与创新，愿意持续学习新知识，内驱力强，喜欢“跳出已有框架”思考问题，不为自己设限&lt;br&gt;&lt;br&gt;【目前岗位工作内容比重】&lt;br&gt;★专业技能工作（开发创作、优化升级）：10%&lt;br&gt;★事务性工作（系统维护、资料处理、会务参与、技术服务、业务沟通）：90%&lt;br&gt;&lt;br&gt;【工作职责】&lt;br&gt;1、参与软件开发项目，负责Python相关项目需求的代码设计、编写、测试和维护。&lt;br&gt;2、能够遵守公司制定的开发流程和规范根据需求进行相应的开发工作，学习和掌握公司的技术框架和工具，保证项目质量和进度。&lt;br&gt;3、与团队成员协作，解决项目中出现的问题。&lt;br&gt;4、积极学习新技术，提高自身技能水平。&lt;br&gt;&lt;br&gt;【任职条件】&lt;br&gt;1、熟悉Python语言，熟悉常用的Python框架（如Django、Flask等）。&lt;br&gt;2、具备良好的逻辑思维能力和代码编写能力。&lt;br&gt;3、具备良好的团队合作精神和沟通能力。 &lt;br&gt;4、熟悉Gitflow、GitHub flow、CICD等。&lt;br&gt;5、熟悉数据库基础知识，如My SQL等者优先考虑。&lt;br&gt;6、有相关实习或工作经验者优先考虑。&lt;br&gt;&lt;br&gt;【具体上班时间】&lt;br&gt;星期一&amp;amp;六 08:00-15:30（含早餐与午餐时间1.5小时）&lt;br&gt;星期二至五 08:00-17:30（含早餐与午餐时间1.5小时）&lt;br&gt;&lt;br&gt;【薪金待遇】&lt;br&gt;考核期两个月：5388-10388元/月（包含：日勤奖、交通补贴、话费补贴、就餐补贴等，合计超过858元）。&lt;br&gt;★考核期后按照部门薪酬制度执行。&lt;br&gt;&lt;br&gt;【在职培训】&lt;br&gt;1、入职初期，公司会安排相关导师指导新人，帮助新人尽快融入公司和熟悉工作内容。&lt;br&gt;2、公司将定期为在职同事提供职业发展培训，帮助在职同事寻找未来职业方向，实现发展目标。&lt;br&gt;&lt;br&gt;【晋升方向】&lt;br&gt;人性化的发展道路：可根据自身岗位发展目标和方向需求，选择不同路线晋升：&lt;br&gt;★团队发展方向：M1----M2----M3----M4----M5----M6----M7----M8&lt;br&gt;★个人发展方向：P1----P2----P3----P4----P5----P6----P7----P8----P9&lt;br&gt;&lt;br&gt;【办公地点】&lt;br&gt;★应聘时可沟通选择意向办公点：&lt;br&gt;1、中山市西区街道金港路48号美林假日翰林苑4期164-167卡&lt;br&gt;2、中山市港口镇港口银库路8号裕港豪庭二期52卡&lt;br&gt;3、中山市火炬开发区伟盛路12号幸福旭日家园1栋6卡&lt;br&gt;4、中山市东区街道兴政路1号中环广场1栋5楼&lt;br&gt;&lt;br&gt;如果你积极上进，不甘平凡，渴望过上快乐工作、快乐生活的日子，赶快加入华定吧！我们为你提供丰厚的收入以及良好的晋升平台。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;20-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhongshan-dq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E7%25BC%2596%25E5%2586%2599,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码编写&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25A8%258B%25E5%25BA%258F%25E5%2591%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;程序员&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;管培生&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术管培生&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        职位要求：&lt;br&gt;1、2年以上Python开发经验，具有扎实的Python编程基础。&lt;br&gt;2、熟练掌握至少一门Python Web开发框架（Flask或者Fastapi或者Django）。&lt;br&gt;3、熟练使用Redis、Mongodb、Oracle、Postgresql 等数据库，能熟练进行数据库设计与优化，和数据库操作技术sqlalchemy。&lt;br&gt;4、熟练Linux平台环境，掌握常见的命令和脚本，并能够在生产环境中部署应用程序。&lt;br&gt;5、熟悉Numpy、Pandas、Dask等数据分析优先。&lt;br&gt;6、熟悉前端技术，如HTML、CSS、JavaScript等；&lt;br&gt;7、具有良好的文档编写能力、沟通表达能力和团队合作精神。&lt;br&gt;8、熟悉敏捷开发模式，具备良好的代码习惯、代码管理和协作能力。&lt;br&gt;9、具备良好的沟通能力和团队合作精神，工作态度积极，有耐心，有责任心。&lt;br&gt;10、有良好的学习和创新能力，能够快速适应新的技术和项目\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;22-30岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhuzhou-tyq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,MongoDB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MongoDB&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Python开发</t>
+          <t>数据分析师（SAS/R/Python）</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9千-1.5万·13薪</t>
+          <t>1-2万·13薪</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>北京·大兴区</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-6年</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -827,17 +839,17 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>中软国际科技服务有限公司</t>
+          <t>北京裕荣医学数据科技有限公司</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['        1.本科及以上，计算机科学与技术，软件工程等相关专业，1年以上工作经验&lt;br&gt;2.熟悉python，并使用django，flask等主流框架开发项目&lt;br&gt;3.了解linux操作系统，熟练使用linux基本方法和常用命令，有一定的shell脚本开发能力&lt;br&gt;4.有持续继承(CI)相关开发、部署或维护经验，熟悉CI相关流程，有docker服务器部署和维护经验&lt;br&gt;5.了解至少一种数据库管理系统，如果MySQL，redis等，有数据库模型开发和设计经验\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25B7%25A5%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件工程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,ci,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ci&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        1. 数据审核及统计分析的编程支持；&lt;br&gt;2. 根据SAP和TLF 模板输出结果；&lt;br&gt;3. 准备分析数据集（参照ADaM标准）；&lt;br&gt;4. 统计图、表格、列表程序编制；&lt;br&gt;5. 统计编程的独立审核；&lt;br&gt;6. 统计分析平台或工具的开发与维护&lt;br&gt;7. 其他与统计编程相关工作。 &lt;br&gt; &lt;br&gt;岗位基本要求：&lt;br&gt;计算机/生物统计/流行病与卫生统计学/应用统计等相关专业，熟练使用SAS BASE/STAT软件。&lt;br&gt;&lt;br&gt;&lt;br&gt;高级SAS程序员：3年及以上相关经验；&lt;br&gt;SAS程序员：2年及以上相关经验；&lt;br&gt;SAS程序员助理：1年及以上相关经验。&lt;br&gt; &lt;br&gt;加分项：&lt;br&gt;熟悉/精通CDISC标准；精通 R / Python 等其他统计编程语言和SQL等数据库语言。&lt;br&gt; &lt;br&gt;薪资：&lt;br&gt;高级数据分析师：20K以上/月；&lt;br&gt;数据分析师：15K以上/月；&lt;br&gt;数据分析助理：10K以上/月\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-dxq/linchuangshuju/"&gt;临床数据分析员&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,011400,0000,00,9,99,SAS,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;SAS&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,011400,0000,00,9,99,R,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;R&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,011400,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,011400,0000,00,9,99,SQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;SQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,011400,0000,00,9,99,%25E5%2588%2586%25E6%259E%2590%25E6%2595%25B0%25E6%258D%25AE%25E9%259B%2586,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;分析数据集&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,011400,0000,00,9,99,%25E7%25BB%259F%25E8%25AE%25A1%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;统计编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,011400,0000,00,9,99,cdisc,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;cdisc&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,011400,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B%25E6%2594%25AF%25E6%258C%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程支持&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,011400,0000,00,9,99,adam,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;adam&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,011400,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据分析&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
@@ -849,17 +861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7千-1.2万</t>
+          <t>8千-1.2万</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>株洲·天元区</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -869,39 +881,39 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>湖南艾佳威信息技术有限公司</t>
+          <t>美皇贸易（深圳）有限公司</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['        职位要求：&lt;br&gt;1、2年以上Python开发经验，具有扎实的Python编程基础。&lt;br&gt;2、熟练掌握至少一门Python Web开发框架（Flask或者Fastapi或者Django）。&lt;br&gt;3、熟练使用Redis、Mongodb、Oracle、Postgresql 等数据库，能熟练进行数据库设计与优化，和数据库操作技术sqlalchemy。&lt;br&gt;4、熟练Linux平台环境，掌握常见的命令和脚本，并能够在生产环境中部署应用程序。&lt;br&gt;5、熟悉Numpy、Pandas、Dask等数据分析优先。&lt;br&gt;6、熟悉前端技术，如HTML、CSS、JavaScript等；&lt;br&gt;7、具有良好的文档编写能力、沟通表达能力和团队合作精神。&lt;br&gt;8、熟悉敏捷开发模式，具备良好的代码习惯、代码管理和协作能力。&lt;br&gt;9、具备良好的沟通能力和团队合作精神，工作态度积极，有耐心，有责任心。&lt;br&gt;10、有良好的学习和创新能力，能够快速适应新的技术和项目\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;22-30岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhuzhou-tyq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,MongoDB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MongoDB&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/190300,190304,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        职位描述：&lt;br&gt;1、负责前后台系统代码设计与开发,使用敏捷产品开发流程来确保功能按时交付;&lt;br&gt;2、业务系统的优化改正、按计划完成任务、确保系统稳定可靠运行.&lt;br&gt;&lt;br&gt;职位要求：&lt;br&gt;1、计算机相关专业,大专及以上学历,3年以上后台开发工作经验;&lt;br&gt;2、精通Python语言,有Flask或Django框架的实际项目经验;&lt;br&gt;3、熟悉主流SQL数据库（MySQL, MSSQL, Oracle等）,熟悉SQL数据模型设计、编写、调优;&lt;br&gt;4、熟悉网络编程,掌握TCP、UDP和HTTP等通讯协议;&lt;br&gt;5、熟悉Docker容器,了解Kubernetes相关知识，熟悉常用的设计模式;&lt;br&gt;6、了解Linux,并能使用日常的命令；有Linux项目开发优先;&lt;br&gt;7、了解常用前后端框架技术,具备前后端分离项目经验;&lt;br&gt;8、具备较强的信息获取能力及学习能力,擅长理性思维,善于接纳新鲜事物与多方观点,擅长了解及尝试前沿技术;&lt;br&gt;9、有大型分布式架构经验者优先,有独立做过项目技术选型或独立完成一个项目的核心功能的开发者优先.\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E8%25AE%25BE%25E8%25AE%25A1%25E6%25A8%25A1%25E5%25BC%258F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;设计模式&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E9%2580%2589%25E5%259E%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术选型&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E5%2590%258E%25E5%258F%25B0%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后台开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python软件工程师</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8千-1.5万</t>
+          <t>8千-1.2万</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>无锡·新吴区</t>
+          <t>深圳·宝安区</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -911,81 +923,77 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>无锡秉杰机械有限公司</t>
+          <t>深圳星河像素电子有限公司</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['        职位描述&lt;br&gt;技术要求：&lt;br&gt;1. 本科计算机相关专业 2年以上软件开发经验（接受应届生）&lt;br&gt;2. 熟练掌握python 熟悉opencv numpy qt库 理解其语言特性，会c#加分&lt;br&gt;3. 熟悉常用的数据结构 有一定算法基础，lintcode上刷过题加分&lt;br&gt;&lt;br&gt;工作内容：&lt;br&gt;1．负责视觉系统的设计，开发，部署，测试和优化。&lt;br&gt;2．负责现场追踪项目进度，解决相关性技术问题&lt;br&gt;3．负责根据项目效果协调生产工艺，完成系统产品设计，开发和现场验证等工作\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuxi-xwq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070405,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：Python软件设计&lt;br&gt;有python编程经验3年以上，熟悉电脑应用程序和手机APP开发。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;23岁以上&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-baq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,%25E6%2589%258B%25E6%259C%25BAapp%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;手机app开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python技术管培生</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8千-1.2万</t>
+          <t>5.3千-1万</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>中山·东区</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3年及以上</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>大专</t>
-        </is>
-      </c>
+          <t>无需经验</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>美皇贸易（深圳）有限公司</t>
+          <t>中山华定科技有限公司</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['        职位描述：&lt;br&gt;1、负责前后台系统代码设计与开发,使用敏捷产品开发流程来确保功能按时交付;&lt;br&gt;2、业务系统的优化改正、按计划完成任务、确保系统稳定可靠运行.&lt;br&gt;&lt;br&gt;职位要求：&lt;br&gt;1、计算机相关专业,大专及以上学历,3年以上后台开发工作经验;&lt;br&gt;2、精通Python语言,有Flask或Django框架的实际项目经验;&lt;br&gt;3、熟悉主流SQL数据库（MySQL, MSSQL, Oracle等）,熟悉SQL数据模型设计、编写、调优;&lt;br&gt;4、熟悉网络编程,掌握TCP、UDP和HTTP等通讯协议;&lt;br&gt;5、熟悉Docker容器,了解Kubernetes相关知识，熟悉常用的设计模式;&lt;br&gt;6、了解Linux,并能使用日常的命令；有Linux项目开发优先;&lt;br&gt;7、了解常用前后端框架技术,具备前后端分离项目经验;&lt;br&gt;8、具备较强的信息获取能力及学习能力,擅长理性思维,善于接纳新鲜事物与多方观点,擅长了解及尝试前沿技术;&lt;br&gt;9、有大型分布式架构经验者优先,有独立做过项目技术选型或独立完成一个项目的核心功能的开发者优先.\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E8%25AE%25BE%25E8%25AE%25A1%25E6%25A8%25A1%25E5%25BC%258F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;设计模式&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E9%2580%2589%25E5%259E%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术选型&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,%25E5%2590%258E%25E5%258F%25B0%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后台开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        ★★欢迎对人工智能领域感兴趣的应聘者加入，内部提供类ChatGPT/AI人工智能小助理等多款工具，协助团队提升工作效率并发掘新的业务增长点★★&lt;br&gt;&lt;br&gt;【我们需要这样的你】&lt;br&gt;1）心态积极阔达、坦诚自信、乐观进取；（当看到半杯水的时候会觉得自己拥有了半杯水，而不是只有这半杯水，更多关注杯子的外侧，通过了解未知的未知保持空杯心态）&lt;br&gt;2）善于思考与创新，愿意持续学习新知识，内驱力强，喜欢“跳出已有框架”思考问题，不为自己设限&lt;br&gt;&lt;br&gt;【目前岗位工作内容比重】&lt;br&gt;★专业技能工作（开发创作、优化升级）：10%&lt;br&gt;★事务性工作（系统维护、资料处理、会务参与、技术服务、业务沟通）：90%&lt;br&gt;&lt;br&gt;【工作职责】&lt;br&gt;1、参与软件开发项目，负责Python相关项目需求的代码设计、编写、测试和维护。&lt;br&gt;2、能够遵守公司制定的开发流程和规范根据需求进行相应的开发工作，学习和掌握公司的技术框架和工具，保证项目质量和进度。&lt;br&gt;3、与团队成员协作，解决项目中出现的问题。&lt;br&gt;4、积极学习新技术，提高自身技能水平。&lt;br&gt;&lt;br&gt;【任职条件】&lt;br&gt;1、熟悉Python语言，熟悉常用的Python框架（如Django、Flask等）。&lt;br&gt;2、具备良好的逻辑思维能力和代码编写能力。&lt;br&gt;3、具备良好的团队合作精神和沟通能力。 &lt;br&gt;4、熟悉Gitflow、GitHub flow、CICD等。&lt;br&gt;5、熟悉数据库基础知识，如My SQL等者优先考虑。&lt;br&gt;6、有相关实习或工作经验者优先考虑。&lt;br&gt;&lt;br&gt;【具体上班时间】&lt;br&gt;星期一&amp;amp;六 08:00-15:30（含早餐与午餐时间1.5小时）&lt;br&gt;星期二至五 08:00-17:30（含早餐与午餐时间1.5小时）&lt;br&gt;&lt;br&gt;【薪金待遇】&lt;br&gt;考核期两个月：5388-10388元/月（包含：日勤奖、交通补贴、话费补贴、就餐补贴等，合计超过858元）。&lt;br&gt;★考核期后按照部门薪酬制度执行。&lt;br&gt;&lt;br&gt;【在职培训】&lt;br&gt;1、入职初期，公司会安排相关导师指导新人，帮助新人尽快融入公司和熟悉工作内容。&lt;br&gt;2、公司将定期为在职同事提供职业发展培训，帮助在职同事寻找未来职业方向，实现发展目标。&lt;br&gt;&lt;br&gt;【晋升方向】&lt;br&gt;人性化的发展道路：可根据自身岗位发展目标和方向需求，选择不同路线晋升：&lt;br&gt;★团队发展方向：M1----M2----M3----M4----M5----M6----M7----M8&lt;br&gt;★个人发展方向：P1----P2----P3----P4----P5----P6----P7----P8----P9&lt;br&gt;&lt;br&gt;【办公地点】&lt;br&gt;★应聘时可沟通选择意向办公点：&lt;br&gt;1、中山市西区街道金港路48号美林假日翰林苑4期164-167卡&lt;br&gt;2、中山市港口镇港口银库路8号裕港豪庭二期52卡&lt;br&gt;3、中山市火炬开发区伟盛路12号幸福旭日家园1栋6卡&lt;br&gt;4、中山市东区街道兴政路1号中环广场1栋5楼&lt;br&gt;&lt;br&gt;如果你积极上进，不甘平凡，渴望过上快乐工作、快乐生活的日子，赶快加入华定吧！我们为你提供丰厚的收入以及良好的晋升平台。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;20-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhongshan-dq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E7%25BC%2596%25E5%2586%2599,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码编写&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25A8%258B%25E5%25BA%258F%25E5%2591%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;程序员&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;管培生&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术管培生&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Python软件开发工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6千-1.1万·13薪</t>
+          <t>1-1.5万·13薪</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>武汉·东湖新技术产业开发区</t>
+          <t>深圳·宝安区</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3-4年</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -995,24 +1003,24 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>武汉光至科技有限公司</t>
+          <t>骏兴纸业（深圳）有限公司</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;1、负责后端应用架构的设计和规范化工作；&lt;br&gt;2、独立完成需求分析、系统软件设计、编码和测试工作；&lt;br&gt;3、负责公司产品的开发和维护更新工作，并对交付质量负责；&lt;br&gt;4、编写相关的开发文档，如设计文档，测试文档等。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、计算机及相关专业本科学历，2年以上开发经验；&lt;br&gt;2、熟悉Python常用后端框架如Django、Flask等；&lt;br&gt;3、熟悉数据库的操作及维护(MySQL、Redis等)，能熟练进行数据库设计与优化，和数据库操作技术sqlalchemy；&lt;br&gt;4、熟悉Linux 的操作；&lt;br&gt;5、良好的沟通能力，工作积极主动，责任心强，具有团队协作、独立完成工作能力；&lt;br&gt;6、会使用docker优先，了解ERP、MES系统相关开发优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuhan-dhxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,erp,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;erp&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库设计&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        职位描述：&lt;br&gt;参与一个全新度身打造的大型ERP管理系统项目开发和迁移工作，负责需求分析系统规划数据库建模和用Python编程工作，包括前端Web及后端模块。新系统主要功能模块包括销售采购库存供应链CRM等等，为企业实现业务流程自动化，标准化和信息化，提高企业业务效率，对外连接性和管理水平.&lt;br&gt;工作内容：&lt;br&gt;1.\t负责ERP系统模块设计、编码、测试、相关项目文档编写&lt;br&gt;2.\t日常維運系統，解決系統所發生異常狀況&lt;br&gt;3.\t其他主管交辦事項&lt;br&gt;&lt;br&gt;职位要求：&lt;br&gt;1.\t计算机或相关专业，具备3年以上开发工作经验&lt;br&gt;2.\t熟悉Python 或 Java语法，能够进行程序设计和开发；&lt;br&gt;3.\t熟悉PostgreSQL, Oracle等主流数据库&lt;br&gt;4.\t有Odoo开发经验者优先&lt;br&gt;5.\t其他语言和工具：PowerBuilder, HTML, JavaScript, SQL, docker, Git, JIRA, Pentaho，JasperReports&lt;br&gt;6.\t热爱软件开发，高度责任心、善于解难，逻辑思维清晰，有良好的沟通协调能力&lt;br&gt;7.\t语言：具备粤语沟通能力优先，能读会写英语\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-baq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,Odoo,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Odoo&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,python%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python编程&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Python软件工程师</t>
+          <t>少儿Python老师</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1022,7 +1030,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>深圳·宝安区</t>
+          <t>南昌·红谷滩区</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1037,81 +1045,81 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>深圳星河像素电子有限公司</t>
+          <t>南昌市唐格教育咨询有限公司</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['        岗位职责：Python软件设计&lt;br&gt;有python编程经验3年以上，熟悉电脑应用程序和手机APP开发。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;23岁以上&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-baq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,%25E6%2589%258B%25E6%259C%25BAapp%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;手机app开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1. 负责为4-12岁学龄后儿童提供scratch、Python、C++等编程语言的教学工作，包括课程设计、教材编写、授课等工作；&lt;br&gt;2.经过培训具备编程能力，沟通表达逻辑性强。&lt;br&gt;3.与家长沟通，帮助家长及时了解儿童成长动向。&lt;br&gt;4.学员服务，提升家长满意度。&lt;br&gt;5.严格完成校区规定的到课率、推荐率与续费率指标。&lt;br&gt;6.授课能力过硬，具备与儿童沟通的能力与课堂表现力。&lt;br&gt;7.有教师证、编程经验者优先考虑。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1. 具有本科及以上学历，计算机相关专业优先考虑；&lt;br&gt;2. 熟练掌握scratch、Python编程语言，具有扎实的编程基础；&lt;br&gt;3. 具备良好的教学能力和沟通能力，能够有效地传授知识；&lt;br&gt;4. 具有较强的团队合作精神和责任心；&lt;br&gt;5. 具有相关教学经验者优先考虑。&lt;br&gt;&lt;br&gt;公司福利：&lt;br&gt;1. 完善的社会保险（六险一金）；&lt;br&gt;2.优秀员工子女享受教育课程优惠；&lt;br&gt;3. 带薪年假，节日福利；&lt;br&gt;4. 超童趣的办公环境；&lt;br&gt;5. 让你永葆青春的一颗童心。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanchang-hgtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,C%252B%252B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C++&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/130200,130210,0000,00,9,99,scratch,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;scratch&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python初级开发</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.5-3万</t>
+          <t>5-6千</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>成都·高新区</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>浙江五京科技集团有限公司</t>
+          <t>成都匠翎信息技术有限公司</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['        职责描述:&lt;br&gt;1.加入我们的团队，为NLP或AI相关项目设计、原型设计、实施、部署和维护功能；&lt;br&gt;2.对大型数据集进行实验，以评估NLP技术的可行性，结果和性能&lt;br&gt;3.做出合理的工程决策并改进软件开发实践，同时注重性能和可靠性&lt;br&gt;任职要求:&lt;br&gt;1.3年以上Python开发经验；&lt;br&gt;2.熟悉RestfulAPI，Mysql数据库，HTTP；&lt;br&gt;3.熟悉Flask,Django,FastAPI(熟悉其中一种或多种)&lt;br&gt;4.熟悉Nginx,Gunicorn,Redis，Linux;&lt;br&gt;5.熟悉常用数据结构，设计模式，良好编码风格;&lt;br&gt;6.有CI/CD,DevOps相关知识，了解AWS,Azure等公有云技术;&lt;br&gt;7.熟悉MessageQueue(RabbitMQ,Kafka,etc).\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hangzhou/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Nginx,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Nginx&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Kafka,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Kafka&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1、完成软件系统代码的实现，编写代码注释和开发文档；&lt;br&gt;2、辅助进行系统的功能定义，程序设计；&lt;br&gt;3、根据设计文档或需求说明完成代码编写，调试，测试和维护；&lt;br&gt;4、分析并解决软件开发过程中的问题；&lt;br&gt;5、对系统运行过程中出现的问题及时分析原因并解决问题。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、计算机相关专业，本科学历，优秀者可放宽到大专，学习能力强，能在工作中不断提升自己能力，可接受应届生实习；&lt;br&gt;2、熟悉Python基础语法，熟悉至少一种主流Python Web框架（django、flask），有Django项目经验者优先；&lt;br&gt;3、了解rest framework、RestfulAPI等接口框架和规范；&lt;br&gt;4、熟悉网络协议和主流前后端通信规范，了解Linux环境开发管理；&lt;br&gt;5、了解MySQL、Redis、MongoDB、MQ等。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-gxq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Python%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,%25E5%2590%258E%25E7%25AB%25AF,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后端&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,%25E5%25BA%2594%25E5%25B1%258A%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;应届生&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Python高级开发工程师</t>
+          <t>Python开发</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2.5-4万</t>
+          <t>9千-1.5万·13薪</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南京·江宁区</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5年及以上</t>
+          <t>1-6年</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1121,39 +1129,39 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>苏州英格玛制造外包有限公司</t>
+          <t>中软国际科技服务有限公司</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['        Python后端开发工程师，***有架构能力，五年以上工作经验。&lt;br&gt;&lt;br&gt;是财务项目（财务共享中心的建设）&lt;br&gt;需要会ocr+idps+大模型+智能审核+电子影像这些的一部分，不需要全会哇&lt;br&gt;共享财务系统，报账.资金.sap.预测.itsm 这种经验也可以。&lt;br&gt;&lt;br&gt;ocr 识别和转换图像中的文字。&lt;br&gt;idps 智能文档处理，海量级别的。&lt;br&gt;大模型，chatgpt。&lt;br&gt;智能审核 机器学习。&lt;br&gt;电子影像 转换文字这种。&lt;br&gt;&lt;br&gt;注：工作项目短期两个月，薪资可谈，可提供公寓住宿，五年以上工作经验。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanjing-jnq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Nginx,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Nginx&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Nginx,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Nginx&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E6%259C%25BA%25E5%2599%25A8%25E5%25AD%25A6%25E4%25B9%25A0%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;机器学习经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Linux%25E5%25BC%2580%25E5%258F%2591%252F%25E9%2583%25A8%25E7%25BD%25B2%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Linux开发/部署经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E8%25B4%25A2%25E5%258A%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;财务&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,SAP,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sap&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E6%258A%25A5%25E8%25B4%25A6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;报账&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E8%25B4%25A2%25E5%258A%25A1%25E7%25B3%25BB%25E7%25BB%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;财务系统&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E6%259E%25B6%25E6%259E%2584,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;架构&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E9%25A2%2584%25E6%25B5%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;预测&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,itsm,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;itsm&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E8%25B4%25A2%25E5%258A%25A1%25E5%2585%25B1%25E4%25BA%25AB%25E4%25B8%25AD%25E5%25BF%2583,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;财务共享中心&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,%25E6%2599%25BA%25E8%2583%25BD%25E5%25AE%25A1%25E6%25A0%25B8,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;智能审核&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,070211,0000,00,9,99,idps,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;idps&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        1.本科及以上，计算机科学与技术，软件工程等相关专业，1年以上工作经验&lt;br&gt;2.熟悉python，并使用django，flask等主流框架开发项目&lt;br&gt;3.了解linux操作系统，熟练使用linux基本方法和常用命令，有一定的shell脚本开发能力&lt;br&gt;4.有持续继承(CI)相关开发、部署或维护经验，熟悉CI相关流程，有docker服务器部署和维护经验&lt;br&gt;5.了解至少一种数据库管理系统，如果MySQL，redis等，有数据库模型开发和设计经验\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25B7%25A5%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件工程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,ci,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ci&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python高级开发工程师</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1-1.2万</t>
+          <t>1.5-3万·13薪</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>深圳·福田区</t>
+          <t>深圳·宝安区</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3-5年</t>
+          <t>5-7年</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1163,118 +1171,114 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>深圳市紫川软件有限公司</t>
+          <t>骏兴纸业（深圳）有限公司</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['        1、全日制本科及以上学历；3-5年工作经验。&lt;br&gt;2、计算机基础扎实，熟悉Linux操作系统及常用命令，熟悉数据库基础知识及基础操作；&lt;br&gt;3、熟悉Python，熟悉Django框架；&lt;br&gt;4、具备较强的问题分析能力和解决能力；具备良好的学习能力、沟通协调能力、团队协作能力，有高度的工作责任心、抗压能力强。&lt;br&gt;5、有金融行业监管汇报、运维工具开发、系统运维者优先&lt;br&gt;岗位职责：&lt;br&gt;1、运维平台等系统功能需求的评估、排期和开发；&lt;br&gt;2、响应系统异常告警，及时处理系统异常，确保系统稳定；&lt;br&gt;3、负责跟进团队内的专项进度；&lt;br&gt;4、完成上级领导安排的其他工作。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E7%25B3%25BB%25E7%25BB%259F%25E8%25BF%2590%25E7%25BB%25B4,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;系统运维&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E8%25BF%2590%25E7%25BB%25B4%25E5%25B7%25A5%25E5%2585%25B7%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;运维工具开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E9%2597%25AE%25E9%25A2%2598%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;问题分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E5%25A4%2584%25E7%2590%2586%25E7%25B3%25BB%25E7%25BB%259F%25E5%25BC%2582%25E5%25B8%25B8,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;处理系统异常&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E8%25BF%2590%25E7%25BB%25B4%25E5%25B9%25B3%25E5%258F%25B0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;运维平台&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        职位描述：&lt;br&gt;参与一个全新度身打造的大型ERP管理系统项目开发和迁移工作，负责需求分析系统规划数据库建模和用Python编程工作，包括前端Web及后端模块。新系统主要功能模块包括销售采购库存供应链CRM等等，为企业实现业务流程自动化，标准化和信息化，提高企业业务效率，对外连接性和管理水平.&lt;br&gt;工作内容：&lt;br&gt;1.\t负责系统模块设计、编码、测试、相关项目文档编写&lt;br&gt;2.\t负责管理开发团队，制定和实施重大技术决策和技术方案&lt;br&gt;3.\t负责开发团队专业知识培训，提供开发团队技术支持&lt;br&gt;4.\t负责开发团队工作监督和协助实施准时完成工作&lt;br&gt;5.\t负责维护现有ERP系统团队对接包括订立数据迁移和同步安排评&lt;br&gt;6.\t向上级领导汇报项目信息&lt;br&gt;职位要求：&lt;br&gt;1.\t计算机或相关专业，具备5年以上开发工作经验&lt;br&gt;2.\t5年以上大型管理软件项目设计和开发经验，熟悉设计模式&lt;br&gt;3.\t3年以上带领5人以上的团队，有团队组建经验优先&lt;br&gt;4.\t精通Python 或 Java语法，能够进行程序设计和开发；&lt;br&gt;5.\t精通Odoo开发经验者优先&lt;br&gt;6.\t精通 PostgreSQL, Oracle等主流数据库&lt;br&gt;7.\t其他语言和工具：PowerBuilder, HTML, JavaScript, SQL, docker, Git, JIRA, Pentaho，JasperReports&lt;br&gt;8.\t热爱软件开发，高度责任心、善于解难，逻辑思维清晰，有良好的沟通协调能力&lt;br&gt;9.\t语言：具备粤语沟通能力，英语能读会写\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-baq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,Odoo,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Odoo&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,python%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python编程&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Python开发</t>
+          <t>Python技术管培生</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6千-1万</t>
+          <t>5.3千-1万</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>武汉·东湖新技术产业开发区</t>
+          <t>中山·东区</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1年及以上</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>本科</t>
-        </is>
-      </c>
+          <t>无需经验</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>武汉先龙科技有限公司</t>
+          <t>中山华定科技有限公司</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['        公司专注水务、智能控制及物联网领域：&lt;br&gt;1、智慧水务。实现“水源、水厂、管网、泵房、水表”全程监控管理。&lt;br&gt;2、供水设备、自动控制柜和泵房供水工程。&lt;br&gt;3、智能电站。通过光伏+储能+智能调度，降低电费、低碳减排。&lt;br&gt;4、物联网设备。数据采集仪、PLC、水浸传感器等自带物联网功能，支持远程控制与数据传送。&lt;br&gt;&lt;br&gt;职责：&lt;br&gt;1、物联网设备端python软件开发；&lt;br&gt;2、云平台系统的前端开发。&lt;br&gt;&lt;br&gt;&lt;br&gt;职能要求：&lt;br&gt;1、年龄：22一30。学历：本科及以上，数学、物理、机械、软件工程、计算机、电子、通信、自动化等专业；&lt;br&gt;2、 掌握python语言，有ESP32开发经验优先，至少有1年的工作经验。&lt;br&gt;3、 具备网络和通信基础知识，能够排查一般的网络通信故障；&lt;br&gt;4、有较强的语言表达能力和人际关系处理能力、较好的学习能力和实践能力；有较高的诚信度和责任感，较好的团队合作精神；具备协调能力和处理解决问题的能力。&lt;br&gt;5、 具有良好的职业道德及职业操守；：&lt;br&gt;6、月薪:基本6000+绩效，周末双休，五险、节日福利、年终奖、定期体检\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;22-30岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuhan-dhxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        ★★欢迎对人工智能领域感兴趣的应聘者加入，内部提供类ChatGPT/AI人工智能小助理等多款工具，协助团队提升工作效率并发掘新的业务增长点★★&lt;br&gt;&lt;br&gt;【我们需要这样的你】&lt;br&gt;1）心态积极阔达、坦诚自信、乐观进取；（当看到半杯水的时候会觉得自己拥有了半杯水，而不是只有这半杯水，更多关注杯子的外侧，通过了解未知的未知保持空杯心态）&lt;br&gt;2）善于思考与创新，愿意持续学习新知识，内驱力强，喜欢“跳出已有框架”思考问题，不为自己设限&lt;br&gt;&lt;br&gt;【目前岗位工作内容比重】&lt;br&gt;★专业技能工作（开发创作、优化升级）：10%&lt;br&gt;★事务性工作（系统维护、资料处理、会务参与、技术服务、业务沟通）：90%&lt;br&gt;&lt;br&gt;【工作职责】&lt;br&gt;1、参与软件开发项目，负责Python相关项目需求的代码设计、编写、测试和维护。&lt;br&gt;2、能够遵守公司制定的开发流程和规范根据需求进行相应的开发工作，学习和掌握公司的技术框架和工具，保证项目质量和进度。&lt;br&gt;3、与团队成员协作，解决项目中出现的问题。&lt;br&gt;4、积极学习新技术，提高自身技能水平。&lt;br&gt;&lt;br&gt;【任职条件】&lt;br&gt;1、熟悉Python语言，熟悉常用的Python框架（如Django、Flask等）。&lt;br&gt;2、具备良好的逻辑思维能力和代码编写能力。&lt;br&gt;3、具备良好的团队合作精神和沟通能力。&lt;br&gt;4、熟悉Gitflow、GitHub flow、CICD等。&lt;br&gt;5、熟悉数据库基础知识，如My SQL等者优先考虑。&lt;br&gt;6、有相关实习或工作经验者优先考虑。&lt;br&gt;&lt;br&gt;【具体上班时间】&lt;br&gt;星期一&amp;amp;六 08:00-15:30（含早餐与午餐时间1.5小时）&lt;br&gt;星期二至五 08:00-17:30（含早餐与午餐时间1.5小时）&lt;br&gt;&lt;br&gt;【薪金待遇】&lt;br&gt;考核期两个月：5388-10388元/月（包含：日勤奖、交通补贴、话费补贴、就餐补贴等，合计超过858元）。&lt;br&gt;★考核期后按照部门薪酬制度执行。&lt;br&gt;&lt;br&gt;【在职培训】&lt;br&gt;1、入职初期，公司会安排相关导师指导新人，帮助新人尽快融入公司和熟悉工作内容。&lt;br&gt;2、公司将定期为在职同事提供职业发展培训，帮助在职同事寻找未来职业方向，实现发展目标。&lt;br&gt;&lt;br&gt;【晋升方向】&lt;br&gt;人性化的发展道路：可根据自身岗位发展目标和方向需求，选择不同路线晋升：&lt;br&gt;★团队发展方向：M1----M2----M3----M4----M5----M6----M7----M8&lt;br&gt;★个人发展方向：P1----P2----P3----P4----P5----P6----P7----P8----P9&lt;br&gt;&lt;br&gt;【办公地点】&lt;br&gt;★应聘时可沟通选择意向办公点：&lt;br&gt;1、中山市西区街道金港路48号美林假日翰林苑4期164-167卡&lt;br&gt;2、中山市港口镇港口银库路8号裕港豪庭二期52卡&lt;br&gt;3、中山市火炬开发区伟盛路12号幸福旭日家园1栋6卡&lt;br&gt;4、中山市东区街道兴政路1号中环广场1栋5楼&lt;br&gt;&lt;br&gt;如果你积极上进，不甘平凡，渴望过上快乐工作、快乐生活的日子，赶快加入华定吧！我们为你提供丰厚的收入以及良好的晋升平台。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;20-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhongshan-dq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E7%25BC%2596%25E5%2586%2599,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码编写&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25A8%258B%25E5%25BA%258F%25E5%2591%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;程序员&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;管培生&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030700,030702,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E7%25AE%25A1%25E5%259F%25B9%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术管培生&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>python算法工程师</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5千-1万·13薪</t>
+          <t>1-1.5万</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>厦门·思明区</t>
+          <t>珠海·珠海高新区</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>厦门凡祈丰科技有限公司</t>
+          <t>珠海天海风云科技有限公司</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['        【岗位职责】&lt;br&gt;1、参与系统需求分析，架构设计及原型实现；&lt;br&gt;2、负责项目业务系统相关的开发、测试工作；&lt;br&gt;3、协助项目组完成项目的交付，包括需求沟通及相关文档的编写。&lt;br&gt;【职位要求】&lt;br&gt;1、大专及以上学历，计算机或其它相关专业专科及以上学历，英语语言能力较好、2年或2年以上同技术开发工作经验；&lt;br&gt;2、具备扎实的计算机系统知识，具有 Python 开发项目经验，能够独立承担python 开发任务；&lt;br&gt;3、至少了解使用过 pyhon-opencv 、mongo 、mysql  等 python 第三方库；&lt;br&gt;4.  熟悉或了解过 python 的ansyncio 、多线程、多进程管理和使用；熟悉Linux系统和网络相关知识。&lt;br&gt;5、良好的个人品质，良好的软件开发素养及信息安全素养，有责任感，较强的沟通能力，具有团队合作精神。&lt;br&gt;6、另招本科及硕士相关专业兼职，有意投简历联系。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/xiamen-smq/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110300,110301,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        公司办公地点在珠海市唐家湾港湾1号~&lt;br&gt;（学历需全日制且学信网可查，必要时需提供社保缴费记录辅助证明简历工作经验，本司诚恳招人，求投递求职者诚信求职，发现简历造假将取消录取入职）&lt;br&gt;&lt;br&gt;&lt;br&gt;一、岗位职责&lt;br&gt;1、后端业务逻辑层、数据层的开发。&lt;br&gt;2、业务系统的优化改正、按计划完成任务、确保系统稳定可靠运行。&lt;br&gt;&lt;br&gt;二、岗位要求&lt;br&gt;1、本科或者以上学历、计算机及相关专业毕业、扎实的基础知识、能看懂源码、理解其中的原理。&lt;br&gt;2、3年以上全职python开发经验、精通python程序设计、熟悉Django或Tornado及Numpy、Pandas、Matplotlib等算法库。&lt;br&gt;3、熟悉至少一种关系型数据库，如 MySQL、Oracle、PostgreSQL，熟悉缓存数据库 Redis。&lt;br&gt;4、了解 Linux 操作系统及Docker容器技术，熟悉常见Shell指令。&lt;br&gt;5、良好的系统分析设计能力、文档管理能力及编程习惯。&lt;br&gt;6、为人中肯,有强烈的责任心和团队合作精神，积极融入团队。&lt;br&gt;&lt;br&gt;三、加分项&lt;br&gt;1、熟悉气象、水文相关的知识。&lt;br&gt;2、web前端开发相关经验。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhuhai-zhgx/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,shell,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;shell&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,%25E5%2585%25B3%25E7%25B3%25BB%25E5%259E%258B%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;关系型数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,web%25E5%2589%258D%25E7%25AB%25AF%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web前端开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,postgresql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;postgresql&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1-1.6万·13薪</t>
+          <t>1-1.2万</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>成都·武侯区</t>
+          <t>深圳·福田区</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1289,39 +1293,39 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.663")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.671")&gt;</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>宁波思艾特软件有限公司</t>
+          <t>深圳市紫川软件有限公司</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;在Agile的开发模式下，按时完成公司大数据项目的开发、功能及性能测试&lt;br&gt;根据产品具体要求，承担开发任务，按计划完成任务目标；&lt;br&gt;参与需求提出合理的项目实施方案；&lt;br&gt;参与系统的需求分析、设计、编码等开发工作；&lt;br&gt;参与系统的运营和维护工作，保证系统稳定可靠运行；&lt;br&gt;根据公司要求编写相关技术文档；&lt;br&gt;项目过程中，和队员之间做好良好的沟通和交流，及时发现和处理问题&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.本科及以上学历，3-5年工作经验。计算机相关专业优先，熟悉常用的数据结构和算法；&lt;br&gt;2.熟练使用Spark分布式运算框架&lt;br&gt;3.了解并熟悉用PySpark处理分析数据，对Spark SQL的熟练使用&lt;br&gt;4.熟练使用Python编写数据处理脚本&lt;br&gt;5.能够对脚本进行逻辑分析和性能调优&lt;br&gt;6.熟悉Azure Databricks环境&lt;br&gt;7.良好的英语书面沟通能力\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;40岁以下&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-whq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E5%25A4%25A7%25E6%2595%25B0%25E6%258D%25AE,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;大数据&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E8%25B0%2583%25E4%25BC%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能调优&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术文档&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%25BB%2593%25E6%259E%2584%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据结构算法&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        1、全日制本科及以上学历；3-5年工作经验。&lt;br&gt;2、计算机基础扎实，熟悉Linux操作系统及常用命令，熟悉数据库基础知识及基础操作；&lt;br&gt;3、熟悉Python，熟悉Django框架；&lt;br&gt;4、具备较强的问题分析能力和解决能力；具备良好的学习能力、沟通协调能力、团队协作能力，有高度的工作责任心、抗压能力强。&lt;br&gt;5、有金融行业监管汇报、运维工具开发、系统运维者优先&lt;br&gt;岗位职责：&lt;br&gt;1、运维平台等系统功能需求的评估、排期和开发；&lt;br&gt;2、响应系统异常告警，及时处理系统异常，确保系统稳定；&lt;br&gt;3、负责跟进团队内的专项进度；&lt;br&gt;4、完成上级领导安排的其他工作。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E7%25B3%25BB%25E7%25BB%259F%25E8%25BF%2590%25E7%25BB%25B4,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;系统运维&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E8%25BF%2590%25E7%25BB%25B4%25E5%25B7%25A5%25E5%2585%25B7%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;运维工具开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E9%2597%25AE%25E9%25A2%2598%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;问题分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E5%25A4%2584%25E7%2590%2586%25E7%25B3%25BB%25E7%25BB%259F%25E5%25BC%2582%25E5%25B8%25B8,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;处理系统异常&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E8%25BF%2590%25E7%25BB%25B4%25E5%25B9%25B3%25E5%258F%25B0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;运维平台&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python开发</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1-1.6万·13薪</t>
+          <t>1-2万</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>成都·武侯区</t>
+          <t>杭州·余杭区</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3-5年</t>
+          <t>2-3年</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1331,39 +1335,39 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>宁波思艾特软件有限公司</t>
+          <t>浙江省公众信息产业有限公司</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;在Agile的开发模式下，按时完成公司大数据项目的开发、功能及性能测试&lt;br&gt;根据产品具体要求，承担开发任务，按计划完成任务目标；&lt;br&gt;参与需求提出合理的项目实施方案；&lt;br&gt;参与系统的需求分析、设计、编码等开发工作；&lt;br&gt;参与系统的运营和维护工作，保证系统稳定可靠运行；&lt;br&gt;根据公司要求编写相关技术文档；&lt;br&gt;项目过程中，和队员之间做好良好的沟通和交流，及时发现和处理问题&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.本科及以上学历，3-5年工作经验。计算机相关专业优先，熟悉常用的数据结构和算法；&lt;br&gt;2.熟练使用Spark分布式运算框架&lt;br&gt;3.了解并熟悉用PySpark处理分析数据，对Spark SQL的熟练使用&lt;br&gt;4.熟练使用Python编写数据处理脚本&lt;br&gt;5.能够对脚本进行逻辑分析和性能调优&lt;br&gt;6.熟悉Azure Databricks环境&lt;br&gt;7.良好的英语书面沟通能力\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;40岁以下&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-whq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E5%25A4%25A7%25E6%2595%25B0%25E6%258D%25AE,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;大数据&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E8%25B0%2583%25E4%25BC%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能调优&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术文档&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090204,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%25BB%2593%25E6%259E%2584%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据结构算法&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1. 负责后端API开发与功能维护；&lt;br&gt;2. 撰写接口与功能开发文档；&lt;br&gt;3.负责设计后台功能逻辑；&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.计算机相关专业,本科及以上学历，至少具有2-3年以上工作经验，有网络开发经验优先；&lt;br&gt;2.熟练掌握Python语言开发、Django开发框架、jinjia2模版、Linux系统的使用、MySql、Redis等常用数据库；&lt;br&gt;3.熟悉go语言优先;&lt;br&gt;4.具有很强的理解能力与学习能力，具有良好的团队合作精神和服务意识。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hangzhou-yhq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E6%258E%25A5%25E5%258F%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;接口&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E5%258A%259F%25E8%2583%25BD%25E7%25BB%25B4%25E6%258A%25A4,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;功能维护&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E7%25BD%2591%25E7%25BB%259C%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;网络开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,go%25E8%25AF%25AD%25E8%25A8%2580,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;go语言&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1-1.5万</t>
+          <t>1.2-2万·13薪</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>珠海·珠海高新区</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1373,17 +1377,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>珠海天海风云科技有限公司</t>
+          <t>广州广颖创网络科技有限公司</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['        公司办公地点在珠海市唐家湾港湾1号~&lt;br&gt;（学历需全日制且学信网可查，必要时需提供社保缴费记录辅助证明简历工作经验，本司诚恳招人，求投递求职者诚信求职，发现简历造假将取消录取入职）&lt;br&gt;&lt;br&gt;&lt;br&gt;一、岗位职责&lt;br&gt;1、后端业务逻辑层、数据层的开发。&lt;br&gt;2、业务系统的优化改正、按计划完成任务、确保系统稳定可靠运行。&lt;br&gt;&lt;br&gt;二、岗位要求&lt;br&gt;1、本科或者以上学历、计算机及相关专业毕业、扎实的基础知识、能看懂源码、理解其中的原理。&lt;br&gt;2、3年以上全职python开发经验、精通python程序设计、熟悉Django或Tornado及Numpy、Pandas、Matplotlib等算法库。&lt;br&gt;3、熟悉至少一种关系型数据库，如 MySQL、Oracle、PostgreSQL，熟悉缓存数据库 Redis。&lt;br&gt;4、了解 Linux 操作系统及Docker容器技术，熟悉常见Shell指令。&lt;br&gt;5、良好的系统分析设计能力、文档管理能力及编程习惯。&lt;br&gt;6、为人中肯,有强烈的责任心和团队合作精神，积极融入团队。&lt;br&gt;&lt;br&gt;三、加分项&lt;br&gt;1、熟悉气象、水文相关的知识。&lt;br&gt;2、web前端开发相关经验。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/zhuhai-zhgx/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,shell,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;shell&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,%25E5%2585%25B3%25E7%25B3%25BB%25E5%259E%258B%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;关系型数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,web%25E5%2589%258D%25E7%25AB%25AF%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web前端开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030500,030506,0000,00,9,99,postgresql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;postgresql&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        【岗位职责】&lt;br&gt;1. 使用Python语言开发AI应用；&lt;br&gt;2. 分析和评估现有数据集，并进行数据预处理和特征工程，以提高AI模型的准确性和性能；&lt;br&gt;3. 将AI模型集成到现有软件系统中，并进行测试和调试以确保其正常运行；&lt;br&gt;4. 提供技术支持和问题解决，确保AI模型的稳定性和应用效果。&lt;br&gt;&lt;br&gt;【岗位要求】&lt;br&gt;1. 计算机科学或相关领域本科学历，或者具有相关工作经验；&lt;br&gt;2. 熟练掌握Python编程语言【2年及以上的Python开发经验】 ；&lt;br&gt;3. 具备英语技术文档阅读和理解能力，能够独立学习和掌握新的技术知识。&lt;br&gt;4. 对机器学习和自然语言处理有基础理解；&lt;br&gt;5. 对AIGC等前沿AI技术有强烈兴趣，愿意不断学习和探索应用于业务场景。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/guangzhou/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E8%25B0%2583%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;调试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,ai,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ai&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%259C%25BA%25E5%2599%25A8%25E5%25AD%25A6%25E4%25B9%25A0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;机器学习&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA%25E7%25A7%2591%25E5%25AD%25A6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机科学&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%25A2%2584%25E5%25A4%2584%25E7%2590%2586,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据预处理&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%259B%2586,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据集&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E7%2589%25B9%25E5%25BE%2581%25E5%25B7%25A5%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;特征工程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E9%2597%25AE%25E9%25A2%2598%25E8%25A7%25A3%25E5%2586%25B3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;问题解决&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语技术文档&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
@@ -1395,17 +1399,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1-1.5万·13薪</t>
+          <t>7千-1.2万</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>无锡·滨湖区</t>
+          <t>苏州·吴中区</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1415,59 +1419,59 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>无锡宏创盛安科技有限公司</t>
+          <t>苏州城方信息技术有限公司</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['        岗位职责:&lt;br&gt;1.负责解决前后端开发流程中的各种痛点， 改进和优化开发流程、工具和架构&lt;br&gt;2.持续优化项目技术、保证代码质量和服务稳定，提升用户体验&lt;br&gt;3.跟踪新技术发展并运用到实际项目中&lt;br&gt;4.与底层开发团队紧密配合，确保代码有效对接，优化页面前端性能&lt;br&gt;任职需求:&lt;br&gt;1.3年以上前后端开发经验，统招本科以上学历，计算机，软件相关专业&lt;br&gt;2.熟练掌握HTML、CSS、JavaScript和PHP等，掌握Python/PHP的基本使用 &lt;br&gt;3.掌握Apache或Nginx等服务器的搭建配置，了解webservice&lt;br&gt;4.熟悉Django或Flask等框架的使用&lt;br&gt;5.熟悉Mysq｜数据库或其他常见数据库&lt;br&gt;6.熟悉Linux环境的的基本命令。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuxi-bhq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,css,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;css&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,html,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;html&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,javascript,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;javascript&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,php,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;php&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,apache,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;apache&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,%25E7%2594%25A8%25E6%2588%25B7%25E4%25BD%2593%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;用户体验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070404,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E8%25B4%25A8%25E9%2587%258F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码质量&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;    &lt;br&gt;1、负责产品、项目部分模块的开发，简单脚本及Demo的开发。&lt;br&gt;    &lt;br&gt;2、根据开发规范和流程，独立完成模块的设计、编码、测试及相关文档。&lt;br&gt;    &lt;br&gt;3、负责一定的产品维护和技术支持。&lt;br&gt;    &lt;br&gt;&lt;br&gt;    &lt;br&gt;任职要求：&lt;br&gt;    &lt;br&gt;1、 计算机相关专业全日制本科及以上学历；&lt;br&gt;    &lt;br&gt;2、熟悉python编程语言及flask、django、fastAPI等web开发框架。&lt;br&gt;    &lt;br&gt;3、熟悉mysql、postgresql、redis等主流数据库开发。&lt;br&gt;    &lt;br&gt;4、熟悉软件开发的流程，具有项目交付经验和能力。&lt;br&gt;    &lt;br&gt;5、了解敏捷开发流程加分。了解GIS方面知识加分。&lt;br&gt;    &lt;br&gt;6、具备良好的沟通、团队合作、技术指导能力，对解决挑战型问题充满激情。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/suzhou-wzq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070300,070303,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070300,070303,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>python开发工程师</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7千-1万</t>
+          <t>2-3万</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>深圳·罗湖区</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>4年及以上</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>北京迈捷映博科技有限公司</t>
+          <t>深圳市星火电子工程公司</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;1、定期推送售后指标的运营报表，及时监控指标运行情况；&lt;br&gt;2、通过数据分析，挖掘业务问题，提出优化建议；&lt;br&gt;3、日常业务数据的提供,维护业务部门的业务数据库；&lt;br&gt;4、对售后源数据进行收集、整理、存档，完善部门数据支撑平台。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、Excel的使用，熟练使用图表及函数功能，掌握VBA编程技能者优先；应届毕业生可培养&lt;br&gt;2、熟悉MySQL数据库的使用，熟练掌握SQL相关的DML数据操作语言；&lt;br&gt;3、了解基础的数据分析方法，包含：描述性分析、回归分析、方差分析；&lt;br&gt;4、有相关数据可视化工作经验、自动化报表开发工作经验者优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1.负责视频、图片相关数据处理&lt;br&gt;2.参与AI大模型训练开发，建立垂直行业应用模型，包括但不限于Moe、LongContext、RAG、Agent等方向&lt;br&gt;3.进行大模型分布式训练、调优、验证和部署&lt;br&gt;4.持续优化提升框架的性能和易用性，关注和追踪业界最新的技术趋势和研究成果&lt;br&gt;&lt;br&gt;岗位要求：&lt;br&gt;1、本科及以上学历，计算机相关专业；四年以上Python开发经验，1年以上大模型领域相关经验；&lt;br&gt;2、精通Python语言，掌握Django、Flask等主流web框架，熟练使用Pytorch、tensorflow训练框架；&lt;br&gt;3、具有深度学习领域的研究经历，熟悉Resnet、mobilenet、Retinaface、faceNet等卷积神经网络模型的训练及优化；&lt;br&gt;4、具有NLP语言大模型相关研究经历，熟悉Transformer、GPT 、Bert 等语言处理模型；&lt;br&gt;5、熟悉docker、k8s集群管理等分布式训练和部署；&lt;br&gt;6、具有良好的团队协作能力，热爱钻研技术，善于分析解决问题。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-luohuqu/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,%25E6%259C%25BA%25E5%2599%25A8%25E5%25AD%25A6%25E4%25B9%25A0%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;机器学习经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,%25E8%25B0%2583%25E4%25BC%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;调优&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,%25E6%25B7%25B1%25E5%25BA%25A6%25E5%25AD%25A6%25E4%25B9%25A0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;深度学习&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,tensorflow,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;tensorflow&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,transformer,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;transformer&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,agent,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;agent&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040200,0000,00,9,99,bert,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;bert&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
@@ -1484,54 +1488,54 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>北京·海淀区</t>
+          <t>重庆·巴南区</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1年</t>
+          <t>2年</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>点奇互联（北京）科技有限公司</t>
+          <t>重庆信驰科技有限公司</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['        .负责数据模型测试，包括确定测试范围、制定测试方案、优化测试过程、提高测工作职责:&lt;br&gt;2-运用数据挖掘/统计学习的理论和方法，深入挖掘和分析海量用户行为&lt;br&gt;3-根据项目需求，分析数据，建立适应的模型并解决业务需求，并规划和设计出对应的数据专题应用，以提升数据价值。&lt;br&gt;职位要求 ：&lt;br&gt;1、接受转行，应届优先，有志于IT、金融行业长远发展（金融、经济学专业可放宽至大专）；或对金融、IT行业有强烈意愿者。&lt;br&gt;2、要求大专以上学历，应届优先；&lt;br&gt;3、年龄20-29周岁；&lt;br&gt;4、计算机、软件、数学、统计学、经济、财务专业优先；&lt;br&gt;5、熟练使用ORACLE/DB2数据库优.\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;18-26岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-hdq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        1、负责项目代码业务逻辑的编写和维护；&lt;br&gt;&lt;br&gt;2、负责产品的新功能开发，项目重构，技术难点攻克； &lt;br&gt;&lt;br&gt;3、负责参与需求讨论，产品设计，功能开发。 &lt;br&gt;&lt;br&gt;4、负责产品运行稳定性维护&lt;br&gt;任职要求：&lt;br&gt; &lt;br&gt;1、具有odoo开发实施经验者，优先录取&lt;br&gt;&lt;br&gt;2、具有大数据处理经验，能解决数据高并发与服务器高性能优化&lt;br&gt;&lt;br&gt;3、具备大型分布式关系型、非关系型数据库设计应用能力。&lt;br&gt;&lt;br&gt;4、精通Python，具有python项目实施经验。&lt;br&gt;&lt;br&gt;5、熟练掌握Java，MySQL，linux，C等开发工具。&lt;br&gt;&lt;br&gt;6、有常用开源框架使用经验，熟悉常见的缓存技术;&lt;br&gt;&lt;br&gt;7、具备数据库设计能力，掌握多线程、多进程编程，具备优秀的编程能力，在常用功能实现方面有自己独到的设计；&lt;br&gt;&lt;br&gt;8、了解或熟悉HTML、CSS、Javascript等前端技术优先&lt;br&gt;&lt;br&gt;9、两年以上项目开发工作经验；&lt;br&gt;&lt;br&gt;10、具备良好的编码习惯及开发文档书写习惯；&lt;br&gt;&lt;br&gt;11、具有优秀的团队合作和沟通协作能力，善于学习，乐于分享，能承受较大工作压力；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chongqing-bnq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/060000,060900,0000,00,9,99,%25E9%25A1%25B9%25E7%259B%25AE%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;项目开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>python工程师</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2-2.5万</t>
+          <t>8千-1.5万</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>上海·浦东新区</t>
+          <t>无锡·新吴区</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1541,39 +1545,39 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>上海期货信息技术有限公司</t>
+          <t>无锡秉杰机械有限公司</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['        工作职责:&lt;br&gt;1、熟悉Python及其性能调优。熟练掌握基于Python的Web开发框架（FastAPI/Flask/Django) 等其中一种；&lt;br&gt;2、熟悉NLP主流大模型如chatGPT/LLaMA/GLM等。&lt;br&gt;3、有 model based engineering (prompt/RAG/Agent) 相关开发经验&lt;br&gt;4、熟练掌握tensorflow、pytorch等深度学习框架，有较强的算法工程能力: 熟悉主流文本生成的原理和方法，有结合业务的落地实践经验。&lt;br&gt;5、具有AI相关项目实践经验&lt;br&gt;任职资格:&lt;br&gt;1、本科学历相关从业年限不低于3年，计算机科学、软件工程、人工智能或相关专业&lt;br&gt;2、硕士年限不低于2年，计算机科学、软件工程、人工智能或相关专业；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-pdxq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Elasticsearch,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Elasticsearch&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        职位描述&lt;br&gt;技术要求：&lt;br&gt;1. 本科计算机相关专业 2年以上软件开发经验（接受应届生）&lt;br&gt;2. 熟练掌握python 熟悉opencv numpy qt库 理解其语言特性，会c#加分&lt;br&gt;3. 熟悉常用的数据结构 有一定算法基础，lintcode上刷过题加分&lt;br&gt;&lt;br&gt;工作内容：&lt;br&gt;1．负责视觉系统的设计，开发，部署，测试和优化。&lt;br&gt;2．负责现场追踪项目进度，解决相关性技术问题&lt;br&gt;3．负责根据项目效果协调生产工艺，完成系统产品设计，开发和现场验证等工作\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuxi-xwq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070405,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5千-1万·13薪</t>
+          <t>9千-1.2万</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>南宁·西乡塘区</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>1-3年</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1583,81 +1587,81 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>广西艾格软件技术有限公司</t>
+          <t>湖南拓维云创科技有限责任公司</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['        职责描述：&lt;br&gt;1、负责软件产品设计、开发、维护及新技术跟进，负责相关技术文档的撰写；&lt;br&gt;2、负责软件产品系统架构的优化，提升产品性能和稳定性；&lt;br&gt;3、负责软件产品上线后的技术支撑和服务，以支撑公司业务发展。&lt;br&gt;&lt;br&gt;任职要求:&lt;br&gt;1、本科及以上学历，计算机相关专业，2年以上python开发经验。 &lt;br&gt;2、熟悉python Django， pandas开发框架，有数据分析经验的优先。&lt;br&gt;3、熟悉Linux操作系统下开部署和维护工作，掌握Linux常用命令，了Vue前端技术，具有一定的Web前端开发能力。&lt;br&gt;4、了解neo4j数据库，熟悉mysql、sqlite、oracle等任一项database，熟悉sql；熟悉消息队列，熟悉容器化开发和部署。&lt;br&gt;5、熟悉HTTP/HTTPS协议、Git等开发、构建、版本控制工具，熟练使用RESTful接口机制，熟悉使用JSON进行网络通信。&lt;br&gt;6、具有良好的编码功底，有业务设计经验，能解决疑难技术问题，有强烈的责任心和团队合作意识，具有较强的抗压能力、具备良好的沟通能力。&lt;br&gt;7、有一定英文文档阅读能力，良好新技术学习能力为加分项；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanning-xxtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,Pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,%25E6%259C%2589%25E5%2589%258D%25E7%25AB%25AF%25E7%25BB%258F%25E9%25AA%258C%252F%25E6%258A%2580%25E8%2583%25BD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;有前端经验/技能&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/140200,140203,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责:（正常双休 法定节假日全休 线上电话面试）&lt;br&gt;1.负责Python软件、服务器程序、网站后台设计，相关算法研发和优化。&lt;br&gt;2.参与应用设计与方案讨论。&lt;br&gt;3.负责实现软件、应用程序代码，建立和完善开发文档。&lt;br&gt;4.协助对所开发的功能进行测试，协助产品部署。岗位要求:&lt;br&gt;1.熟练掌握Python的使用，有一定的python web开发经验，熟悉Tornado优先。&lt;br&gt;2.至少会使用一种数据库技术，如Oracle、SQL Sever、Mysql、PostgreSQL等。&lt;br&gt;3.熟悉Bootstrap、Node.js、.NET、Linux Shell优先。&lt;br&gt;4.有良好的编程习惯，沟通能力强，能够独自编写技术文档。&lt;br&gt;5.具备较好的学习能力、问题分析能力，可以独立调试解决问题。&lt;br&gt;6.良好的沟通协调能力和团队合作意识，工作踏实，态度积极，能够承受工作压力。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;23-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E8%25B0%2583%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;调试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,shell,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;shell&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,.net,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;.net&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术文档&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,postgresql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;postgresql&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Python开发</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1-2万</t>
+          <t>9千-1.3万</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>杭州·余杭区</t>
+          <t>东莞·凤岗镇</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-3年</t>
+          <t>1年及以上</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>浙江省公众信息产业有限公司</t>
+          <t>东莞宇宙电路板设备有限公司</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;1. 负责后端API开发与功能维护；&lt;br&gt;2. 撰写接口与功能开发文档；&lt;br&gt;3.负责设计后台功能逻辑；&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.计算机相关专业,本科及以上学历，至少具有2-3年以上工作经验，有网络开发经验优先；&lt;br&gt;2.熟练掌握Python语言开发、Django开发框架、jinjia2模版、Linux系统的使用、MySql、Redis等常用数据库；&lt;br&gt;3.熟悉go语言优先;&lt;br&gt;4.具有很强的理解能力与学习能力，具有良好的团队合作精神和服务意识。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hangzhou-yhq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E6%258E%25A5%25E5%258F%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;接口&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E5%258A%259F%25E8%2583%25BD%25E7%25BB%25B4%25E6%258A%25A4,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;功能维护&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,%25E7%25BD%2591%25E7%25BB%259C%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;网络开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080207,0000,00,9,99,go%25E8%25AF%25AD%25E8%25A8%2580,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;go语言&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        工作内容： 主要工作方向为AI大语言模型开发 &lt;br&gt;1：根据业界开源的大语言模型为基础，开发自有系统，Lora微调，全量微调，增量微调等工作&lt;br&gt;2*，研究业内AI发展大方向，应用落地。 &lt;br&gt;要求： &lt;br&gt;1：熟悉Python等后端开发语言，熟悉python下的推理学习框架&lt;br&gt;2：熟悉大语言模型，有过实际的应用开发经验。&lt;br&gt;3：熟悉关系型，非关系型数据库中的任意一种。&lt;br&gt;4：要求有一年以上实际开发工作经验。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan-fgz/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%2590%258E%25E7%25AB%25AF%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后端开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%25BA%2594%25E7%2594%25A8%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;应用开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%2585%25B3%25E7%25B3%25BB%25E5%259E%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;关系型&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python后端工程师</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1-2万·13薪</t>
+          <t>1.7-2.5万·14薪</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>杭州·钱塘区</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>5-7年</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1667,81 +1671,81 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>广州纳诺新材料科技有限公司</t>
+          <t>杭州研一智控科技有限公司</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['        职位描述&lt;br&gt;1、参与软件项目的需求分析、设计、编码、测试、部署和维护工作；&lt;br&gt;2、根据项目需求，编写详细的设计文档和代码注释；&lt;br&gt;3、负责软件模块的开发、优化和重构，提高软件性能和可维护性；&lt;br&gt;4、跟踪项目进度，确保按时交付高质量的软件产品；&lt;br&gt;5、参与团队技术分享与讨论，关注行业技术发展趋势，学习和掌握新技术，为项目开发提供技术支持。&lt;br&gt;职位要求&lt;br&gt;1、本科及以上学历，计算机理工科相关专业；&lt;br&gt;2、3年以上软件开发经验；&lt;br&gt;3、熟练掌握Python语言及其基本语法，熟悉常用的Python开发框架和库，具备良好的编程习惯。&lt;br&gt;4、具备一定的算法和数据结构基础，能够解决常见的编程问题。&lt;br&gt;5、了解Linux操作系统和常用的命令行操作。&lt;br&gt;6、熟练掌握web开发技术，有前端开发能力，有odoo开发经验的优先。&lt;br&gt;7、良好的编程习惯、热爱软件开发工作、逻辑思维能力强，工作认真负责；&lt;br&gt;8、具有一定的沟通和设计能力，能根据需求开发正确的系统，能适应出差；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/guangzhou/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E5%2589%258D%25E7%25AB%25AF%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;前端开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%25BB%2593%25E6%259E%2584,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据结构&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E9%25A1%25B9%25E7%259B%25AE%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;项目开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E7%25BB%25B4%25E6%258A%25A4,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;维护&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1.负责已有产品或者项目的优化、升级维护等工作； &lt;br&gt;2.负责新项目子系统/功能模块的设计、编码、单元测试和集成部署以及技术文档编写等相关工作； &lt;br&gt;3.参与核心功能的架构与代码模板编写，开发与维护系统公用核心模块； &lt;br&gt;4.参与产品/项目业务规划，讨论并提出有建设性的意见； &lt;br&gt;&lt;br&gt;&lt;br&gt;岗位要求：&lt;br&gt;1.全日制统招本科以上学历，计算机相关专业；&lt;br&gt;2.5年以上python开发经验，能独立进行功能开发；&lt;br&gt;3.熟练掌握Python web开发框架，精通Flask、Django或者其他Python Web框架中的一种；&lt;br&gt;4.熟练掌握SQL语言，熟悉Mysql、Sqlite数据库，能设计良好的数据库结构；&lt;br&gt;5.对前端有一定的了解。&lt;br&gt;&lt;br&gt;福利待遇：&lt;br&gt;1.周末双休&lt;br&gt;2.全年14薪&lt;br&gt;3.员工体检&lt;br&gt;4.节日福利&lt;br&gt;5.季度奖金激励&lt;br&gt;6.一年四次调薪机会\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;27-40岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hangzhou-qtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080215,0000,00,9,99,%25E5%258A%259F%25E8%2583%25BD%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;功能开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080215,0000,00,9,99,python%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python运维开发工程师</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.2-2万·13薪</t>
+          <t>8千-1.5万</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>深圳·福田区</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>广州广颖创网络科技有限公司</t>
+          <t>深圳市睿服科技有限公司</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['        【岗位职责】&lt;br&gt;1. 使用Python语言开发AI应用；&lt;br&gt;2. 分析和评估现有数据集，并进行数据预处理和特征工程，以提高AI模型的准确性和性能；&lt;br&gt;3. 将AI模型集成到现有软件系统中，并进行测试和调试以确保其正常运行；&lt;br&gt;4. 提供技术支持和问题解决，确保AI模型的稳定性和应用效果。&lt;br&gt;&lt;br&gt;【岗位要求】&lt;br&gt;1. 计算机科学或相关领域本科学历，或者具有相关工作经验；&lt;br&gt;2. 熟练掌握Python编程语言【2年及以上的Python开发经验】 ；&lt;br&gt;3. 具备英语技术文档阅读和理解能力，能够独立学习和掌握新的技术知识。&lt;br&gt;4. 对机器学习和自然语言处理有基础理解；&lt;br&gt;5. 对AIGC等前沿AI技术有强烈兴趣，愿意不断学习和探索应用于业务场景。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/guangzhou/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E8%25B0%2583%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;调试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,ai,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ai&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%259C%25BA%25E5%2599%25A8%25E5%25AD%25A6%25E4%25B9%25A0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;机器学习&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA%25E7%25A7%2591%25E5%25AD%25A6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机科学&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%25A2%2584%25E5%25A4%2584%25E7%2590%2586,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据预处理&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%259B%2586,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据集&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E7%2589%25B9%25E5%25BE%2581%25E5%25B7%25A5%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;特征工程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E9%2597%25AE%25E9%25A2%2598%25E8%25A7%25A3%25E5%2586%25B3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;问题解决&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语技术文档&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        1、熟悉linux和windos操作系统的常用命令，具备问题排查经验者优先；&lt;br&gt;&lt;br&gt;2、具备一定的shell或者python或者java 前端开发能力，具备项目经验的优先；&lt;br&gt;&lt;br&gt;3、了解常用中间件（nginx、tomcat、kafka、redis等）用途并了解常用运维操作命令；&lt;br&gt;&lt;br&gt;4、工作认真负责、严谨， 态度积极主动，能承担一定工作压力，有良好的团队合作精神，善沟通；&lt;br&gt;&lt;br&gt;5、具有较强逻辑分析、总结能力\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/yunweikaifa/"&gt;运维开发&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,shell,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;shell&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;文档&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Python全栈工程师</t>
+          <t>高级Python开发工程师</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5-8千·13薪</t>
+          <t>1.5-2.2万</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>6年及以上</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1751,17 +1755,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>合肥数聚云数据有限公司</t>
+          <t>上海西信信息科技股份有限公司</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['        1从事爬虫数据分析&lt;br&gt;2精通mysql数据库&lt;br&gt;3会Linux等运维等\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hefei/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/150200,000000,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/150200,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        6年以上工作经验&lt;br&gt;要求具备良好的Python知识，***使用Java/Go等其他编程语言&lt;br&gt;熟悉流行的后端框架，如Django&lt;br&gt;熟悉SQL和NoSQL数据库&lt;br&gt;使用Azure、AWS、GCP等公共云平台的经验&lt;br&gt;有公共云定价模型知识者优先&lt;br&gt;熟悉Redis和消息队列技术&lt;br&gt;具备GenAI和数据分析知识者优先&lt;br&gt;有SAP BTP或其他PaaS云原生开发经验者优先\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
@@ -1773,17 +1777,13 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1-2万·15薪</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
+          <t>6千-1.2万·13薪</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2年</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1793,39 +1793,39 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>上海念空数据科技中心（有限合伙）</t>
+          <t>沈阳颁德优化科技有限公司</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;1、优化现有量化研究平台；&lt;br&gt;2、优化现有python实盘处理程序；&lt;br&gt;3、开发统计量化数据指标；&lt;br&gt;4、帮助研究员提升python数据处理效率。&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、熟练的python开发能力， 熟悉基于python的数据处理框架， numpy和pandas；&lt;br&gt;2、熟悉socket编程；&lt;br&gt;3、熟悉多线程、多进程的开发；&lt;br&gt;4、有基金、券商相关工作经验优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25B7%25A5%25E7%25A8%258B%25E5%25B8%2588,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        颁德优化科技Benders Optimal Technology 于2020年底开始运作，近三年以来，公司业务不断扩展，现需要招聘程序员一名，要求如下：&lt;br&gt;1. 计算机软件本科或硕士毕业，本科要求4年计算机专业或紧密相关专业。&lt;br&gt;2. 熟练基本数据结构和常用算法，理解基本设计模式&lt;br&gt;3. 熟练Python及Pandas, Numpy等常用库。&lt;br&gt;4. 熟练Pycharm, Git, Excel等常用工具&lt;br&gt;5. 熟练数据库操作SQL语言，PostgreSQL等数据库。&lt;br&gt;6. 了解前端Flutter。&lt;br&gt;7. 了解Java语言及spring framework, spring boot. AWS cloud, docker, Redis等工具。&lt;br&gt;8. 英语阅读能力强，至少英语四级；学习新技术能力强。&lt;br&gt;9. 喜欢会计知识，愿意理解个人税表，财务报表等优先。&lt;br&gt;&lt;br&gt;本公司软件产品主要面向美国市场及客户，需要能够准确理解英文文档，英语水平一般者恐难以胜任。本公司目前是远程工作模式，只要按时提交代码即可，不必到办公室上班。未来会根据员工意愿及地理分布，在国内设立办公室。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/all/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;算法&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD%25E9%2598%2585%25E8%25AF%25BB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语阅读&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Python开发</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1-1.2万</t>
+          <t>1-2万·15薪</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>成都·高新区</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1-3年</t>
+          <t>2年</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1835,123 +1835,123 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>湖南拓维云创科技有限责任公司</t>
+          <t>上海念空数据科技中心（有限合伙）</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['        1.负责Python软件、服务器程序、网站后台设计，相关算法研发和优化。&lt;br&gt;2.参与应用设计与方案讨论。&lt;br&gt;3.负责实现软件、应用程序代码，建立和完善开发文档。&lt;br&gt;4.协助对所开发的功能进行测试，协助产品部署。岗位要求:&lt;br&gt;1.熟练掌握Python的使用，有一定的python web开发经验，熟悉Tornado优先至少会使用一种数据库技术，如Oracle、SQLSever、Mysql、PostgreSQL等3.熟悉Bootstrap、Node.js、.NET、Linux Shell优先。4.有良好的编程习惯，沟通能力强，能够独自编写技术文档。5.具备较好的学习能力、问题分析能力，可以独立调试解决问题。6.良好的沟通协调能力和团队合作意识,工作踏实，态度积极，能够承受工作压力。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-gxq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Tornado,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Tornado&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090220,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1、优化现有量化研究平台；&lt;br&gt;2、优化现有python实盘处理程序；&lt;br&gt;3、开发统计量化数据指标；&lt;br&gt;4、帮助研究员提升python数据处理效率。&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、熟练的python开发能力， 熟悉基于python的数据处理框架， numpy和pandas；&lt;br&gt;2、熟悉socket编程；&lt;br&gt;3、熟悉多线程、多进程的开发；&lt;br&gt;4、有基金、券商相关工作经验优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25B7%25A5%25E7%25A8%258B%25E5%25B8%2588,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8千-1.5万</t>
+          <t>1-1.5万·14薪</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>北京·海淀区</t>
+          <t>西安·高新技术产业开发区</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1年</t>
+          <t>3-4年</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>点奇互联（北京）科技有限公司</t>
+          <t>西安鹰之航航空科技股份有限公司</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['        .负责数据模型测试，包括确定测试范围、制定测试方案、优化测试过程、提高测工作职责:&lt;br&gt;2-运用数据挖掘/统计学习的理论和方法，深入挖掘和分析海量用户行为&lt;br&gt;3-根据项目需求，分析数据，建立适应的模型并解决业务需求，并规划和设计出对应的数据专题应用，以提升数据价值。&lt;br&gt;职位要求 ：&lt;br&gt;1、接受转行，应届优先，有志于IT、金融行业长远发展（金融、经济学专业可放宽至大专）；或对金融、IT行业有强烈意愿者。&lt;br&gt;2、要求大专以上学历，应届优先；&lt;br&gt;3、年龄20-29周岁；&lt;br&gt;4、计算机、软件、数学、统计学、经济、财务专业优先；&lt;br&gt;5、熟练使用ORACLE/DB2数据库优.\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;18-26岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-hdq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1、根据需求完成航空设备项目的开发；&lt;br&gt;2、完成航空设备软件模块的设计实现以及文档编写工作。&lt;br&gt;任职要求：&lt;br&gt;1.具有2年以上开发工作经验，熟悉Python，有较好的Pytest、PyQT基础；&lt;br&gt;2.具有军工领域航空设备项目经验优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/xian-gxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/200200,200214,0000,00,9,99,pytest,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pytest&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/200200,200214,0000,00,9,99,pyqt,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pyqt&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/200200,200214,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>python量化开发工程师</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9千-1.3万</t>
+          <t>1-2万</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东莞·凤岗镇</t>
+          <t>上海·浦东新区</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1年及以上</t>
+          <t>5-7年</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>东莞宇宙电路板设备有限公司</t>
+          <t>仁中（上海）股权投资基金管理有限公司</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['        工作内容： 主要工作方向为AI大语言模型开发 &lt;br&gt;1：根据业界开源的大语言模型为基础，开发自有系统，Lora微调，全量微调，增量微调等工作&lt;br&gt;2*，研究业内AI发展大方向，应用落地。 &lt;br&gt;要求： &lt;br&gt;1：熟悉Python等后端开发语言，熟悉python下的推理学习框架&lt;br&gt;2：熟悉大语言模型，有过实际的应用开发经验。&lt;br&gt;3：熟悉关系型，非关系型数据库中的任意一种。&lt;br&gt;4：要求有一年以上实际开发工作经验。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan-fgz/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%2590%258E%25E7%25AB%25AF%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后端开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%25BA%2594%25E7%2594%25A8%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;应用开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%2585%25B3%25E7%25B3%25BB%25E5%259E%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;关系型&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        1． 负责量化交易系统设计开发，股票、期货交易API接入&lt;br&gt;2． 构建高并发低延时行情系统及低延时交易执行系统 &lt;br&gt;3． 金融数据库性能优化及日常维护&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1． 喜欢钻研技术，认真踏实，责任心强，沟通良好&lt;br&gt;2． 五年以上python工作经验&lt;br&gt;3． 高效、低延时、大数据金融系统相关开发经验\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-pdxq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25B7%25A5%25E7%25A8%258B%25E5%25B8%2588,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件工程师&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591%25E5%25B7%25A5%25E7%25A8%258B%25E5%25B8%2588,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发工程师&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,%25E5%25B7%25A5%25E7%25A8%258B%25E5%25B8%2588,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;工程师&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python软件开发工程师</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8千-1.5万</t>
+          <t>6千-1.1万·13薪</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>重庆·巴南区</t>
+          <t>武汉·东湖新技术产业开发区</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2年</t>
+          <t>2年及以上</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1961,59 +1961,59 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>重庆信驰科技有限公司</t>
+          <t>武汉光至科技有限公司</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['        1、负责项目代码业务逻辑的编写和维护；&lt;br&gt;&lt;br&gt;2、负责产品的新功能开发，项目重构，技术难点攻克； &lt;br&gt;&lt;br&gt;3、负责参与需求讨论，产品设计，功能开发。 &lt;br&gt;&lt;br&gt;4、负责产品运行稳定性维护&lt;br&gt;任职要求：&lt;br&gt; &lt;br&gt;1、具有odoo开发实施经验者，优先录取&lt;br&gt;&lt;br&gt;2、具有大数据处理经验，能解决数据高并发与服务器高性能优化&lt;br&gt;&lt;br&gt;3、具备大型分布式关系型、非关系型数据库设计应用能力。&lt;br&gt;&lt;br&gt;4、精通Python，具有python项目实施经验。&lt;br&gt;&lt;br&gt;5、熟练掌握Java，MySQL，linux，C等开发工具。&lt;br&gt;&lt;br&gt;6、有常用开源框架使用经验，熟悉常见的缓存技术;&lt;br&gt;&lt;br&gt;7、具备数据库设计能力，掌握多线程、多进程编程，具备优秀的编程能力，在常用功能实现方面有自己独到的设计；&lt;br&gt;&lt;br&gt;8、了解或熟悉HTML、CSS、Javascript等前端技术优先&lt;br&gt;&lt;br&gt;9、两年以上项目开发工作经验；&lt;br&gt;&lt;br&gt;10、具备良好的编码习惯及开发文档书写习惯；&lt;br&gt;&lt;br&gt;11、具有优秀的团队合作和沟通协作能力，善于学习，乐于分享，能承受较大工作压力；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chongqing-bnq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/060000,060900,0000,00,9,99,%25E9%25A1%25B9%25E7%259B%25AE%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;项目开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1、负责后端应用架构的设计和规范化工作；&lt;br&gt;2、独立完成需求分析、系统软件设计、编码和测试工作；&lt;br&gt;3、负责公司产品的开发和维护更新工作，并对交付质量负责；&lt;br&gt;4、编写相关的开发文档，如设计文档，测试文档等。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、计算机及相关专业本科学历，2年以上开发经验；&lt;br&gt;2、熟悉Python常用后端框架如Django、Flask等；&lt;br&gt;3、熟悉数据库的操作及维护(MySQL、Redis等)，能熟练进行数据库设计与优化，和数据库操作技术sqlalchemy；&lt;br&gt;4、熟悉Linux 的操作；&lt;br&gt;5、良好的沟通能力，工作积极主动，责任心强，具有团队协作、独立完成工作能力；&lt;br&gt;6、会使用docker优先，了解ERP、MES系统相关开发优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuhan-dhxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,erp,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;erp&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库设计&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python开发</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1-1.6万·13薪</t>
+          <t>6千-1万</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>宁波·鄞州区</t>
+          <t>武汉·东湖新技术产业开发区</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>1年及以上</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>宁波思艾特软件有限公司</t>
+          <t>武汉先龙科技有限公司</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;在Agile的开发模式下，按时完成公司大数据项目的开发、功能及性能测试&lt;br&gt;根据产品具体要求，承担开发任务，按计划完成任务目标；&lt;br&gt;参与需求提出合理的项目实施方案；&lt;br&gt;参与系统的需求分析、设计、编码等开发工作；&lt;br&gt;参与系统的运营和维护工作，保证系统稳定可靠运行；&lt;br&gt;根据公司要求编写相关技术文档；&lt;br&gt;项目过程中，和队员之间做好良好的沟通和交流，及时发现和处理问题&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.大专及以上学历，计算机相关专业优先，熟悉常用的数据结构和算法；&lt;br&gt;2.熟练使用Spark分布式运算框架&lt;br&gt;3.了解并熟悉用PySpark处理分析数据，对Spark SQL的熟练使用&lt;br&gt;4.熟练使用Python编写数据处理脚本&lt;br&gt;5.能够对脚本进行逻辑分析和性能调优&lt;br&gt;6.熟悉Azure Databricks环境&lt;br&gt;7.良好的英语书面沟通能力\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;40岁以下&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/ningbo-yzq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E5%25A4%25A7%25E6%2595%25B0%25E6%258D%25AE,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;大数据&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E8%25B0%2583%25E4%25BC%2598,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能调优&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术文档&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080300,080306,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%25BB%2593%25E6%259E%2584%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据结构算法&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        公司专注水务、智能控制及物联网领域：&lt;br&gt;1、智慧水务。实现“水源、水厂、管网、泵房、水表”全程监控管理。&lt;br&gt;2、供水设备、自动控制柜和泵房供水工程。&lt;br&gt;3、智能电站。通过光伏+储能+智能调度，降低电费、低碳减排。&lt;br&gt;4、物联网设备。数据采集仪、PLC、水浸传感器等自带物联网功能，支持远程控制与数据传送。&lt;br&gt;&lt;br&gt;职责：&lt;br&gt;1、物联网设备端python软件开发；&lt;br&gt;2、云平台系统的前端开发。&lt;br&gt;&lt;br&gt;&lt;br&gt;职能要求：&lt;br&gt;1、年龄：22一30。学历：本科及以上，数学、物理、机械、软件工程、计算机、电子、通信、自动化等专业；&lt;br&gt;2、 掌握python语言，有ESP32开发经验优先，至少有1年的工作经验。&lt;br&gt;3、 具备网络和通信基础知识，能够排查一般的网络通信故障；&lt;br&gt;4、有较强的语言表达能力和人际关系处理能力、较好的学习能力和实践能力；有较高的诚信度和责任感，较好的团队合作精神；具备协调能力和处理解决问题的能力。&lt;br&gt;5、 具有良好的职业道德及职业操守；：&lt;br&gt;6、月薪:基本6000+绩效，周末双休，五险、节日福利、年终奖、定期体检\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;22-30岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuhan-dhxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
@@ -2025,101 +2025,101 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8千-1.5万</t>
+          <t>1-1.5万·13薪</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>北京·海淀区</t>
+          <t>深圳·宝安区</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1年</t>
+          <t>3-4年</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>点奇互联（北京）科技有限公司</t>
+          <t>骏兴纸业（深圳）有限公司</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['        .负责数据模型测试，包括确定测试范围、制定测试方案、优化测试过程、提高测工作职责:&lt;br&gt;2-运用数据挖掘/统计学习的理论和方法，深入挖掘和分析海量用户行为&lt;br&gt;3-根据项目需求，分析数据，建立适应的模型并解决业务需求，并规划和设计出对应的数据专题应用，以提升数据价值。&lt;br&gt;职位要求 ：&lt;br&gt;1、接受转行，应届优先，有志于IT、金融行业长远发展（金融、经济学专业可放宽至大专）；或对金融、IT行业有强烈意愿者。&lt;br&gt;2、要求大专以上学历，应届优先；&lt;br&gt;3、年龄20-29周岁；&lt;br&gt;4、计算机、软件、数学、统计学、经济、财务专业优先；&lt;br&gt;5、熟练使用ORACLE/DB2数据库优.\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;18-26岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-hdq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        职位描述：&lt;br&gt;参与一个全新度身打造的大型ERP管理系统项目开发和迁移工作，负责需求分析系统规划数据库建模和用Python编程工作，包括前端Web及后端模块。新系统主要功能模块包括销售采购库存供应链CRM等等，为企业实现业务流程自动化，标准化和信息化，提高企业业务效率，对外连接性和管理水平.&lt;br&gt;工作内容：&lt;br&gt;1.\t负责ERP系统模块设计、编码、测试、相关项目文档编写&lt;br&gt;2.\t日常維運系統，解決系統所發生異常狀況&lt;br&gt;3.\t其他主管交辦事項&lt;br&gt;&lt;br&gt;职位要求：&lt;br&gt;1.\t计算机或相关专业，具备3年以上开发工作经验&lt;br&gt;2.\t熟悉Python 或 Java语法，能够进行程序设计和开发；&lt;br&gt;3.\t熟悉PostgreSQL, Oracle等主流数据库&lt;br&gt;4.\t有Odoo开发经验者优先&lt;br&gt;5.\t其他语言和工具：PowerBuilder, HTML, JavaScript, SQL, docker, Git, JIRA, Pentaho，JasperReports&lt;br&gt;6.\t热爱软件开发，高度责任心、善于解难，逻辑思维清晰，有良好的沟通协调能力&lt;br&gt;7.\t语言：具备粤语沟通能力优先，能读会写英语\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-baq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,Odoo,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Odoo&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040500,0000,00,9,99,python%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python编程&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Python开发工程师 (MJ000280)</t>
+          <t>Python爬虫开发工程师</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.2-2万</t>
+          <t>1.5-2万</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>北京·朝阳区</t>
+          <t>上海·闵行区</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>6年及以上</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>横河电机（中国）有限公司</t>
+          <t>上海西信信息科技股份有限公司</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['        -面向云系统的上层应用开发&lt;br&gt;-AI等相关调研、开发&lt;br&gt;任职要求：&lt;br&gt;-计算机或自动控制等理工类相关专业本科（含）及以上学历&lt;br&gt;-Python数据分析开发经验、熟悉numpy、pandas的使用&lt;br&gt;-有JavaScript前端开发经验者优先&lt;br&gt;&lt;br&gt;&lt;br&gt;接收简历邮箱: YBDC_HR@gr.cn.yokogawa.com&lt;br&gt;投递简历请注明：职位名称-学校-毕业年份-姓名（校园招聘）&lt;br&gt;招聘流程:简历投递→笔试 → 初试/复试 → 最终面试  →签约\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-cyq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                            &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职位：&lt;br&gt;1.负责数据平台的数据采集、解析、清洗、入库及备份等数据日常工作；&lt;br&gt;2.负责采集脚本功能迭代开发及效率优化；&lt;br&gt;3.参与数据采集核心算法和策略优化，熟悉采集系统的调度策略；&lt;br&gt;4.参与监控系统的状态，实时监控采集任务的进度和警报反馈。&lt;br&gt;要求：&lt;br&gt;1.6年以上Python 爬虫从业经验&lt;br&gt;2.Python基础扎实，理解IO、多线程、集合等原理；&lt;br&gt;3.熟悉基于正则表达式、CSS、http协议、xml等的网页信息抽取技术；&lt;br&gt;4.熟悉常见的反爬机制，并对反爬具有一定的应对措施策略且有一定研究，如协议破解、模拟点击等；&lt;br&gt;5.良好的沟通、协作能力，具备独立解决问题的能力，对技术研究有强烈的兴趣；&lt;br&gt;6.有过Java后端开发验优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-mhq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,Nginx,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Nginx&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,Hadoop,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Hadoop&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,css,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;css&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,xml,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;xml&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,%25E5%25A4%259A%25E7%25BA%25BF%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;多线程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,%25E5%2585%25A5%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;入库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%2587%2587%25E9%259B%2586,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据采集&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,io,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;io&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,http%25E5%258D%258F%25E8%25AE%25AE,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;http协议&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,%25E7%259B%2591%25E6%258E%25A7%25E7%25B3%25BB%25E7%25BB%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;监控系统&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021100,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E7%25A0%2594%25E7%25A9%25B6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术研究&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Python后端工程师</t>
+          <t>Python爬虫工程师</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.7-2.5万·14薪</t>
+          <t>1.2-2万</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>杭州·钱塘区</t>
+          <t>上海·长宁区</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5-7年</t>
+          <t>2年及以上</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2129,39 +2129,39 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1270")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1283")&gt;</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>杭州研一智控科技有限公司</t>
+          <t>上海百秋新网商数字科技有限公司</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;1.负责已有产品或者项目的优化、升级维护等工作； &lt;br&gt;2.负责新项目子系统/功能模块的设计、编码、单元测试和集成部署以及技术文档编写等相关工作； &lt;br&gt;3.参与核心功能的架构与代码模板编写，开发与维护系统公用核心模块； &lt;br&gt;4.参与产品/项目业务规划，讨论并提出有建设性的意见； &lt;br&gt;&lt;br&gt;&lt;br&gt;岗位要求：&lt;br&gt;1.全日制统招本科以上学历，计算机相关专业；&lt;br&gt;2.5年以上python开发经验，能独立进行功能开发；&lt;br&gt;3.熟练掌握Python web开发框架，精通Flask、Django或者其他Python Web框架中的一种；&lt;br&gt;4.熟练掌握SQL语言，熟悉Mysql、Sqlite数据库，能设计良好的数据库结构；&lt;br&gt;5.对前端有一定的了解。&lt;br&gt;&lt;br&gt;福利待遇：&lt;br&gt;1.周末双休&lt;br&gt;2.全年14薪&lt;br&gt;3.员工体检&lt;br&gt;4.节日福利&lt;br&gt;5.季度奖金激励&lt;br&gt;6.一年四次调薪机会\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;27-40岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hangzhou-qtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080215,0000,00,9,99,%25E5%258A%259F%25E8%2583%25BD%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;功能开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080215,0000,00,9,99,python%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        Python爬虫工程师&lt;br&gt;&lt;br&gt;岗位职责：&lt;br&gt;1、负责公司日常数据采集任务开发，解析，清洗，存储工作&lt;br&gt;2、不断完善和重构现有的数据采集集群，通过对抓取，解析，调度，存储模块拆分和优化，逐步完善统一的数据采集服务平台&lt;br&gt;3、必须熟悉一套爬虫框架；例如Scrapy，Feapder框架等&lt;br&gt;&lt;br&gt;任职资格：&lt;br&gt;1、计算机相关专业本科及以上学历，2年以上工作经验&lt;br&gt;2、熟练掌握Python语言，对数据敏感，具有良好的逻辑分析能力&lt;br&gt;3、熟悉Cookie登录原理，熟练掌握xpath，CSS，正则等常用的信息抽取技术&lt;br&gt;4、熟练掌握SQL语言，熟悉主流数据库开发，有使用MySQL,ElasticSearch,Redis经验&lt;br&gt;5、学习能力强，能够独立解决问题，并且善于总结分享&lt;br&gt;6、拥有良好的团队合作及沟通能力&lt;br&gt;7、有一定的JS逆向能力，APP数据采集能力（加分项）&lt;br&gt;8、有淘宝，京东，抖音相关数据平台工作经验\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-cnq/pachonggongchengshi/"&gt;爬虫工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB%25E6%25A1%2586%25E6%259E%25B6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫框架&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E9%2587%2587%25E9%259B%2586,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据采集&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python 5G通信开发（需要出差香港）</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8千-1.5万</t>
+          <t>2-3万·13薪</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>无锡·新吴区</t>
+          <t>深圳·南山区</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2171,59 +2171,59 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>无锡秉杰机械有限公司</t>
+          <t>塔塔信息技术（中国）有限责任公司上海分公司</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['        职位描述&lt;br&gt;技术要求：&lt;br&gt;1. 本科计算机相关专业 2年以上软件开发经验（接受应届生）&lt;br&gt;2. 熟练掌握python 熟悉opencv numpy qt库 理解其语言特性，会c#加分&lt;br&gt;3. 熟悉常用的数据结构 有一定算法基础，lintcode上刷过题加分&lt;br&gt;&lt;br&gt;工作内容：&lt;br&gt;1．负责视觉系统的设计，开发，部署，测试和优化。&lt;br&gt;2．负责现场追踪项目进度，解决相关性技术问题&lt;br&gt;3．负责根据项目效果协调生产工艺，完成系统产品设计，开发和现场验证等工作\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuxi-xwq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070400,070405,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        Strong knowledge of LTE &amp;amp; 5G (NSA &amp;amp; SA) Technology and the different control layers (L1, RLC, RRC, NAS) as well as data plane protocols.&lt;br&gt;Expertise in Core Python(Data Structures, OOPs, Data types, File Handling, Exception Handling, Generators, Iterators, Multi Threading  etc)&lt;br&gt;Good hold on Python Statistical libraries (Ex. One or more of  Numpy, Scipy, Scikit etc)&lt;br&gt;Experience with Python GUI programming ( Ex. One or more of PyQT, TkInter etc)&lt;br&gt;Experience with Database interaction (Ex. SQL Lite)&lt;br&gt;Experience with ORM(Object relationship mappers) libraries. &lt;br&gt;Ability to translate the Wireless Cellular Technology Protocol knowledge into requirements &amp;amp; working code&lt;br&gt;Good to Have:&lt;br&gt;Familiiarity with Web frameworks such as Django, Flask.&lt;br&gt;Understanding of Multi-Process Architecture. &lt;br&gt;Basic understanding of front-end technologies, such as JavaScript, HTML5, and CSS3&lt;br&gt;Understanding of applying Data Science and ML paradigm in Python\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-nsq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040300,0000,00,9,99,CSS,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;CSS&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040300,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040300,0000,00,9,99,HTML,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;HTML&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040300,0000,00,9,99,Numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040300,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040300,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Python开发工程师</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9千-1.2万</t>
+          <t>6.8千-1.3万</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1-3年</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>湖南拓维云创科技有限责任公司</t>
+          <t>北京迈捷映博科技有限公司</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['        岗位职责:（正常双休 法定节假日全休 线上电话面试）&lt;br&gt;1.负责Python软件、服务器程序、网站后台设计，相关算法研发和优化。&lt;br&gt;2.参与应用设计与方案讨论。&lt;br&gt;3.负责实现软件、应用程序代码，建立和完善开发文档。&lt;br&gt;4.协助对所开发的功能进行测试，协助产品部署。岗位要求:&lt;br&gt;1.熟练掌握Python的使用，有一定的python web开发经验，熟悉Tornado优先。&lt;br&gt;2.至少会使用一种数据库技术，如Oracle、SQL Sever、Mysql、PostgreSQL等。&lt;br&gt;3.熟悉Bootstrap、Node.js、.NET、Linux Shell优先。&lt;br&gt;4.有良好的编程习惯，沟通能力强，能够独自编写技术文档。&lt;br&gt;5.具备较好的学习能力、问题分析能力，可以独立调试解决问题。&lt;br&gt;6.良好的沟通协调能力和团队合作意识，工作踏实，态度积极，能够承受工作压力。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;23-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E8%25B0%2583%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;调试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,shell,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;shell&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,.net,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;.net&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,%25E6%258A%2580%25E6%259C%25AF%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;技术文档&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,000000,0000,00,9,99,postgresql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;postgresql&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        职位说明：&lt;br&gt;1.负责公司 Web 项目以及 REST API 的开发；&lt;br&gt;2.完成数据统计与分析的工作。&lt;br&gt;3.可以公司培养。没经验看态度&lt;br&gt;任职要求：&lt;br&gt;1. 精通 Linux 下 Python Web 开发，有 Django 开发经验优先，有 REST API 开发经验优先； &lt;br&gt;2. 熟悉 MySQL，有 MongoDB 经验优先；&lt;br&gt;3. 熟悉 Web 前端（HTML/CSS/JS），有 jQuery/Bootstrap 经验优先；&lt;br&gt;4. 有除 Python 外，任一主流语言开发经验（C/C++/C#/Java/PHP等）；&lt;br&gt;5. 有自己的上线 Web 作品经验优先；&lt;br&gt;6. 有 git 使用经验优先；&lt;br&gt;7. 有第三方开放平台 API （如果微博/微信/百度等）使用经验优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/harbin/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/220200,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
@@ -2235,59 +2235,59 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9千-1.3万</t>
+          <t>2-2.4万</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东莞·凤岗镇</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1年及以上</t>
+          <t>5年及以上</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>东莞宇宙电路板设备有限公司</t>
+          <t>优华劳斯汽车系统(上海)有限公司</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['        工作内容： 主要工作方向为AI大语言模型开发 &lt;br&gt;1：根据业界开源的大语言模型为基础，开发自有系统，Lora微调，全量微调，增量微调等工作&lt;br&gt;2*，研究业内AI发展大方向，应用落地。 &lt;br&gt;要求： &lt;br&gt;1：熟悉Python等后端开发语言，熟悉python下的推理学习框架&lt;br&gt;2：熟悉大语言模型，有过实际的应用开发经验。&lt;br&gt;3：熟悉关系型，非关系型数据库中的任意一种。&lt;br&gt;4：要求有一年以上实际开发工作经验。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/dongguan-fgz/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%2590%258E%25E7%25AB%25AF%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后端开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%25BA%2594%25E7%2594%25A8%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;应用开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,%25E5%2585%25B3%25E7%25B3%25BB%25E5%259E%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;关系型&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030800,030831,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1.参与IVI软件的测试自动化方案设计和开发，主要负责车载导航、地图和语音模块开发及测试。&lt;br&gt;2.设计和开发Python功能/接口测试脚本，根据SPEC定义和业务需求。涵盖各模块如电子视野、音频、电源和诊断。&lt;br&gt;3.执行各模块测试脚本和维护自动化运行环境。&lt;br&gt;4.开发自动化结果分析工具和流程，通过总结归纳自动化执行过程中产生的现象和根本原因。&lt;br&gt;5.利用Python开发自动化工具，提高现有工作流效率。&lt;br&gt;任职要求; &lt;br&gt;1.本科及以上学历，计算机、软件、自动化等相关专业。&lt;br&gt;2.五年以上Python/C/C++其中两种语言开发经验。&lt;br&gt;3.熟悉自动化框架如UI automator 2、Appium、Python-can。&lt;br&gt;4.了解PyQt5，了解数据库基础。&lt;br&gt;5.使用版本管理工具如SVN/git，熟悉ADASIS协议/CAN诊断优先。&lt;br&gt;6.优秀的英文书面和沟通能力优先。&lt;br&gt;7.有自动化工具开发、自动化平台建设经验优先。&lt;br&gt;8.善于学习和运用新技术，具有解决问题的能力。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanjing/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E8%2587%25AA%25E5%258A%25A8%25E5%258C%2596,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;自动化&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,svn,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;svn&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,c%252B%252B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;c++&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,git,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;git&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E6%258E%25A5%25E5%258F%25A3%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;接口测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E8%258B%25B1%25E6%2596%2587,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英文&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,can,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;can&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Python后端开发工程师</t>
+          <t>Python工程师</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.2-2.5万·15薪</t>
+          <t>1-2万·14薪</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海·松江区</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2297,118 +2297,118 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>浪潮通软公司</t>
+          <t>上海应谱科技有限公司</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;负责人力资源SaaS平台功能模块开发，保证系统高可用。&lt;br&gt;&lt;br&gt;技能要求：&lt;br&gt;1.熟练使用python，至少熟悉tornado、Django、flask中一种，构建过nginx + uWSGI + python的web-services者优先；&lt;br&gt;2.熟悉Linux/Unix平台，能熟练使用python, shell 等脚本语言进行系统日志分析；&lt;br&gt;3.熟悉mysql，熟练使用redis、MQ、celery等常用第三方组件；&lt;br&gt;4.具备良好的阅读文档能力，学习能力和表达能力；&lt;br&gt;&lt;br&gt;加分项:&lt;br&gt;1.有个人技术博客，地址请附上 ；&lt;br&gt;2.参与开源项目，如有地址请贴出 ；&lt;br&gt;3.对web前端有一定了解；&lt;br&gt;4.熟练使用git ；&lt;br&gt;5.编程，算法大赛获奖 ；&lt;br&gt;6.对前沿技术有一定的了解，能独立完成新技术的预研，如openstack，容器，数据分析；&lt;br&gt;7.熟悉分布式系统，对网络和高并发编程有丰富的经验。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,Nginx,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Nginx&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,Tornado,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Tornado&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        职位描述：&lt;br&gt;&lt;br&gt;主要负责开发Python和优化算法，为公司的核心项目提供技术支持。需要对常见的算法和数据结构有深入的了解，能够独立完成算法设计和分析工作，并具备良好的代码实现能力和优化能力。还需要具备良好的团队合作精神和解决问题的能力。&lt;br&gt;&lt;br&gt;职位要求：&lt;br&gt;&lt;br&gt;1. 本科及以上学历，计算机、数学、统计学等相关专业；&lt;br&gt;&lt;br&gt;2. 精通常见的算法和数据结构，如排序、查找、图论、动态规划、贪心算法等，能够独立完成算法的设计和实现；&lt;br&gt;&lt;br&gt;3. 熟练使用至少一种编程语言，如 Python、MATLAB、Java 等，能够熟练运用相关的编程工具和库；&lt;br&gt;&lt;br&gt;4. 了解Java编程，了解SpringBoot框架，熟悉Linux常用命令&lt;br&gt;&lt;br&gt;5. 熟悉MySQL、PostgreSQL等关系型数据库，了解时序数据库-Taos, 能编写日常sql&lt;br&gt;&lt;br&gt;6. 具备数学和统计学知识，能够理解和应用各种数学和统计方法进行算法分析和优化；&lt;br&gt;&lt;br&gt;7. 有良好的团队合作精神和沟通能力，能够与团队成员协作完成项目开发任务；&lt;br&gt;&lt;br&gt;8. 具备自我学习和解决问题的能力，能够快速适应新的技术和项目要求；&lt;br&gt;&lt;br&gt;9. 有工业智能诊断监测行业的工作经验者优先考虑。&lt;br&gt;&lt;br&gt;薪资福利：&lt;br&gt;&lt;br&gt;1. 提供具有竞争力的薪资待遇；&lt;br&gt;&lt;br&gt;2. 提供良好的工作环境和发展空间；&lt;br&gt;&lt;br&gt;3. 提供完善的社保和福利保障。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-sjq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021500,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021500,0000,00,9,99,%25E9%25A1%25B9%25E7%259B%25AE%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;项目开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Python开发工程师-福州</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8千-1.5万·13薪</t>
+          <t>1.2-1.8万</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>福州·鼓楼区</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3年及以上</t>
+          <t>3-4年</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>中电福富信息科技有限公司</t>
+          <t>成都迈思信息技术有限公司</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['        工作概述：&lt;br&gt;1.负责AI能力模型的服务化封装；&lt;br&gt;2.独立承担项目需求分析，完成模块设计、编码、调试以及单元测试工作，确保软件质量与性能达到预期标准；&lt;br&gt;3.编写技术文档和维护代码库，确保代码的可读性和可维护性；&lt;br&gt;4.参与LLM的数据清洗，数据优化工作；&lt;br&gt;5.参与NLP相关的算法设计、模型训练、模型调优、模型部署等；&lt;br&gt;6.参与基础NLP能力建设，如长/短文本分类、Embedding等相关技术；&lt;br&gt;7.具备良好的团队协作精神，能够与团队成员共同解决技术难题，推动项目的顺利进行。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1.计算机相关专业本科及以上学历，3年以上相关工作经验；精通Python服务端开发熟练掌握numpy、pandas等数据处理框架；&lt;br&gt;2.熟悉web开发框架（fastapi/flask/django），熟悉Linux操作系统及shell编程；&lt;br&gt;3.熟悉mysql，redis，oracle等常用数据库，具有数据库开发和设计能力；&lt;br&gt;4.熟悉Docker等容器类中间件，熟悉基于docker开发部署服务的流程;&lt;br&gt;5.熟悉Linux系统，能够离线解决Linux中开发环境问题；&lt;br&gt;6.有NLP相关AI落地项目经验者优先；&lt;br&gt;7.有NLP大模型训练经验者优先，如BERT、 GPT等LLM等相关经验优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/fuzhou-glq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110200,110201,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110200,110201,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110200,110201,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110200,110201,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110200,110201,0000,00,9,99,%25E6%259C%2589%25E5%2589%258D%25E7%25AB%25AF%25E7%25BB%258F%25E9%25AA%258C%252F%25E6%258A%2580%25E8%2583%25BD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;有前端经验/技能&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/110200,110201,0000,00,9,99,Linux%25E5%25BC%2580%25E5%258F%2591%252F%25E9%2583%25A8%25E7%25BD%25B2%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Linux开发/部署经验&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1.协助负责视频合成平台内部建设和私部署方案交付的设计、开发、部署、联调、测试、性能优化及问题排查等工作； 2.参与数字人算法引擎、视频合成组件、视频合成前端等各组件的联合开发； 3.参与外部系统进行对接联调；推动外部客户的系统交付。 4.上级交予的其他工作任务。&lt;br&gt;任职资格&lt;br&gt;1. 计算机、数学或相关专业本科以上学历； 2. 3年以上开发经验，精通Python语言，熟悉C++语言； 3. 能熟练使用Flask/Django/Tornado其中之一，熟练redis和PostgreSQL/MySQL使用，熟练unicorn/uwsgi等生产服务部署程序等； 4. 熟悉设计模式优先，熟悉Scrum等敏捷研发模式优先； 5. 有较好的沟通能力和责任感。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanjing/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,c%252B%252B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;c++&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E8%25AE%25BE%25E8%25AE%25A1%25E6%25A8%25A1%25E5%25BC%258F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;设计模式&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E6%2595%25B0%25E5%25AD%25A6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数学&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,postgresql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;postgresql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Python后端工程师</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.7-2.5万·14薪</t>
+          <t>7千-1万</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>杭州·钱塘区</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5-7年</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>杭州研一智控科技有限公司</t>
+          <t>北京迈捷映博科技有限公司</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;1.负责已有产品或者项目的优化、升级维护等工作； &lt;br&gt;2.负责新项目子系统/功能模块的设计、编码、单元测试和集成部署以及技术文档编写等相关工作； &lt;br&gt;3.参与核心功能的架构与代码模板编写，开发与维护系统公用核心模块； &lt;br&gt;4.参与产品/项目业务规划，讨论并提出有建设性的意见； &lt;br&gt;&lt;br&gt;&lt;br&gt;岗位要求：&lt;br&gt;1.全日制统招本科以上学历，计算机相关专业；&lt;br&gt;2.5年以上python开发经验，能独立进行功能开发；&lt;br&gt;3.熟练掌握Python web开发框架，精通Flask、Django或者其他Python Web框架中的一种；&lt;br&gt;4.熟练掌握SQL语言，熟悉Mysql、Sqlite数据库，能设计良好的数据库结构；&lt;br&gt;5.对前端有一定的了解。&lt;br&gt;&lt;br&gt;福利待遇：&lt;br&gt;1.周末双休&lt;br&gt;2.全年14薪&lt;br&gt;3.员工体检&lt;br&gt;4.节日福利&lt;br&gt;5.季度奖金激励&lt;br&gt;6.一年四次调薪机会\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;27-40岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hangzhou-qtq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080215,0000,00,9,99,%25E5%258A%259F%25E8%2583%25BD%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;功能开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/080200,080215,0000,00,9,99,python%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python开发&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1、定期推送售后指标的运营报表，及时监控指标运行情况；&lt;br&gt;2、通过数据分析，挖掘业务问题，提出优化建议；&lt;br&gt;3、日常业务数据的提供,维护业务部门的业务数据库；&lt;br&gt;4、对售后源数据进行收集、整理、存档，完善部门数据支撑平台。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、Excel的使用，熟练使用图表及函数功能，掌握VBA编程技能者优先；应届毕业生可培养&lt;br&gt;2、熟悉MySQL数据库的使用，熟练掌握SQL相关的DML数据操作语言；&lt;br&gt;3、了解基础的数据分析方法，包含：描述性分析、回归分析、方差分析；&lt;br&gt;4、有相关数据可视化工作经验、自动化报表开发工作经验者优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Python运维开发工程师</t>
+          <t>python工程师</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8千-1.5万</t>
+          <t>2-2.5万</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>深圳·福田区</t>
+          <t>上海·浦东新区</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2418,22 +2418,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>深圳市睿服科技有限公司</t>
+          <t>上海期货信息技术有限公司</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['        1、熟悉linux和windos操作系统的常用命令，具备问题排查经验者优先；&lt;br&gt;&lt;br&gt;2、具备一定的shell或者python或者java 前端开发能力，具备项目经验的优先；&lt;br&gt;&lt;br&gt;3、了解常用中间件（nginx、tomcat、kafka、redis等）用途并了解常用运维操作命令；&lt;br&gt;&lt;br&gt;4、工作认真负责、严谨， 态度积极主动，能承担一定工作压力，有良好的团队合作精神，善沟通；&lt;br&gt;&lt;br&gt;5、具有较强逻辑分析、总结能力\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/yunweikaifa/"&gt;运维开发&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,shell,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;shell&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;文档&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        工作职责:&lt;br&gt;1、熟悉Python及其性能调优。熟练掌握基于Python的Web开发框架（FastAPI/Flask/Django) 等其中一种；&lt;br&gt;2、熟悉NLP主流大模型如chatGPT/LLaMA/GLM等。&lt;br&gt;3、有 model based engineering (prompt/RAG/Agent) 相关开发经验&lt;br&gt;4、熟练掌握tensorflow、pytorch等深度学习框架，有较强的算法工程能力: 熟悉主流文本生成的原理和方法，有结合业务的落地实践经验。&lt;br&gt;5、具有AI相关项目实践经验&lt;br&gt;任职资格:&lt;br&gt;1、本科学历相关从业年限不低于3年，计算机科学、软件工程、人工智能或相关专业&lt;br&gt;2、硕士年限不低于2年，计算机科学、软件工程、人工智能或相关专业；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-pdxq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Elasticsearch,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Elasticsearch&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
@@ -2445,17 +2445,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1.2-1.4万</t>
+          <t>1.5-1.8万</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>成都·成华区</t>
+          <t>苏州·吴中区</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3-5年</t>
+          <t>6-10年</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2465,39 +2465,39 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>上海飞络信息科技有限公司</t>
+          <t>上海音明信息技术股份有限公司</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['        任职要求：&lt;br&gt;1. 有Python语言相关开发经验&lt;br&gt;2. 有Go语言相关开发经验&lt;br&gt;3. 熟练掌握Python，熟练掌握django/fastapi框架，关系型数据库(mysql)；&lt;br&gt;4. 了解和使用过AI相关产品，对AI技术的研究有一定深度，同时具有AI应用或AI Agent相关开发经验；&lt;br&gt;5. 熟悉Nginx，生产环境部署优化；&lt;br&gt;6. 熟悉常用数据结构，设计模式，良好编码风格；&lt;br&gt;7. 熟悉Redis，Linux；&lt;br&gt;&lt;br&gt;岗位职责：&lt;br&gt;1.基于Go语言和Python语言，对已有产品进行迭代开发&lt;br&gt;2.基于AI大模型，针对产品进行AI应用或AI Agent的开发&lt;br&gt;3.配合云团队对产品进行部署&lt;br&gt;4.提供与开发团队相关的技术支持&lt;br&gt;&lt;br&gt;我们的期望：&lt;br&gt;1. 具有Python和Go的开发经验，代码的编码风格良好；&lt;br&gt;2. 对AI技术具有浓厚兴趣，并致力于将AI技术应用于产品中；&lt;br&gt;3. 具有良好的技术研究和探索能力；&lt;br&gt;4. 具有良好的语言沟通能力&lt;br&gt;&lt;br&gt;教育背景：&lt;br&gt;计算机科学或相关领域本科及以上学位&lt;br&gt;&lt;br&gt;工作经验：&lt;br&gt;3年-5年开发工作经验（至少3年以上）&lt;br&gt;&lt;br&gt;其他技能：&lt;br&gt;1.对前端框架和工具（如Bootstrap，JQuery，Vue）有一定了解；&lt;br&gt;2.熟悉使用GitHub, Bitbucket等代码仓库和版本控制系统；&lt;br&gt;3.了解性能测试和优化方法。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-chq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090205,0000,00,9,99,PyTorch,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PyTorch&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090205,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090205,0000,00,9,99,Golang,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Golang&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090205,0000,00,9,99,%25E6%259C%2589%25E5%2589%258D%25E7%25AB%25AF%25E7%25BB%258F%25E9%25AA%258C%252F%25E6%258A%2580%25E8%2583%25BD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;有前端经验/技能&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090205,0000,00,9,99,%25E6%259C%25BA%25E5%2599%25A8%25E5%25AD%25A6%25E4%25B9%25A0%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;机器学习经验&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1、学习、研究国内外主流AI人工智能新技术、新产品，汲取先进的AI理念；&lt;br&gt;2、学习、研究国内外前沿大模型，参与研发、训练金融行业垂直领域大模型；&lt;br&gt;3、与国内知名金融行业公司一起研发训练金融行业垂直领域大模型；&lt;br&gt;4、参与技术调研、可行性分析，系统、流程结构设计、优化、重构；调试、解决核心技术问题；&lt;br&gt;5、参与公司内部项目需求搜集评审、开发测试，通过人工智能等技术向业务部门赋能，包括但不限于数字人、智能助手、智能语音、智能投教等；&lt;br&gt;6、完成部门其他交办的任务；&lt;br&gt;任职要求：&lt;br&gt;1、计算机、数学专业，统招本科及以上学历；&lt;br&gt;2、三年以上Python编程使用经验，熟悉NLP自然语言处理&lt;br&gt;3、具备良好的开发基本功和编程习惯，结构清晰，命名规范，逻辑性强，代码冗余率低，熟练使用基本的数据结构和算法；&lt;br&gt;4、熟练掌握Flask/Django，Sqlalchemy，Celery等主流框架，深入理解框架实现原理及特性；熟练使用python的常用库；&lt;br&gt;5、较强的逻辑分析和解决问题的能力，积极进取，能够承受一定工作压力，具有良好的团队协作精神；&lt;br&gt;6、有使用docker/K8S容器使用部署经验者优先&lt;br&gt;7、熟悉敏捷开发、devops，熟练使用ci/cd者优先&lt;br&gt;8、熟悉分布式、多线程、异步及高性能设计、开发及优化；&lt;br&gt;9、获得算法竞赛奖项或者参加过算法竞赛、对算法有一定研究者可以适当放宽；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/suzhou-wzq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070300,070303,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070300,070303,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070300,070303,0000,00,9,99,%25E8%25B0%2583%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;调试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070300,070303,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070300,070303,0000,00,9,99,%25E7%25A0%2594%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;研发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070300,070303,0000,00,9,99,%25E7%25BB%2593%25E6%259E%2584%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;结构设计&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070300,070303,0000,00,9,99,%25E6%2595%25B0%25E5%25AD%25A6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数学&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070300,070303,0000,00,9,99,docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070300,070303,0000,00,9,99,%25E5%25A4%259A%25E7%25BA%25BF%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;多线程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070300,070303,0000,00,9,99,ai,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ai&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>高级Python开发工程师</t>
+          <t>Python</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.5-2.2万</t>
+          <t>1.2-1.8万</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6年及以上</t>
+          <t>3-4年</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2507,17 +2507,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>上海西信信息科技股份有限公司</t>
+          <t>成都迈思信息技术有限公司</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['        6年以上工作经验&lt;br&gt;要求具备良好的Python知识，***使用Java/Go等其他编程语言&lt;br&gt;熟悉流行的后端框架，如Django&lt;br&gt;熟悉SQL和NoSQL数据库&lt;br&gt;使用Azure、AWS、GCP等公共云平台的经验&lt;br&gt;有公共云定价模型知识者优先&lt;br&gt;熟悉Redis和消息队列技术&lt;br&gt;具备GenAI和数据分析知识者优先&lt;br&gt;有SAP BTP或其他PaaS云原生开发经验者优先\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1.协助负责视频合成平台内部建设和私部署方案交付的设计、开发、部署、联调、测试、性能优化及问题排查等工作； 2.参与数字人算法引擎、视频合成组件、视频合成前端等各组件的联合开发； 3.参与外部系统进行对接联调；推动外部客户的系统交付。 4.上级交予的其他工作任务。&lt;br&gt;任职资格&lt;br&gt;1. 计算机、数学或相关专业本科以上学历； 2. 3年以上开发经验，精通Python语言，熟悉C++语言； 3. 能熟练使用Flask/Django/Tornado其中之一，熟练redis和PostgreSQL/MySQL使用，熟练unicorn/uwsgi等生产服务部署程序等； 4. 熟悉设计模式优先，熟悉Scrum等敏捷研发模式优先； 5. 有较好的沟通能力和责任感。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/nanjing/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,c%252B%252B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;c++&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E8%25AE%25BE%25E8%25AE%25A1%25E6%25A8%25A1%25E5%25BC%258F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;设计模式&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,%25E6%2595%25B0%25E5%25AD%25A6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数学&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,postgresql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;postgresql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070200,000000,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
@@ -2529,159 +2529,163 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6千-1.2万·13薪</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
+          <t>8千-1.5万</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>北京·海淀区</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>无需经验</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>沈阳颁德优化科技有限公司</t>
+          <t>点奇互联（北京）科技有限公司</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['        颁德优化科技Benders Optimal Technology 于2020年底开始运作，近三年以来，公司业务不断扩展，现需要招聘程序员一名，要求如下：&lt;br&gt;1. 计算机软件本科或硕士毕业，本科要求4年计算机专业或紧密相关专业。&lt;br&gt;2. 熟练基本数据结构和常用算法，理解基本设计模式&lt;br&gt;3. 熟练Python及Pandas, Numpy等常用库。&lt;br&gt;4. 熟练Pycharm, Git, Excel等常用工具&lt;br&gt;5. 熟练数据库操作SQL语言，PostgreSQL等数据库。&lt;br&gt;6. 了解前端Flutter。&lt;br&gt;7. 了解Java语言及spring framework, spring boot. AWS cloud, docker, Redis等工具。&lt;br&gt;8. 英语阅读能力强，至少英语四级；学习新技术能力强。&lt;br&gt;9. 喜欢会计知识，愿意理解个人税表，财务报表等优先。&lt;br&gt;&lt;br&gt;本公司软件产品主要面向美国市场及客户，需要能够准确理解英文文档，英语水平一般者恐难以胜任。本公司目前是远程工作模式，只要按时提交代码即可，不必到办公室上班。未来会根据员工意愿及地理分布，在国内设立办公室。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/all/ruanjiangongchengshi/"&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E7%25AE%2597%25E6%25B3%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;算法&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/000000,000000,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD%25E9%2598%2585%25E8%25AF%25BB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语阅读&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        .负责数据模型测试，包括确定测试范围、制定测试方案、优化测试过程、提高测工作职责:&lt;br&gt;2-运用数据挖掘/统计学习的理论和方法，深入挖掘和分析海量用户行为&lt;br&gt;3-根据项目需求，分析数据，建立适应的模型并解决业务需求，并规划和设计出对应的数据专题应用，以提升数据价值。&lt;br&gt;职位要求 ：&lt;br&gt;1、接受转行，应届优先，有志于IT、金融行业长远发展（金融、经济学专业可放宽至大专）；或对金融、IT行业有强烈意愿者。&lt;br&gt;2、要求大专以上学历，应届优先；&lt;br&gt;3、年龄20-29周岁；&lt;br&gt;4、计算机、软件、数学、统计学、经济、财务专业优先；&lt;br&gt;5、熟练使用ORACLE/DB2数据库优.\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;18-26岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/beijing-hdq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/010000,010800,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Python软件开发工程师</t>
+          <t>Python爬虫工程师</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>12-20万/年</t>
+          <t>5千-1万</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>成都·简阳市</t>
+          <t>铜陵</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>2年</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>成都民航空管科技发展有限公司</t>
+          <t>安徽百舟互娱网络股份有限公司</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['        任职要求：&lt;br&gt;1. 计算机/信息科学相关专业，精通python后端开发，具备2年以上python开发经验，熟悉C/C++语言者优先；&lt;br&gt;2. 了解计算机视觉相关算法者优先；&lt;br&gt;3. 具备良好的代码编程习惯，对工作认真负责，有良好的学习能力、沟通能力和团队合作能力；&lt;br&gt;&lt;br&gt;职责描述：&lt;br&gt;根据项目要求，承担软件模块研发等工作。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/chengdu-jys/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090221,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090221,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/090200,090221,0000,00,9,99,C%252B%252B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C++&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位描述&lt;br&gt;1、负责爬虫策略与方案制定，爬虫系统架构设计与开发；&lt;br&gt;2、负责网站、APP等大规模文本、图片数据抓取，爬虫核心算法优化，提升爬虫效率和质量；&lt;br&gt;3、专注于垂直领域数据爬取，并进行多平台信息分析，参与平台数据建设；&lt;br&gt;任职要求：&lt;br&gt;1、2年以上开发经验，计算机相关专业优先，有爬虫和反爬虫经验者优先，有大数据爬虫经验尤佳；&lt;br&gt;2、熟练掌握软件逆向静态分析、动态调试、代码跟踪等，有海外社交平台的数据采集经验优先&lt;br&gt;3、具有丰富的JS逆向经验，熟悉反混淆、JS跟踪、JS逆向、WASM还原技能，熟练使用AST还原JS、能绕过常见的JS反调试；&lt;br&gt;4、熟练掌握常用的逆向分析抓包工具，能解决封账号、封IP、验证码识别、图像识别、风控等问题；&lt;br&gt;5、熟练掌握Python, JavaScript开发语言；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/tongling/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                            &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python开发实习生</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1-2万·15薪</t>
+          <t>5-7千</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2年</t>
+          <t>1年</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>上海念空数据科技中心（有限合伙）</t>
+          <t>贵州玉珏网络技术服务有限责任公司</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;1、优化现有量化研究平台；&lt;br&gt;2、优化现有python实盘处理程序；&lt;br&gt;3、开发统计量化数据指标；&lt;br&gt;4、帮助研究员提升python数据处理效率。&lt;br&gt;&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、熟练的python开发能力， 熟悉基于python的数据处理框架， numpy和pandas；&lt;br&gt;2、熟悉socket编程；&lt;br&gt;3、熟悉多线程、多进程的开发；&lt;br&gt;4、有基金、券商相关工作经验优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25B7%25A5%25E7%25A8%258B%25E5%25B8%2588,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件工程师&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        工作职责 &lt;br&gt;1、参与行业大数据产品的开发，参与大数据分析的数据采集，数据建模，行业算法模型构建等。 &lt;br&gt;2、分析行业的业务数据，能够从多维度，多视角分析发现行业业务数据的特点，规律，异常等，规划形成大数据相关产品； &lt;br&gt;任职资格 &lt;br&gt;1、大学专科以上学历； &lt;br&gt;2、熟悉 Linux 环境，了解基本的指令 &lt;br&gt;3、熟悉python 语言， &lt;br&gt;4、有数据分析的经验，熟悉pandas/numpy/tensorflow 等工具； &lt;br&gt;5、熟悉 hadoop/hive/hbase 等系统，了解基本的使用和原理； &lt;br&gt;工作待遇：&lt;br&gt;1、补贴福利:无责任底薪+绩效奖金，年底计发双薪，整年计发十三薪。&lt;br&gt;2、薪酬福利：为员工提供富有竞争力的薪酬体系并每年对员工进行年度薪酬调整。&lt;br&gt;3、社会保险：公司为员工统一购买医疗保险、工伤保险、养老保险、生育保险、失业保险、医疗保险及住房公积金。&lt;br&gt;4、晋升机制：公司设立良好的晋升机制并提供内部招聘、职位轮换机会。&lt;br&gt;5、节日贺礼：公司在传统佳节派发节日礼品。（比如端午咸鸭蛋粽子中秋月饼六一儿童节玩具玩偶年货等等）&lt;br&gt;6、生日派对：生日蛋糕和红包祝福&lt;br&gt;7、公司设有茶水间，休息阳台和员工休息室，提供零食柜，咖啡吧台、微波炉，冰箱等。&lt;br&gt;工作时间：9:30-18：00 中午休息两小时，周末双休不加班，节假日正常放假。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;22-30岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/guiyang/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                            &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python Automation Engineer</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1-1.5万·14薪</t>
+          <t>1.5-3万</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>西安·高新技术产业开发区</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3-4年</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>西安鹰之航航空科技股份有限公司</t>
+          <t>塔塔信息技术（中国）有限责任公司</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;1、根据需求完成航空设备项目的开发；&lt;br&gt;2、完成航空设备软件模块的设计实现以及文档编写工作。&lt;br&gt;任职要求：&lt;br&gt;1.具有2年以上开发工作经验，熟悉Python，有较好的Pytest、PyQT基础；&lt;br&gt;2.具有军工领域航空设备项目经验优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/xian-gxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/200200,200214,0000,00,9,99,pytest,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pytest&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/200200,200214,0000,00,9,99,pyqt,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pyqt&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/200200,200214,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        Strong knowledge of LTE &amp;amp; 5G (NSA &amp;amp; SA) Technology and the different control layers (L1, RLC, RRC, NAS) as well as data plane protocols.&lt;br&gt;Expertise in Core Python(Data Structures, OOPs, Data types, File Handling, Exception Handling, Generators, Iterators, Multi Threading  etc)&lt;br&gt;Good hold on Python Statistical libraries (Ex. One or more of  Numpy, Scipy, Scikit etc)&lt;br&gt;Experience with Python GUI programming ( Ex. One or more of PyQT, TkInter etc)&lt;br&gt;Experience with Database interaction (Ex. SQL Lite)&lt;br&gt;Experience with ORM(Object relationship mappers) libraries. &lt;br&gt;Ability to translate the Wireless Cellular Technology Protocol knowledge into requirements &amp;amp; working code&lt;br&gt;&lt;br&gt;Good to Have:&lt;br&gt;Familiiarity with Web frameworks such as Django, Flask.&lt;br&gt;Understanding of Multi-Process Architecture. &lt;br&gt;Basic understanding of front-end technologies, such as JavaScript, HTML5, and CSS3&lt;br&gt;Understanding of applying Data Science and ML paradigm in Python\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,CSS,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;CSS&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,HTML,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;HTML&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,000000,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
@@ -2693,17 +2697,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.2-2万</t>
+          <t>1-2万·13薪</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2713,17 +2717,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>郑州辰而将行软件科技有限公司</t>
+          <t>广州纳诺新材料科技有限公司</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['        1、熟悉Python（涉及如下包：Flask, PyMySQL, cx-Oracle, Pandas, pyinstaller, xlwings, cryptography、RBAC）、消息队列和相关中间件；&lt;br&gt;2、熟悉数据库，如Mysql、PostgreSQL、Pi等；&lt;br&gt;3、掌握C++；&lt;br&gt;4、熟悉HTML+CSS+ TypeScript，React，Vue, Antd，Node.js，Electron，Fetch API等前端技术。&lt;br&gt;5、能够阅读英文标准文档，具有规范开发文档的编写能力。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;24-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,C%252B%252B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;C++&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,000000,0000,00,9,99,Mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Mysql&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        职位描述&lt;br&gt;1、参与软件项目的需求分析、设计、编码、测试、部署和维护工作；&lt;br&gt;2、根据项目需求，编写详细的设计文档和代码注释；&lt;br&gt;3、负责软件模块的开发、优化和重构，提高软件性能和可维护性；&lt;br&gt;4、跟踪项目进度，确保按时交付高质量的软件产品；&lt;br&gt;5、参与团队技术分享与讨论，关注行业技术发展趋势，学习和掌握新技术，为项目开发提供技术支持。&lt;br&gt;职位要求&lt;br&gt;1、本科及以上学历，计算机理工科相关专业；&lt;br&gt;2、3年以上软件开发经验；&lt;br&gt;3、熟练掌握Python语言及其基本语法，熟悉常用的Python开发框架和库，具备良好的编程习惯。&lt;br&gt;4、具备一定的算法和数据结构基础，能够解决常见的编程问题。&lt;br&gt;5、了解Linux操作系统和常用的命令行操作。&lt;br&gt;6、熟练掌握web开发技术，有前端开发能力，有odoo开发经验的优先。&lt;br&gt;7、良好的编程习惯、热爱软件开发工作、逻辑思维能力强，工作认真负责；&lt;br&gt;8、具有一定的沟通和设计能力，能根据需求开发正确的系统，能适应出差；\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/guangzhou/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E8%25BD%25AF%25E4%25BB%25B6%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;软件开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E5%2589%258D%25E7%25AB%25AF%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;前端开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%25BB%2593%25E6%259E%2584,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据结构&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E9%25A1%25B9%25E7%259B%25AE%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;项目开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E7%25BC%2596%25E7%25A0%2581,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编码&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,000000,0000,00,9,99,%25E7%25BB%25B4%25E6%258A%25A4,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;维护&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
@@ -2735,17 +2739,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1.2-1.8万·13薪</t>
+          <t>1.5-2万·14薪</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>上海·普陀区</t>
+          <t>广州·黄埔区</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2755,39 +2759,39 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>上海凯融信息科技有限公司</t>
+          <t>广州鼎甲计算机科技有限公司</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;1.负责用python语言实现产品的后端研发；&lt;br&gt;2.python软件开发；&lt;br&gt;3.根据项目需求，完成功能模块设计和代码实现工作；&lt;br&gt;4.参与公司深度学习项目开发工作；&lt;br&gt;5.开发及维护各种Python爬虫；&lt;br&gt;6.完成上级领导交办的其它任务。&lt;br&gt;任职要求：&lt;br&gt;1.本科学历；计算机、软件等相关专业，精通Python语言开发，2年以上Python开发经验；&lt;br&gt;2.熟练掌握Linux基础知识及常用操作命令；熟悉常用关系数据库和非关系型数据库；&lt;br&gt;3.有R语言、.Net、Java经验经验的优先;&lt;br&gt;4.聪明、灵活、自律、上进、务实、有较强的逻辑分析能力。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;25-35岁&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-ptq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,%25E6%259C%25BA%25E5%2599%25A8%25E5%25AD%25A6%25E4%25B9%25A0%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;机器学习经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,Linux%25E5%25BC%2580%25E5%258F%2591%252F%25E9%2583%25A8%25E7%25BD%25B2%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Linux开发/部署经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,%25E5%2585%25B3%25E7%25B3%25BB%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;关系数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,%25E6%25B7%25B1%25E5%25BA%25A6%25E5%25AD%25A6%25E4%25B9%25A0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;深度学习&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E5%25AE%259E%25E7%258E%25B0,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码实现&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,%25E5%2590%258E%25E7%25AB%25AF%25E7%25A0%2594%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;后端研发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020600,0000,00,9,99,%25E5%258A%259F%25E8%2583%25BD%25E6%25A8%25A1%25E5%259D%2597%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;功能模块设计&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责:&lt;br&gt;1、负责 Python Web 后端开发；&lt;br&gt;2、负责数据库模型设计和维护；&lt;br&gt;3、负责功能开发和代码维护，编写完整的接口文档。&lt;br&gt;任职要求:&lt;br&gt;1、本科以上学历，计算机相关专业毕业&lt;br&gt;2、 3年以上 Python 开发使用经验，能熟练使用 Python 进行 Web 后端开发；&lt;br&gt;3、精通/熟练掌握 Postgres / MySQL 数据库；&lt;br&gt;4、能熟练使用 Linux 进行开发了日常工作，有一定的 Shell 脚本编程基础；&lt;br&gt;5、良好的编程习惯和英文文档阅读能力，具有良好的主动学习能力和习惯；&lt;br&gt;6、理解并能应用 RESTFul 规范；&lt;br&gt;7、加分项: 熟悉 flask，具有 docker 经验。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;35岁以下&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/guangzhou-hpq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,Docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,Oracle,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Oracle&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,SQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;SQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,Server,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Server&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,Linux%25E5%25BC%2580%25E5%258F%2591%252F%25E9%2583%25A8%25E7%25BD%25B2%25E7%25BB%258F%25E9%25AA%258C,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Linux开发/部署经验&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,%25E7%25BC%2596%25E7%25A8%258B,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;编程&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,mysql%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,%25E5%258A%259F%25E8%2583%25BD%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;功能开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,%25E6%258E%25A5%25E5%258F%25A3%25E6%2596%2587%25E6%25A1%25A3,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;接口文档&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,restful,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;restful&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/030200,030206,0000,00,9,99,%25E4%25BB%25A3%25E7%25A0%2581%25E7%25BB%25B4%25E6%258A%25A4,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;代码维护&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Python软件开发工程师</t>
+          <t>自动化开发专员(python)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6千-1.1万·13薪</t>
+          <t>8千-1.3万·13薪</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>武汉·东湖新技术产业开发区</t>
+          <t>成都·高新区</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>1年及以上</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2797,81 +2801,81 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>武汉光至科技有限公司</t>
+          <t>博世（上海）安保系统有限公司成都高新分公司（博世通讯中心）</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;1、负责后端应用架构的设计和规范化工作；&lt;br&gt;2、独立完成需求分析、系统软件设计、编码和测试工作；&lt;br&gt;3、负责公司产品的开发和维护更新工作，并对交付质量负责；&lt;br&gt;4、编写相关的开发文档，如设计文档，测试文档等。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;1、计算机及相关专业本科学历，2年以上开发经验；&lt;br&gt;2、熟悉Python常用后端框架如Django、Flask等；&lt;br&gt;3、熟悉数据库的操作及维护(MySQL、Redis等)，能熟练进行数据库设计与优化，和数据库操作技术sqlalchemy；&lt;br&gt;4、熟悉Linux 的操作；&lt;br&gt;5、良好的沟通能力，工作积极主动，责任心强，具有团队协作、独立完成工作能力；&lt;br&gt;6、会使用docker优先，了解ERP、MES系统相关开发优先。\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuhan-dhxjs/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,linux,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;linux&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%25B5%258B%25E8%25AF%2595,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;测试&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E9%259C%2580%25E6%25B1%2582%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;需求分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,erp,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;erp&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E5%25BC%2580%25E5%258F%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;开发&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180215,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593%25E8%25AE%25BE%25E8%25AE%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库设计&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Python开发工程师2</t>
+          <t>Python运维开发工程师</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8千-1.2万</t>
+          <t>1.5-2.5万</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>武汉·江夏区</t>
+          <t>深圳·南山区</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3-5年</t>
+          <t>5-10年</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>上海铂联通信技术有限公司武汉分公司</t>
+          <t>中电金信软件有限公司</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['        岗位职责：&lt;br&gt;对外接口模块：&lt;br&gt;    ● 负责Web模块开发与维护；&lt;br&gt;    ● 负责信息交互网关，对接公司后台、APP以及其他厂家设备接口；&lt;br&gt;    ● 提出软件接口和功能上的需求&lt;br&gt;岗位要求：&lt;br&gt;对外接口模块：&lt;br&gt;    ● 教育背景：本科及以上，通信、电子、计算机或相关专业；&lt;br&gt;    ● 精通Python编程，了解基于Python的Web实现；&lt;br&gt;    ● 熟悉网络通信协议，如UDP/TCP、FTP、MQTT等；&lt;br&gt;    ● 掌握json数据格式，进行数据交互；&lt;br&gt;    ● 工作积极主动，具备学习能力、文档习惯和团队合作精神。\n                &lt;div class="mt10"&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;年龄要求：&lt;/span&gt;&lt;span class="el"&gt;25岁以上&lt;/span&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/wuhan-jxq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,%25E7%2594%25B5%25E5%25AD%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;电子&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,%25E9%2580%259A%25E4%25BF%25A1,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;通信&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,web,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;web&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,json,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;json&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,tcp,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;tcp&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E4%25BA%25A4%25E4%25BA%2592,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据交互&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,ftp,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;ftp&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,udp,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;udp&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/180200,180211,0000,00,9,99,mqtt,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mqtt&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        Python Developer (security operations automation)&lt;br&gt;1) Experience in programming with Python&lt;br&gt;2) Familiar with powershell scripting and batch file scripting.&lt;br&gt;3) Solid knowledge of Ansible AAP operation, Ansible Playbook&lt;br&gt;&lt;br&gt;Python开发者（安全操作自动化）&lt;br&gt;1）有Python编程经验&lt;br&gt;2）熟悉powershell脚本编写和批处理文件脚本编写。&lt;br&gt;3）扎实的Ansible Advance汽车配件操作知识，Ansible Playbook\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-nsq/yunweikaifa/"&gt;运维开发&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040300,0000,00,9,99,powershell,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;powershell&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040300,0000,00,9,99,programming,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;programming&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040300,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040300,0000,00,9,99,scripting,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;scripting&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040300,0000,00,9,99,aap,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;aap&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Python工程师</t>
+          <t>Python数据分析师</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.5-2万</t>
+          <t>1.4-2万·13薪</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>上海·松江区</t>
+          <t>昆山</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>3年及以上</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2881,101 +2885,101 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>上海至盛信息技术股份有限公司</t>
+          <t>Alten China Limited</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['        岗位职责&lt;br&gt;&lt;br&gt;&lt;br&gt;1.负责用python语言实现产品的后端研发；&lt;br&gt;2.负责高质量的设计和编码；&lt;br&gt;3.承担重难点技术攻坚任务；&lt;br&gt;4.参与产品的讨论和开发实现。&lt;br&gt;&lt;br&gt;&lt;br&gt;岗位要求&lt;br&gt;&lt;br&gt;&lt;br&gt;1.两年以上工作经验，本科以上学历，计算机或数学相关专业；&lt;br&gt;2.熟悉python后台开发，有完整的项目开发经验，熟练使用Django或flask框架；&lt;br&gt;3.熟悉linux平台，熟悉shell脚本语言，能够独立完成python项目部署、调优、运维；&lt;br&gt;4.熟悉mysql数据库和redis数据库；&lt;br&gt;5.对项目安全性问题和并发问题有一定理解和相应的解决方法。&lt;br&gt;6、有良好的编码习惯，对代码和设计质量有严格要求，重视Code Review；&lt;br&gt;7、具有良好的编程思想、沟通、团队合作精神、优秀的分析问题和解决问题的能力；具备强烈的责任心;  &lt;br&gt;8、具有odoo erp平台开发经验优先，熟悉数字孪生或物联网优先\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-sjq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021500,0000,00,9,99,Java,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Java&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021500,0000,00,9,99,python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;python&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021500,0000,00,9,99,%25E6%2595%25B0%25E5%25AD%2597%25E5%25AD%25AA%25E7%2594%259F,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数字孪生&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,021500,0000,00,9,99,%25E7%2589%25A9%25E8%2581%2594%25E7%25BD%2591,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;物联网&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        工作内容：&lt;br&gt;1.独立或者协助数据科学家或大数据工程师完成物联网大数据的应用开发和数据分析工作。&lt;br&gt;2.将业务线需求转化为数据分析模型，通过数据分析展现通力物联网给客户带来的价值。&lt;br&gt;3.参与部署通力数据仓库建立，完成布置的数据抽取和清洗工作，算法应用的开发和部署工作。&lt;br&gt;&lt;br&gt;&lt;br&gt;岗位要求：&lt;br&gt;? 本科学历，统计学，数学，计算机等相关专业&lt;br&gt;? 3年以上数据分析经验，有帮助工业企业客户运用数据分析和算法解决实际问题的经历&lt;br&gt;? 熟练使用python进行数据分析和模型开发（numpy，pandas，matplotlib，Scikit-learn），能够利用BI工具或者类似的工具将分析结果展示（如Qliksense，PowerBI等）&lt;br&gt;? 有Django/flask框架使用经验的优先&lt;br&gt;? 有dagster, airflow, mlflow 经验优先&lt;br&gt;? 有大数据分析工具Hadoop，Spark，Kafka的经验优先&lt;br&gt;? CI/CD环境工作经验优先\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/kunshan/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070600,000000,0000,00,9,99,Numpy,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Numpy&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070600,000000,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%2588%2586%25E6%259E%2590,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据分析&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070600,000000,0000,00,9,99,%25E6%2595%25B0%25E5%25AD%25A6,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数学&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070600,000000,0000,00,9,99,kafka,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;kafka&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070600,000000,0000,00,9,99,hadoop,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;hadoop&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070600,000000,0000,00,9,99,spark,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;spark&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070600,000000,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070600,000000,0000,00,9,99,pandas,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;pandas&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/070600,000000,0000,00,9,99,PowerBI,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PowerBI&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Python工程师（爬虫方向）</t>
+          <t>python爬虫工程师/爬虫后端工程师</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6千-1万</t>
+          <t>1.2-1.6万</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>深圳·福田区</t>
+          <t>上海·静安区</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1年</t>
+          <t>2-3年</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>大专</t>
+          <t>本科</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>深圳市华中航空服务有限公司</t>
+          <t>上海南燕信息技术有限公司</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['        岗位职责： 1、负责产品数据的抓取，并动态监控网站； 2、负责数据抓取的性能优化； 3、负责数据的规范化分析和开发工作。 任职要求： 1、2年及以上数据爬虫相关工作经验优先； 2、熟悉Django、Flask、WebPy、Tornado等其中一种； 3、熟悉Mysql、Redis、Mongo等常...\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shenzhen-ftq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E6%258A%2593%25E5%258F%2596,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据抓取&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E7%2588%25AC%25E8%2599%25AB,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据爬虫&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,mongo,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mongo&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,%25E6%2580%25A7%25E8%2583%25BD%25E4%25BC%2598%25E5%258C%2596,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;性能优化&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/040000,040100,0000,00,9,99,tornado,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;tornado&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        岗位职责：&lt;br&gt;1、负责公司日常数据采集任务开发，解析，清洗，存储工作&lt;br&gt;2、不断完善和重构现有的数据采集集群，通过对抓取，解析，调度，存储模块拆分和优化，逐步完善统一的数据采集服务平台&lt;br&gt;3、必须熟悉一套爬虫框架；例如Scrapy，Feapder框架等&lt;br&gt;任职资格：&lt;br&gt;1、计算机相关专业本科及以上学历，2年以上工作经验&lt;br&gt;2、熟练掌握Python语言，对数据敏感，具有良好的逻辑分析能力&lt;br&gt;3、熟悉Cookie登录原理，熟练掌握xpath，CSS，正则等常用的信息抽取技术&lt;br&gt;4、熟练掌握SQL语言，熟悉主流数据库开发，有使用MySQL,ElasticSearch,Redis经验&lt;br&gt;5、学习能力强，能够独立解决问题，并且善于总结分享&lt;br&gt;6、拥有良好的团队合作及沟通能力&lt;br&gt;7、有一定的JS逆向能力，APP数据采集能力（加分项）&lt;br&gt;8、有相关数据平台工作经验&lt;br&gt;后端工程师：&lt;br&gt;1、1~3年python开发经验 ，熟练掌握语法和第三方库&lt;br&gt;2、熟练使用Mysql、Mongodb、redis等数据库&lt;br&gt;3、掌握基本数据机构和算法&lt;br&gt;4、可以独立开发web网站&lt;br&gt;5、熟练使用django、djangorestframework、 flask等框架&lt;br&gt;6、熟练使用celery等异步框架&lt;br&gt;7、掌握服务器性能调优和慢查询优化&lt;br&gt;8、熟悉linux服务器、掌握一些基本命令&lt;br&gt;9、熟练使用git管理工具&lt;br&gt;10、掌握docker的使用&lt;br&gt;11、熟悉编译原理&lt;br&gt;12、英语阅读能力良好\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-jaq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020500,0000,00,9,99,%25E8%25AE%25A1%25E7%25AE%2597%25E6%259C%25BA,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;计算机&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020500,0000,00,9,99,mysql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mysql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020500,0000,00,9,99,%25E6%2595%25B0%25E6%258D%25AE%25E5%25BA%2593,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;数据库&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020500,0000,00,9,99,css,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;css&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020500,0000,00,9,99,redis,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;redis&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020500,0000,00,9,99,sql,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;sql&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020500,0000,00,9,99,%25E8%258B%25B1%25E8%25AF%25AD,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;英语&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020500,0000,00,9,99,git,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;git&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020500,0000,00,9,99,docker,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;docker&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020500,0000,00,9,99,mongodb,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;mongodb&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Python开发工程师</t>
+          <t>Python全栈工程师</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1-2万·14薪</t>
+          <t>5-8千·13薪</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>上海·长宁区</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2年及以上</t>
+          <t>无需经验</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>本科</t>
+          <t>大专</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="77b13b9f9384a392816e59d41d68fc8b", element="f.5312BA5956F1BC628C4D359A1331DB71.d.C2BB64AD94AB44CBFB0902A9922E36B3.e.1879")&gt;</t>
+          <t>&lt;selenium.webdriver.remote.webelement.WebElement (session="4af0b236562eea25e6816451087bb5f7", element="f.3F5363F8F6E2014B6F4E8DE46F7DDDE2.d.C3B3DE4BFE7D730F79CDF2313E3CD70C.e.1874")&gt;</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>上海云间世纪文化科技有限公司</t>
+          <t>合肥数聚云数据有限公司</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['        加入我们——一个在图书线上分销及运营业界中处于尖端领域的团队，这里你的技术才能将如同神灵般照亮我们的业务道路。我们正在寻找一位充满激情与创意的Python程序员，来助力我们的技术中枢，携手推动图书行业的线上革新。在我们这个扁平化管理的团队中，每个人都是关键的一环，我们共同努力，创造出让人兴奋的解决方案。如果你是那个渴望在和谐的团队氛围中共同成长，并以技术创新为己任的人才，欢迎你的加入！&lt;br&gt;&lt;br&gt;职位描述：&lt;br&gt;业务系统平台及其组件的设计和开发；&lt;br&gt;优化、改进业务系统；&lt;br&gt;根据业务规则与分析模型实现相关代码；&lt;br&gt;负责图书分销业务需求的技术对接。&lt;br&gt;&lt;br&gt;任职要求：&lt;br&gt;本科及以上学历，计算机相关专业背景优先；&lt;br&gt;两年以上Python后端开发经验，熟悉常用的Web框架（如Django、Flask等）；&lt;br&gt;熟悉数据库设计和SQL语言，有Postgresql或其他关系型数据库的实际项目经验；&lt;br&gt;熟悉Linux操作系统及常用命令，具备基本的系统管理和维护能力；&lt;br&gt;熟悉RESTful API设计和开发，了解微服务架构优先；&lt;br&gt;热爱Python，并对计算机科学有深入的理解；&lt;br&gt;能够独立地解决问题，同时在扁平化的团队结构中展现出强烈的团队合作精神；&lt;br&gt;拥抱开放文化，勇于接受前沿技术挑战，热爱快节奏、充满变化的工作氛围；&lt;br&gt;有志于在图书行业线上运营的尖端领域大放异彩。&lt;br&gt;&lt;br&gt;&lt;br&gt;我们的团队不仅是技术的中坚力量，更是行业创新的先锋。如果你热衷于技术，渴望在图书行业的数字化浪潮中扮演重要角色，就来加入我们吧！我们期待着你的才华和激情，一起书写图书行业线上发展的新篇章。请立即发送简历，和我们一起迈入这个令人兴奋的冒险旅程！\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/shanghai-cnq/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,PostgreSQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;PostgreSQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,Django,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Django&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,Flask,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Flask&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/020000,020400,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
+          <t>['        1从事爬虫数据分析&lt;br&gt;2精通mysql数据库&lt;br&gt;3会Linux等运维等\n                &lt;div class="mt10"&gt;\n                                                    &lt;p class="fp"&gt;&lt;span class="label"&gt;职能类别：&lt;/span&gt;&lt;a class="el tdn" href="https://jobs.51job.com/hefei/Python/"&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                        &lt;p class="fp"&gt;&lt;span class="label"&gt;关键字：&lt;/span&gt;&lt;a class="el tdn" href="https://search.51job.com/list/150200,000000,0000,00,9,99,MySQL,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;MySQL&lt;/a&gt;&lt;a class="el tdn" href="https://search.51job.com/list/150200,000000,0000,00,9,99,Python,2,1.html?lang=c&amp;amp;postchannel=0000&amp;amp;workyear=99&amp;amp;cotype=99&amp;amp;degreefrom=99&amp;amp;jobterm=99&amp;amp;companysize=99&amp;amp;ord_field=0&amp;amp;dibiaoid=0&amp;amp;line=&amp;amp;welfare="&gt;Python&lt;/a&gt;&lt;/p&gt;\n                                &lt;/div&gt;\n&lt;!--        &lt;div class="share"&gt;']</t>
         </is>
       </c>
     </row>
